--- a/script_notebooks/taup_models/velocity model diff.xlsx
+++ b/script_notebooks/taup_models/velocity model diff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddysita/Desktop/CIERA_REU/script-notebooks/taup_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddysita/Desktop/CIERA_REU/script_notebooks/taup_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85532BE8-13D3-A04F-B601-52DAEC5A7844}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2ABBC0-3B4F-0F45-AF8C-040A399DAF23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="27440" windowHeight="15760" activeTab="1" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
+    <workbookView xWindow="1040" yWindow="1380" windowWidth="27440" windowHeight="15760" activeTab="3" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
   </bookViews>
   <sheets>
     <sheet name="Distances" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="98">
   <si>
     <t>Model</t>
   </si>
@@ -326,12 +326,6 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>325a - 1</t>
-  </si>
-  <si>
-    <t>325a - 2</t>
-  </si>
-  <si>
     <t>SH/SV</t>
   </si>
   <si>
@@ -377,12 +371,6 @@
     <t>the P/SV P/SH are outside (below) the 5% range but seem to have the same expected ratio between the two, only 75km</t>
   </si>
   <si>
-    <t>depths 5-10km</t>
-  </si>
-  <si>
-    <t>depth 55km</t>
-  </si>
-  <si>
     <t>0 / 90</t>
   </si>
   <si>
@@ -456,6 +444,36 @@
   </si>
   <si>
     <t>sv-p</t>
+  </si>
+  <si>
+    <t>325ab</t>
+  </si>
+  <si>
+    <t>400deg / 140cm</t>
+  </si>
+  <si>
+    <t>1 deg = 0.35 cm</t>
+  </si>
+  <si>
+    <t>10 min / 150cm</t>
+  </si>
+  <si>
+    <t>1 min = 15 cm</t>
+  </si>
+  <si>
+    <t>325a a</t>
+  </si>
+  <si>
+    <t>325a b</t>
+  </si>
+  <si>
+    <t>*matches signs and ratio of PSV pSH but signifigantly weaker</t>
+  </si>
+  <si>
+    <t>matches signs and ratio of PSV PSH but signifigantly below the 5% range</t>
+  </si>
+  <si>
+    <t>*still going to try this mechanism despite not rerunning this model</t>
   </si>
 </sst>
 </file>
@@ -491,7 +509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,6 +600,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="115">
     <border>
@@ -1813,7 +1837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1994,7 +2018,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2009,109 +2139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2126,10 +2154,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2138,13 +2171,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB0DB5C"/>
       <color rgb="FFFFB9EE"/>
       <color rgb="FFDBE9EF"/>
       <color rgb="FFC1FF3F"/>
       <color rgb="FF0086FF"/>
       <color rgb="FF903ECE"/>
       <color rgb="FFFFEDEA"/>
-      <color rgb="FFB0DB5C"/>
       <color rgb="FFC18375"/>
       <color rgb="FFFF706D"/>
       <color rgb="FFC79AFF"/>
@@ -2458,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46560FC0-A59C-DF45-9D49-769E5A1C0609}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2469,7 +2502,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2482,8 +2515,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2496,8 +2532,14 @@
       <c r="D2" s="2">
         <v>38.200000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2510,10 +2552,15 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2526,10 +2573,15 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2542,10 +2594,15 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2558,10 +2615,12 @@
       <c r="D6" s="2">
         <v>39</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="192">
+        <v>38.200000000000003</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2574,8 +2633,11 @@
       <c r="D7">
         <v>40.700000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2588,8 +2650,11 @@
       <c r="D8" s="2">
         <v>40.200000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="2">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2602,8 +2667,11 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2616,8 +2684,11 @@
       <c r="D10" s="2">
         <v>37.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="2">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2630,8 +2701,11 @@
       <c r="D11" s="2">
         <v>38.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2644,8 +2718,11 @@
       <c r="D12" s="2">
         <v>37.299999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="2">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2658,8 +2735,11 @@
       <c r="D13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2672,8 +2752,11 @@
       <c r="D14" s="2">
         <v>37.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="2">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16">
         <f>AVERAGE(B2:B14)</f>
         <v>28.757142857142856</v>
@@ -2686,11 +2769,19 @@
         <f>AVERAGE(D2:D14)</f>
         <v>38.5625</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <f>AVERAGE(E2:E14)</f>
+        <v>35.225000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17">
         <f>STDEV(D2:D14)</f>
         <v>1.2905563584306259</v>
+      </c>
+      <c r="E17">
+        <f>STDEV(E2:E14)</f>
+        <v>1.6095695964183363</v>
       </c>
     </row>
   </sheetData>
@@ -2702,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C780D16-7681-8D48-B4B0-5F55C4C01983}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2726,40 +2817,40 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="145" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K1" s="145" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L1" s="145" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M1" s="145"/>
       <c r="N1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="146" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" s="146"/>
+      <c r="T1" s="148"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="136" t="s">
@@ -2960,41 +3051,41 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="191">
+      <c r="B5" s="147">
         <v>134</v>
       </c>
-      <c r="C5" s="191">
+      <c r="C5" s="147">
         <v>-214</v>
       </c>
-      <c r="D5" s="191">
+      <c r="D5" s="147">
         <v>178</v>
       </c>
-      <c r="E5" s="191"/>
-      <c r="F5" s="191">
+      <c r="E5" s="147"/>
+      <c r="F5" s="147">
         <f t="shared" si="0"/>
         <v>-0.62616822429906538</v>
       </c>
-      <c r="G5" s="191">
+      <c r="G5" s="147">
         <f t="shared" si="1"/>
         <v>-0.83177570093457942</v>
       </c>
-      <c r="H5" s="191">
+      <c r="H5" s="147">
         <f t="shared" si="2"/>
         <v>1.3283582089552239</v>
       </c>
       <c r="I5" s="111"/>
-      <c r="J5" s="191">
+      <c r="J5" s="147">
         <f t="shared" si="3"/>
         <v>-1.2135583763425861E-2</v>
       </c>
-      <c r="K5" s="191">
+      <c r="K5" s="147">
         <f t="shared" si="4"/>
         <v>1.029087472435157E-2</v>
       </c>
-      <c r="L5" s="191">
+      <c r="L5" s="147">
         <f t="shared" si="5"/>
         <v>1.8447090390742915E-3</v>
       </c>
@@ -3442,41 +3533,41 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="191">
+      <c r="B14" s="147">
         <v>379</v>
       </c>
-      <c r="C14" s="191">
+      <c r="C14" s="147">
         <v>366</v>
       </c>
-      <c r="D14" s="191">
+      <c r="D14" s="147">
         <v>160</v>
       </c>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191">
+      <c r="E14" s="147"/>
+      <c r="F14" s="147">
         <f t="shared" si="0"/>
         <v>1.03551912568306</v>
       </c>
-      <c r="G14" s="191">
+      <c r="G14" s="147">
         <f t="shared" si="1"/>
         <v>0.43715846994535518</v>
       </c>
-      <c r="H14" s="191">
+      <c r="H14" s="147">
         <f t="shared" si="2"/>
         <v>0.42216358839050133</v>
       </c>
       <c r="I14" s="111"/>
-      <c r="J14" s="191">
+      <c r="J14" s="147">
         <f t="shared" si="3"/>
         <v>9.3718009717836697E-5</v>
       </c>
-      <c r="K14" s="191">
+      <c r="K14" s="147">
         <f t="shared" si="4"/>
         <v>3.51775956284153E-3</v>
       </c>
-      <c r="L14" s="191">
+      <c r="L14" s="147">
         <f t="shared" si="5"/>
         <v>-3.6114775725593668E-3</v>
       </c>
@@ -3715,7 +3806,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="69" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
@@ -3928,41 +4019,41 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="190" t="s">
+      <c r="A23" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="191">
+      <c r="B23" s="147">
         <v>-104</v>
       </c>
-      <c r="C23" s="191">
+      <c r="C23" s="147">
         <v>260</v>
       </c>
-      <c r="D23" s="191">
+      <c r="D23" s="147">
         <v>152</v>
       </c>
-      <c r="E23" s="191"/>
-      <c r="F23" s="191">
+      <c r="E23" s="147"/>
+      <c r="F23" s="147">
         <f t="shared" si="0"/>
         <v>-0.4</v>
       </c>
-      <c r="G23" s="191">
+      <c r="G23" s="147">
         <f t="shared" si="1"/>
         <v>0.58461538461538465</v>
       </c>
-      <c r="H23" s="191">
+      <c r="H23" s="147">
         <f t="shared" si="2"/>
         <v>-1.4615384615384615</v>
       </c>
       <c r="I23" s="111"/>
-      <c r="J23" s="191">
+      <c r="J23" s="147">
         <f t="shared" si="3"/>
         <v>1.3461538461538462E-2</v>
       </c>
-      <c r="K23" s="191">
+      <c r="K23" s="147">
         <f t="shared" si="4"/>
         <v>2.7327935222672063E-3</v>
       </c>
-      <c r="L23" s="191">
+      <c r="L23" s="147">
         <f t="shared" si="5"/>
         <v>-1.6194331983805668E-2</v>
       </c>
@@ -4193,7 +4284,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="70" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -4222,7 +4313,7 @@
         <v>362</v>
       </c>
       <c r="D29">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
@@ -4230,11 +4321,11 @@
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>0.62430939226519333</v>
+        <v>0.62154696132596687</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>-0.62777777777777777</v>
+        <v>-0.625</v>
       </c>
       <c r="J29" s="111">
         <f t="shared" si="3"/>
@@ -4242,11 +4333,11 @@
       </c>
       <c r="K29" s="111">
         <f t="shared" si="4"/>
-        <v>1.6623478218354276E-3</v>
+        <v>1.682013505217925E-3</v>
       </c>
       <c r="L29" s="111">
         <f t="shared" si="5"/>
-        <v>-7.2025565388397243E-3</v>
+        <v>-7.2222222222222219E-3</v>
       </c>
       <c r="O29" s="71">
         <f t="shared" si="6"/>
@@ -4258,19 +4349,19 @@
       </c>
       <c r="Q29" s="71">
         <f t="shared" si="8"/>
-        <v>0.59309392265193361</v>
+        <v>0.59046961325966851</v>
       </c>
       <c r="R29">
         <f t="shared" si="9"/>
-        <v>0.65552486187845305</v>
+        <v>0.65262430939226523</v>
       </c>
       <c r="S29" s="71">
         <f t="shared" si="10"/>
-        <v>-0.59638888888888886</v>
+        <v>-0.59375</v>
       </c>
       <c r="T29">
         <f t="shared" si="11"/>
-        <v>-0.65916666666666668</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -4281,62 +4372,62 @@
         <v>-360</v>
       </c>
       <c r="C30" s="111">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D30" s="111">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E30" s="111"/>
       <c r="F30" s="111">
         <f t="shared" si="0"/>
-        <v>-1.2587412587412588</v>
+        <v>-1.263157894736842</v>
       </c>
       <c r="G30" s="111">
         <f t="shared" si="1"/>
-        <v>0.60839160839160844</v>
+        <v>0.59649122807017541</v>
       </c>
       <c r="H30" s="111">
         <f t="shared" si="2"/>
-        <v>-0.48333333333333334</v>
+        <v>-0.47222222222222221</v>
       </c>
       <c r="I30" s="111"/>
       <c r="J30" s="111">
         <f t="shared" si="3"/>
-        <v>6.2742812742812744E-3</v>
+        <v>6.2865497076023394E-3</v>
       </c>
       <c r="K30" s="111">
         <f t="shared" si="4"/>
-        <v>2.2506229402781126E-3</v>
+        <v>2.373581011351909E-3</v>
       </c>
       <c r="L30" s="111">
         <f t="shared" si="5"/>
-        <v>-8.5249042145593874E-3</v>
+        <v>-8.6601307189542488E-3</v>
       </c>
       <c r="M30" s="111"/>
       <c r="N30" s="111"/>
       <c r="O30" s="137">
         <f t="shared" si="6"/>
-        <v>-1.1958041958041958</v>
+        <v>-1.2</v>
       </c>
       <c r="P30" s="111">
         <f t="shared" si="7"/>
-        <v>-1.3216783216783217</v>
+        <v>-1.3263157894736841</v>
       </c>
       <c r="Q30" s="137">
         <f t="shared" si="8"/>
-        <v>0.57797202797202807</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="R30" s="111">
         <f t="shared" si="9"/>
-        <v>0.63881118881118881</v>
+        <v>0.62631578947368416</v>
       </c>
       <c r="S30" s="137">
         <f t="shared" si="10"/>
-        <v>-0.45916666666666667</v>
+        <v>-0.44861111111111107</v>
       </c>
       <c r="T30" s="111">
         <f t="shared" si="11"/>
-        <v>-0.50750000000000006</v>
+        <v>-0.49583333333333335</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -4350,7 +4441,7 @@
         <v>366</v>
       </c>
       <c r="D31" s="111">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E31" s="111"/>
       <c r="F31" s="111">
@@ -4359,11 +4450,11 @@
       </c>
       <c r="G31" s="111">
         <f t="shared" si="1"/>
-        <v>0.63387978142076506</v>
+        <v>0.63661202185792354</v>
       </c>
       <c r="H31" s="111">
         <f t="shared" si="2"/>
-        <v>-0.64444444444444449</v>
+        <v>-0.64722222222222225</v>
       </c>
       <c r="I31" s="111"/>
       <c r="J31" s="111">
@@ -4372,11 +4463,11 @@
       </c>
       <c r="K31" s="111">
         <f t="shared" si="4"/>
-        <v>1.5781043904277369E-3</v>
+        <v>1.5596050564037618E-3</v>
       </c>
       <c r="L31" s="111">
         <f t="shared" si="5"/>
-        <v>-7.0881226053639843E-3</v>
+        <v>-7.0696232713400092E-3</v>
       </c>
       <c r="M31" s="111"/>
       <c r="N31" s="111"/>
@@ -4390,85 +4481,85 @@
       </c>
       <c r="Q31" s="137">
         <f t="shared" si="8"/>
-        <v>0.6021857923497268</v>
+        <v>0.60478142076502739</v>
       </c>
       <c r="R31" s="111">
         <f t="shared" si="9"/>
-        <v>0.66557377049180333</v>
+        <v>0.66844262295081969</v>
       </c>
       <c r="S31" s="137">
         <f t="shared" si="10"/>
-        <v>-0.61222222222222222</v>
+        <v>-0.61486111111111119</v>
       </c>
       <c r="T31" s="111">
         <f t="shared" si="11"/>
-        <v>-0.67666666666666675</v>
+        <v>-0.67958333333333332</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="190" t="s">
+      <c r="A32" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="191">
+      <c r="B32" s="147">
         <v>-360</v>
       </c>
-      <c r="C32" s="191">
-        <v>360</v>
-      </c>
-      <c r="D32" s="191">
-        <v>232</v>
-      </c>
-      <c r="E32" s="191"/>
-      <c r="F32" s="191">
+      <c r="C32" s="147">
+        <v>358</v>
+      </c>
+      <c r="D32" s="147">
+        <v>235</v>
+      </c>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="G32" s="191">
+        <v>-1.005586592178771</v>
+      </c>
+      <c r="G32" s="147">
         <f t="shared" si="1"/>
-        <v>0.64444444444444449</v>
-      </c>
-      <c r="H32" s="191">
+        <v>0.65642458100558654</v>
+      </c>
+      <c r="H32" s="147">
         <f t="shared" si="2"/>
-        <v>-0.64444444444444449</v>
+        <v>-0.65277777777777779</v>
       </c>
       <c r="I32" s="111"/>
-      <c r="J32" s="191">
+      <c r="J32" s="147">
         <f t="shared" si="3"/>
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="K32" s="191">
+        <v>5.5710738671632528E-3</v>
+      </c>
+      <c r="K32" s="147">
         <f t="shared" si="4"/>
-        <v>1.5325670498084292E-3</v>
-      </c>
-      <c r="L32" s="191">
+        <v>1.4620230595506953E-3</v>
+      </c>
+      <c r="L32" s="147">
         <f t="shared" si="5"/>
-        <v>-7.0881226053639843E-3</v>
+        <v>-7.0330969267139477E-3</v>
       </c>
       <c r="M32" s="111"/>
       <c r="N32" s="111"/>
       <c r="O32" s="137">
         <f t="shared" si="6"/>
-        <v>-0.95</v>
+        <v>-0.95530726256983245</v>
       </c>
       <c r="P32" s="111">
         <f t="shared" si="7"/>
-        <v>-1.05</v>
+        <v>-1.0558659217877095</v>
       </c>
       <c r="Q32" s="137">
         <f t="shared" si="8"/>
-        <v>0.61222222222222222</v>
+        <v>0.62360335195530725</v>
       </c>
       <c r="R32" s="111">
         <f t="shared" si="9"/>
-        <v>0.67666666666666675</v>
+        <v>0.68924581005586583</v>
       </c>
       <c r="S32" s="137">
         <f t="shared" si="10"/>
-        <v>-0.61222222222222222</v>
+        <v>-0.62013888888888891</v>
       </c>
       <c r="T32" s="111">
         <f t="shared" si="11"/>
-        <v>-0.67666666666666675</v>
+        <v>-0.68541666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -4479,62 +4570,62 @@
         <v>-360</v>
       </c>
       <c r="C33" s="111">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D33" s="111">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E33" s="111"/>
       <c r="F33" s="111">
         <f t="shared" si="0"/>
-        <v>-0.99722991689750695</v>
+        <v>-1.0027855153203342</v>
       </c>
       <c r="G33" s="111">
         <f t="shared" si="1"/>
-        <v>0.61495844875346262</v>
+        <v>0.62116991643454034</v>
       </c>
       <c r="H33" s="111">
         <f t="shared" si="2"/>
-        <v>-0.6166666666666667</v>
+        <v>-0.61944444444444446</v>
       </c>
       <c r="I33" s="111"/>
       <c r="J33" s="111">
         <f t="shared" si="3"/>
-        <v>5.5478608802708527E-3</v>
+        <v>5.5632930981120397E-3</v>
       </c>
       <c r="K33" s="111">
         <f t="shared" si="4"/>
-        <v>1.7344214020114297E-3</v>
+        <v>1.6987896124011641E-3</v>
       </c>
       <c r="L33" s="111">
         <f t="shared" si="5"/>
-        <v>-7.2822822822822819E-3</v>
+        <v>-7.2620827105132034E-3</v>
       </c>
       <c r="M33" s="111"/>
       <c r="N33" s="111"/>
       <c r="O33" s="137">
         <f t="shared" si="6"/>
-        <v>-0.94736842105263164</v>
+        <v>-0.95264623955431749</v>
       </c>
       <c r="P33" s="111">
         <f t="shared" si="7"/>
-        <v>-1.0470914127423823</v>
+        <v>-1.0529247910863508</v>
       </c>
       <c r="Q33" s="137">
         <f t="shared" si="8"/>
-        <v>0.58421052631578951</v>
+        <v>0.5901114206128133</v>
       </c>
       <c r="R33" s="111">
         <f t="shared" si="9"/>
-        <v>0.64570637119113572</v>
+        <v>0.65222841225626738</v>
       </c>
       <c r="S33" s="137">
         <f t="shared" si="10"/>
-        <v>-0.58583333333333332</v>
+        <v>-0.58847222222222229</v>
       </c>
       <c r="T33" s="111">
         <f t="shared" si="11"/>
-        <v>-0.64750000000000008</v>
+        <v>-0.65041666666666664</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -4548,7 +4639,7 @@
         <v>363</v>
       </c>
       <c r="D34">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
@@ -4556,11 +4647,11 @@
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>0.62809917355371903</v>
+        <v>0.6198347107438017</v>
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>-0.6333333333333333</v>
+        <v>-0.625</v>
       </c>
       <c r="J34" s="111">
         <f t="shared" si="3"/>
@@ -4568,11 +4659,11 @@
       </c>
       <c r="K34" s="111">
         <f t="shared" si="4"/>
-        <v>1.6311439756415832E-3</v>
+        <v>1.6896235078053259E-3</v>
       </c>
       <c r="L34" s="111">
         <f t="shared" si="5"/>
-        <v>-7.1637426900584798E-3</v>
+        <v>-7.2222222222222219E-3</v>
       </c>
       <c r="O34" s="71">
         <f t="shared" si="6"/>
@@ -4584,19 +4675,19 @@
       </c>
       <c r="Q34" s="71">
         <f t="shared" si="8"/>
-        <v>0.59669421487603302</v>
+        <v>0.58884297520661166</v>
       </c>
       <c r="R34">
         <f t="shared" si="9"/>
-        <v>0.65950413223140503</v>
+        <v>0.65082644628099173</v>
       </c>
       <c r="S34" s="71">
         <f t="shared" si="10"/>
-        <v>-0.60166666666666668</v>
+        <v>-0.59375</v>
       </c>
       <c r="T34">
         <f t="shared" si="11"/>
-        <v>-0.66499999999999992</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -4607,58 +4698,58 @@
         <v>-360</v>
       </c>
       <c r="C35">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D35">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>-0.99447513812154698</v>
+        <v>-0.98901098901098905</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>0.6270718232044199</v>
+        <v>0.61813186813186816</v>
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>-0.63055555555555554</v>
+        <v>-0.625</v>
       </c>
       <c r="J35" s="111">
         <f t="shared" si="3"/>
-        <v>5.5402087170042975E-3</v>
+        <v>5.5250305250305254E-3</v>
       </c>
       <c r="K35" s="111">
         <f t="shared" si="4"/>
-        <v>1.6428554043858156E-3</v>
+        <v>1.6971916971916972E-3</v>
       </c>
       <c r="L35" s="111">
         <f t="shared" si="5"/>
-        <v>-7.1830641213901127E-3</v>
+        <v>-7.2222222222222219E-3</v>
       </c>
       <c r="O35" s="71">
         <f t="shared" si="6"/>
-        <v>-0.94475138121546964</v>
+        <v>-0.93956043956043955</v>
       </c>
       <c r="P35">
         <f t="shared" si="7"/>
-        <v>-1.0441988950276244</v>
+        <v>-1.0384615384615385</v>
       </c>
       <c r="Q35" s="71">
         <f t="shared" si="8"/>
-        <v>0.59571823204419894</v>
+        <v>0.58722527472527475</v>
       </c>
       <c r="R35">
         <f t="shared" si="9"/>
-        <v>0.65842541436464086</v>
+        <v>0.64903846153846156</v>
       </c>
       <c r="S35" s="71">
         <f t="shared" si="10"/>
-        <v>-0.59902777777777771</v>
+        <v>-0.59375</v>
       </c>
       <c r="T35">
         <f t="shared" si="11"/>
-        <v>-0.66208333333333336</v>
+        <v>-0.65625</v>
       </c>
     </row>
   </sheetData>
@@ -4675,10 +4766,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0308DFE-50DB-2749-87B1-CD1522606ED8}">
-  <dimension ref="A1:Q122"/>
+  <dimension ref="A1:R122"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="94" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A42" zoomScale="94" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4687,30 +4778,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="147" t="s">
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="146" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="148" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
@@ -4764,7 +4855,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="86"/>
       <c r="C3" s="7"/>
@@ -4806,14 +4897,14 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="56"/>
       <c r="F5" s="86" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -4822,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J5" s="53"/>
       <c r="K5" s="53"/>
@@ -4938,30 +5029,30 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="150" t="s">
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="151" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="151" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="187"/>
+      <c r="J12" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="153" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="153"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="154"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
@@ -5016,7 +5107,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="86"/>
       <c r="C14" s="7"/>
@@ -5065,7 +5156,7 @@
       <c r="D16" s="53"/>
       <c r="E16" s="56"/>
       <c r="F16" s="86" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -5074,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J16" s="7">
         <v>50</v>
@@ -5083,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M16" s="65">
         <v>0.39</v>
@@ -5110,7 +5201,7 @@
         <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M17" s="65">
         <v>0.39</v>
@@ -5225,30 +5316,30 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="179" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="155"/>
       <c r="D23" s="155"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="154" t="s">
+      <c r="E23" s="180"/>
+      <c r="F23" s="179" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="155"/>
       <c r="H23" s="155"/>
-      <c r="I23" s="156"/>
+      <c r="I23" s="180"/>
       <c r="J23" s="155" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K23" s="155"/>
       <c r="L23" s="155"/>
-      <c r="M23" s="157"/>
+      <c r="M23" s="156"/>
       <c r="N23" s="155" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O23" s="155"/>
       <c r="P23" s="155"/>
-      <c r="Q23" s="157"/>
+      <c r="Q23" s="156"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
@@ -5303,7 +5394,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="86"/>
       <c r="C25" s="7"/>
@@ -5373,7 +5464,7 @@
       <c r="D28" s="53"/>
       <c r="E28" s="54"/>
       <c r="F28" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -5382,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J28" s="53"/>
       <c r="K28" s="53"/>
@@ -5481,30 +5572,30 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="28"/>
-      <c r="B34" s="158" t="s">
+      <c r="B34" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="159"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="158" t="s">
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="159" t="s">
-        <v>61</v>
-      </c>
-      <c r="K34" s="159"/>
-      <c r="L34" s="159"/>
-      <c r="M34" s="161"/>
-      <c r="N34" s="159" t="s">
-        <v>58</v>
-      </c>
-      <c r="O34" s="159"/>
-      <c r="P34" s="159"/>
-      <c r="Q34" s="161"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="157" t="s">
+        <v>59</v>
+      </c>
+      <c r="K34" s="157"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="158"/>
+      <c r="N34" s="157" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="157"/>
+      <c r="P34" s="157"/>
+      <c r="Q34" s="158"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="29"/>
@@ -5597,7 +5688,7 @@
         <v>80</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M37" s="46">
         <v>0.39</v>
@@ -5637,7 +5728,7 @@
       <c r="D39" s="7"/>
       <c r="E39" s="43"/>
       <c r="F39" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G39" s="7">
         <v>0</v>
@@ -5646,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="43" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J39" s="53"/>
       <c r="K39" s="53"/>
@@ -5709,7 +5800,7 @@
         <v>20</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q41" s="46">
         <v>-0.98</v>
@@ -5771,30 +5862,30 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
-      <c r="B46" s="162" t="s">
+      <c r="B46" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="162" t="s">
+      <c r="C46" s="159"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="163"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="163" t="s">
+      <c r="G46" s="159"/>
+      <c r="H46" s="159"/>
+      <c r="I46" s="172"/>
+      <c r="J46" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="K46" s="163"/>
-      <c r="L46" s="163"/>
-      <c r="M46" s="165"/>
-      <c r="N46" s="163" t="s">
-        <v>58</v>
-      </c>
-      <c r="O46" s="163"/>
-      <c r="P46" s="163"/>
-      <c r="Q46" s="165"/>
+      <c r="K46" s="159"/>
+      <c r="L46" s="159"/>
+      <c r="M46" s="160"/>
+      <c r="N46" s="159" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="159"/>
+      <c r="P46" s="159"/>
+      <c r="Q46" s="160"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
@@ -5868,7 +5959,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="44"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="34" t="s">
         <v>18</v>
       </c>
@@ -5887,7 +5978,7 @@
         <v>80</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M49" s="44">
         <v>0.39</v>
@@ -5897,7 +5988,7 @@
       <c r="P49" s="53"/>
       <c r="Q49" s="60"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="34" t="s">
         <v>9</v>
       </c>
@@ -5918,7 +6009,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="44"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="34" t="s">
         <v>28</v>
       </c>
@@ -5939,18 +6030,18 @@
       <c r="P51" s="53"/>
       <c r="Q51" s="60"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="143" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C52" s="141">
         <v>45</v>
       </c>
       <c r="D52" s="141" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E52" s="142">
         <v>-0.65</v>
@@ -5959,10 +6050,10 @@
         <v>114</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I52" s="43">
         <v>0.99</v>
@@ -5974,20 +6065,31 @@
         <v>0</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M52" s="127">
         <v>0.4</v>
       </c>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="60"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N52" s="53">
+        <v>90</v>
+      </c>
+      <c r="O52" s="53">
+        <v>80</v>
+      </c>
+      <c r="P52" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q52" s="60">
+        <v>-1.02</v>
+      </c>
+      <c r="R52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="34"/>
       <c r="B53" s="143" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C53" s="141">
         <v>20</v>
@@ -6002,10 +6104,10 @@
         <v>113</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I53" s="43">
         <v>1.02</v>
@@ -6017,7 +6119,7 @@
         <v>90</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M53" s="127">
         <v>0.4</v>
@@ -6027,7 +6129,7 @@
       <c r="P53" s="53"/>
       <c r="Q53" s="60"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="34"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -6037,10 +6139,10 @@
         <v>112</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I54" s="43">
         <v>1.06</v>
@@ -6062,7 +6164,7 @@
       <c r="P54" s="53"/>
       <c r="Q54" s="60"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="34" t="s">
         <v>27</v>
       </c>
@@ -6085,13 +6187,13 @@
         <v>20</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q55" s="44">
         <v>-0.94</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="34" t="s">
         <v>31</v>
       </c>
@@ -6112,7 +6214,7 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="44"/>
     </row>
-    <row r="57" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
         <v>26</v>
       </c>
@@ -6133,46 +6235,46 @@
       <c r="P57" s="99"/>
       <c r="Q57" s="101"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="E58" s="16"/>
       <c r="I58" s="16"/>
       <c r="M58" s="16"/>
     </row>
-    <row r="59" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="E59" s="16"/>
       <c r="I59" s="16"/>
       <c r="M59" s="16"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="38"/>
-      <c r="B60" s="170" t="s">
+      <c r="B60" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="171"/>
-      <c r="D60" s="171"/>
-      <c r="E60" s="172"/>
-      <c r="F60" s="170" t="s">
+      <c r="C60" s="161"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="176"/>
+      <c r="F60" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="171"/>
-      <c r="H60" s="171"/>
-      <c r="I60" s="172"/>
-      <c r="J60" s="171" t="s">
+      <c r="G60" s="161"/>
+      <c r="H60" s="161"/>
+      <c r="I60" s="176"/>
+      <c r="J60" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="K60" s="171"/>
-      <c r="L60" s="171"/>
-      <c r="M60" s="173"/>
-      <c r="N60" s="171" t="s">
-        <v>58</v>
-      </c>
-      <c r="O60" s="171"/>
-      <c r="P60" s="171"/>
-      <c r="Q60" s="173"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K60" s="161"/>
+      <c r="L60" s="161"/>
+      <c r="M60" s="162"/>
+      <c r="N60" s="161" t="s">
+        <v>56</v>
+      </c>
+      <c r="O60" s="161"/>
+      <c r="P60" s="161"/>
+      <c r="Q60" s="162"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="39"/>
       <c r="B61" s="4" t="s">
         <v>19</v>
@@ -6223,7 +6325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="42" t="s">
         <v>32</v>
       </c>
@@ -6244,7 +6346,7 @@
       <c r="P62" s="7"/>
       <c r="Q62" s="45"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="s">
         <v>18</v>
       </c>
@@ -6263,7 +6365,7 @@
         <v>80</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M63" s="45">
         <v>0.39</v>
@@ -6273,7 +6375,7 @@
       <c r="P63" s="53"/>
       <c r="Q63" s="59"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="s">
         <v>9</v>
       </c>
@@ -6294,7 +6396,7 @@
       <c r="P64" s="7"/>
       <c r="Q64" s="45"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="s">
         <v>28</v>
       </c>
@@ -6315,7 +6417,7 @@
       <c r="P65" s="53"/>
       <c r="Q65" s="59"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="s">
         <v>13</v>
       </c>
@@ -6326,7 +6428,7 @@
         <v>45</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E66" s="43">
         <v>-0.65</v>
@@ -6350,20 +6452,31 @@
         <v>0</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M66" s="45">
         <v>0.38</v>
       </c>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="53"/>
-      <c r="Q66" s="59"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N66" s="53">
+        <v>90</v>
+      </c>
+      <c r="O66" s="53">
+        <v>80</v>
+      </c>
+      <c r="P66" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q66" s="59">
+        <v>-0.98</v>
+      </c>
+      <c r="R66" s="141" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="39"/>
       <c r="B67" s="140" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C67" s="7">
         <v>20</v>
@@ -6393,7 +6506,7 @@
         <v>90</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M67" s="45">
         <v>0.38</v>
@@ -6403,7 +6516,7 @@
       <c r="P67" s="53"/>
       <c r="Q67" s="59"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="39"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -6438,7 +6551,7 @@
       <c r="P68" s="53"/>
       <c r="Q68" s="59"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="39"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -6465,7 +6578,7 @@
       <c r="P69" s="53"/>
       <c r="Q69" s="59"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="s">
         <v>27</v>
       </c>
@@ -6488,13 +6601,13 @@
         <v>20</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q70" s="45">
         <v>-0.94</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="s">
         <v>31</v>
       </c>
@@ -6515,7 +6628,7 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="45"/>
     </row>
-    <row r="72" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="41" t="s">
         <v>26</v>
       </c>
@@ -6536,46 +6649,46 @@
       <c r="P72" s="96"/>
       <c r="Q72" s="98"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="E73" s="16"/>
       <c r="I73" s="16"/>
       <c r="M73" s="16"/>
     </row>
-    <row r="74" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="E74" s="16"/>
       <c r="I74" s="16"/>
       <c r="M74" s="16"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="47"/>
-      <c r="B75" s="174" t="s">
+      <c r="B75" s="177" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="175"/>
-      <c r="D75" s="175"/>
-      <c r="E75" s="176"/>
-      <c r="F75" s="174" t="s">
+      <c r="C75" s="163"/>
+      <c r="D75" s="163"/>
+      <c r="E75" s="178"/>
+      <c r="F75" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="G75" s="175"/>
-      <c r="H75" s="175"/>
-      <c r="I75" s="176"/>
-      <c r="J75" s="175" t="s">
+      <c r="G75" s="163"/>
+      <c r="H75" s="163"/>
+      <c r="I75" s="178"/>
+      <c r="J75" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="K75" s="175"/>
-      <c r="L75" s="175"/>
-      <c r="M75" s="177"/>
-      <c r="N75" s="175" t="s">
-        <v>58</v>
-      </c>
-      <c r="O75" s="175"/>
-      <c r="P75" s="175"/>
-      <c r="Q75" s="177"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K75" s="163"/>
+      <c r="L75" s="163"/>
+      <c r="M75" s="164"/>
+      <c r="N75" s="163" t="s">
+        <v>56</v>
+      </c>
+      <c r="O75" s="163"/>
+      <c r="P75" s="163"/>
+      <c r="Q75" s="164"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="48"/>
       <c r="B76" s="4" t="s">
         <v>19</v>
@@ -6626,7 +6739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="50" t="s">
         <v>33</v>
       </c>
@@ -6647,7 +6760,7 @@
       <c r="P77" s="7"/>
       <c r="Q77" s="51"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="48" t="s">
         <v>18</v>
       </c>
@@ -6666,7 +6779,7 @@
         <v>80</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M78" s="51">
         <v>0.39</v>
@@ -6676,7 +6789,7 @@
       <c r="P78" s="53"/>
       <c r="Q78" s="58"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="48" t="s">
         <v>9</v>
       </c>
@@ -6697,7 +6810,7 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="51"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="48" t="s">
         <v>28</v>
       </c>
@@ -6718,7 +6831,7 @@
       <c r="P80" s="53"/>
       <c r="Q80" s="58"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>13</v>
       </c>
@@ -6729,7 +6842,7 @@
         <v>45</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E81" s="43">
         <v>-0.65</v>
@@ -6741,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I81" s="43">
         <v>1.04</v>
@@ -6753,20 +6866,31 @@
         <v>0</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M81" s="138">
         <v>0.39</v>
       </c>
-      <c r="N81" s="53"/>
-      <c r="O81" s="53"/>
-      <c r="P81" s="53"/>
-      <c r="Q81" s="58"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N81" s="53">
+        <v>160</v>
+      </c>
+      <c r="O81" s="53">
+        <v>0</v>
+      </c>
+      <c r="P81" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="58">
+        <v>-1.03</v>
+      </c>
+      <c r="R81" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="48"/>
       <c r="B82" s="140" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C82" s="7">
         <v>20</v>
@@ -6784,7 +6908,7 @@
         <v>90</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I82" s="43">
         <v>1.04</v>
@@ -6796,17 +6920,25 @@
         <v>90</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M82" s="138">
         <v>0.39</v>
       </c>
-      <c r="N82" s="53"/>
-      <c r="O82" s="53"/>
-      <c r="P82" s="53"/>
-      <c r="Q82" s="58"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N82" s="53">
+        <v>90</v>
+      </c>
+      <c r="O82" s="53">
+        <v>80</v>
+      </c>
+      <c r="P82" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q82" s="58">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="48"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -6833,7 +6965,7 @@
       <c r="P83" s="53"/>
       <c r="Q83" s="58"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>27</v>
       </c>
@@ -6856,13 +6988,13 @@
         <v>20</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q84" s="51">
         <v>-0.98</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>31</v>
       </c>
@@ -6883,7 +7015,7 @@
       <c r="P85" s="7"/>
       <c r="Q85" s="51"/>
     </row>
-    <row r="86" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="52" t="s">
         <v>26</v>
       </c>
@@ -6904,46 +7036,46 @@
       <c r="P86" s="93"/>
       <c r="Q86" s="95"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="E87" s="16"/>
       <c r="I87" s="16"/>
       <c r="M87" s="16"/>
     </row>
-    <row r="88" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="E88" s="16"/>
       <c r="I88" s="16"/>
       <c r="M88" s="16"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="72"/>
-      <c r="B89" s="184" t="s">
+      <c r="B89" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="182"/>
-      <c r="D89" s="182"/>
-      <c r="E89" s="185"/>
-      <c r="F89" s="184" t="s">
+      <c r="C89" s="165"/>
+      <c r="D89" s="165"/>
+      <c r="E89" s="170"/>
+      <c r="F89" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="G89" s="182"/>
-      <c r="H89" s="182"/>
-      <c r="I89" s="185"/>
-      <c r="J89" s="182" t="s">
+      <c r="G89" s="165"/>
+      <c r="H89" s="165"/>
+      <c r="I89" s="170"/>
+      <c r="J89" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="K89" s="182"/>
-      <c r="L89" s="182"/>
-      <c r="M89" s="183"/>
-      <c r="N89" s="182" t="s">
-        <v>58</v>
-      </c>
-      <c r="O89" s="182"/>
-      <c r="P89" s="182"/>
-      <c r="Q89" s="183"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K89" s="165"/>
+      <c r="L89" s="165"/>
+      <c r="M89" s="166"/>
+      <c r="N89" s="165" t="s">
+        <v>56</v>
+      </c>
+      <c r="O89" s="165"/>
+      <c r="P89" s="165"/>
+      <c r="Q89" s="166"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="73"/>
       <c r="B90" s="4" t="s">
         <v>19</v>
@@ -6994,7 +7126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="78" t="s">
         <v>34</v>
       </c>
@@ -7015,7 +7147,7 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="76"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="73" t="s">
         <v>18</v>
       </c>
@@ -7034,7 +7166,7 @@
         <v>80</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M92" s="76">
         <v>0.38</v>
@@ -7044,7 +7176,7 @@
       <c r="P92" s="53"/>
       <c r="Q92" s="75"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="73" t="s">
         <v>9</v>
       </c>
@@ -7065,7 +7197,7 @@
       <c r="P93" s="7"/>
       <c r="Q93" s="76"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="73" t="s">
         <v>28</v>
       </c>
@@ -7086,7 +7218,7 @@
       <c r="P94" s="53"/>
       <c r="Q94" s="75"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="73" t="s">
         <v>13</v>
       </c>
@@ -7102,12 +7234,23 @@
       <c r="K95" s="53"/>
       <c r="L95" s="53"/>
       <c r="M95" s="75"/>
-      <c r="N95" s="53"/>
-      <c r="O95" s="53"/>
-      <c r="P95" s="53"/>
-      <c r="Q95" s="75"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N95" s="53">
+        <v>160</v>
+      </c>
+      <c r="O95" s="53">
+        <v>0</v>
+      </c>
+      <c r="P95" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="75">
+        <v>-1</v>
+      </c>
+      <c r="R95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="73" t="s">
         <v>27</v>
       </c>
@@ -7130,7 +7273,7 @@
         <v>20</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q96" s="76">
         <v>-0.98</v>
@@ -7192,30 +7335,30 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="114"/>
-      <c r="B101" s="166" t="s">
+      <c r="B101" s="173" t="s">
         <v>23</v>
       </c>
       <c r="C101" s="167"/>
       <c r="D101" s="167"/>
-      <c r="E101" s="168"/>
-      <c r="F101" s="166" t="s">
+      <c r="E101" s="174"/>
+      <c r="F101" s="173" t="s">
         <v>24</v>
       </c>
       <c r="G101" s="167"/>
       <c r="H101" s="167"/>
-      <c r="I101" s="168"/>
+      <c r="I101" s="174"/>
       <c r="J101" s="167" t="s">
         <v>25</v>
       </c>
       <c r="K101" s="167"/>
       <c r="L101" s="167"/>
-      <c r="M101" s="169"/>
+      <c r="M101" s="168"/>
       <c r="N101" s="167" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O101" s="167"/>
       <c r="P101" s="167"/>
-      <c r="Q101" s="169"/>
+      <c r="Q101" s="168"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="115"/>
@@ -7466,30 +7609,30 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="79"/>
-      <c r="B113" s="178" t="s">
+      <c r="B113" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="C113" s="179"/>
-      <c r="D113" s="179"/>
-      <c r="E113" s="180"/>
-      <c r="F113" s="178" t="s">
+      <c r="C113" s="150"/>
+      <c r="D113" s="150"/>
+      <c r="E113" s="151"/>
+      <c r="F113" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="G113" s="179"/>
-      <c r="H113" s="179"/>
-      <c r="I113" s="180"/>
-      <c r="J113" s="179" t="s">
+      <c r="G113" s="150"/>
+      <c r="H113" s="150"/>
+      <c r="I113" s="151"/>
+      <c r="J113" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="K113" s="179"/>
-      <c r="L113" s="179"/>
-      <c r="M113" s="181"/>
-      <c r="N113" s="179" t="s">
-        <v>59</v>
-      </c>
-      <c r="O113" s="179"/>
-      <c r="P113" s="179"/>
-      <c r="Q113" s="181"/>
+      <c r="K113" s="150"/>
+      <c r="L113" s="150"/>
+      <c r="M113" s="152"/>
+      <c r="N113" s="150" t="s">
+        <v>57</v>
+      </c>
+      <c r="O113" s="150"/>
+      <c r="P113" s="150"/>
+      <c r="Q113" s="152"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="80"/>
@@ -7621,18 +7764,10 @@
       <c r="K118" s="53"/>
       <c r="L118" s="53"/>
       <c r="M118" s="82"/>
-      <c r="N118" s="7">
-        <v>90</v>
-      </c>
-      <c r="O118" s="7">
-        <v>20</v>
-      </c>
-      <c r="P118" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="129">
-        <v>-1</v>
-      </c>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="129"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="80" t="s">
@@ -7671,18 +7806,10 @@
       <c r="K120" s="53"/>
       <c r="L120" s="53"/>
       <c r="M120" s="82"/>
-      <c r="N120" s="7">
-        <v>90</v>
-      </c>
-      <c r="O120" s="7">
-        <v>20</v>
-      </c>
-      <c r="P120" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="83">
-        <v>-0.99</v>
-      </c>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="83"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="80" t="s">
@@ -7728,6 +7855,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="J101:M101"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B113:E113"/>
     <mergeCell ref="F113:I113"/>
@@ -7744,30 +7895,6 @@
     <mergeCell ref="B89:E89"/>
     <mergeCell ref="F89:I89"/>
     <mergeCell ref="J89:M89"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="J101:M101"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7777,8 +7904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC525D0-44A5-BB44-890E-BE4921F28280}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7796,30 +7923,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="186" t="s">
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="191" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="131"/>
@@ -7886,7 +8013,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="135" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F3" s="130" t="s">
         <v>6</v>
@@ -7895,10 +8022,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="130" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I3" s="135" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J3" s="130">
         <v>50</v>
@@ -7907,10 +8034,10 @@
         <v>80</v>
       </c>
       <c r="L3" s="130" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="135" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" s="135" t="s">
-        <v>62</v>
       </c>
       <c r="N3" s="130" t="s">
         <v>6</v>
@@ -7947,10 +8074,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="135" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F7" s="130" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G7" s="130">
         <v>0</v>
@@ -7959,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="135" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J7" s="130">
         <v>50</v>
@@ -7968,45 +8095,21 @@
         <v>90</v>
       </c>
       <c r="L7" s="130" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M7" s="135" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" s="130">
-        <v>90</v>
-      </c>
-      <c r="O7" s="130">
-        <v>20</v>
-      </c>
-      <c r="P7" s="130">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="130" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="131"/>
-      <c r="N8" s="130">
-        <v>160</v>
-      </c>
-      <c r="O8" s="130">
-        <v>0</v>
-      </c>
-      <c r="P8" s="130">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="130" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="9" spans="1:17" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="131" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="130" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" s="130">
         <v>20</v>
@@ -8015,19 +8118,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="135" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F9" s="130" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G9" s="130" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H9" s="130" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9" s="135" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J9" s="130">
         <v>50</v>
@@ -8036,34 +8139,37 @@
         <v>90</v>
       </c>
       <c r="L9" s="130" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="135" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="130" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="N9" s="130">
+        <v>90</v>
+      </c>
+      <c r="O9" s="130">
+        <v>80</v>
       </c>
       <c r="P9" s="130" t="s">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="Q9" s="135" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="131"/>
       <c r="B10" s="130" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C10" s="130">
         <v>45</v>
       </c>
       <c r="D10" s="130" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="130" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -8080,7 +8186,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="135" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F11" s="130" t="s">
         <v>6</v>
@@ -8092,7 +8198,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="135" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J11" s="130" t="s">
         <v>6</v>
@@ -8104,24 +8210,27 @@
         <v>6</v>
       </c>
       <c r="M11" s="135" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" s="130" t="s">
-        <v>87</v>
-      </c>
-      <c r="O11" s="130">
+        <v>74</v>
+      </c>
+      <c r="N11" s="193" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="193">
         <v>20</v>
       </c>
-      <c r="P11" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="135" t="s">
-        <v>86</v>
+      <c r="P11" s="193" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="194" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="131" t="s">
         <v>15</v>
+      </c>
+      <c r="P12" s="130" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">

--- a/script_notebooks/taup_models/velocity model diff.xlsx
+++ b/script_notebooks/taup_models/velocity model diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddysita/Desktop/CIERA_REU/script_notebooks/taup_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2ABBC0-3B4F-0F45-AF8C-040A399DAF23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C138E5-1F7D-4B4F-B23D-4AF1C00EF49C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1380" windowWidth="27440" windowHeight="15760" activeTab="3" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
+    <workbookView xWindow="1040" yWindow="1380" windowWidth="27440" windowHeight="15760" activeTab="2" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
   </bookViews>
   <sheets>
     <sheet name="Distances" sheetId="1" r:id="rId1"/>
@@ -172,6 +172,39 @@
             <family val="2"/>
           </rPr>
           <t>stereonet confirms tht -90 is correct (becuase we have flipped signs as what is expected)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P9" authorId="0" shapeId="0" xr:uid="{4103B578-51D2-D242-8198-95878E8FD02F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we know its +90 becuase the Sh should have the neg amp</t>
         </r>
       </text>
     </comment>
@@ -2794,7 +2827,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4768,7 +4801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0308DFE-50DB-2749-87B1-CD1522606ED8}">
   <dimension ref="A1:R122"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="94" zoomScaleNormal="149" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="94" zoomScaleNormal="149" workbookViewId="0">
       <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
@@ -7904,8 +7937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC525D0-44A5-BB44-890E-BE4921F28280}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/script_notebooks/taup_models/velocity model diff.xlsx
+++ b/script_notebooks/taup_models/velocity model diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddysita/Desktop/CIERA_REU/script_notebooks/taup_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE65A2B-B109-7447-9EE8-603C4C1CC20A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3737FFC0-28F0-8A48-AE15-B96A125846B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="460" windowWidth="23040" windowHeight="15760" activeTab="2" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
+    <workbookView xWindow="2940" yWindow="460" windowWidth="23040" windowHeight="15760" activeTab="1" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
   </bookViews>
   <sheets>
     <sheet name="Distances" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="118">
   <si>
     <t>Model</t>
   </si>
@@ -601,6 +601,15 @@
   </si>
   <si>
     <t>slightly outside range except, but all the relative values and signs are correct</t>
+  </si>
+  <si>
+    <t>173ab</t>
+  </si>
+  <si>
+    <t>183a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173ab </t>
   </si>
 </sst>
 </file>
@@ -636,7 +645,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,6 +733,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6DC5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6DFFB6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,7 +1810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1923,111 +1944,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2059,37 +1975,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2101,6 +1987,147 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2109,16 +2136,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6DFFB6"/>
+      <color rgb="FFFFEC6D"/>
+      <color rgb="FFFF6DC5"/>
+      <color rgb="FFFF706D"/>
       <color rgb="FFB0DB5C"/>
       <color rgb="FFFFB9EE"/>
       <color rgb="FFDBE9EF"/>
       <color rgb="FFC1FF3F"/>
       <color rgb="FF0086FF"/>
       <color rgb="FF903ECE"/>
-      <color rgb="FFFFEDEA"/>
-      <color rgb="FFC18375"/>
-      <color rgb="FFFF706D"/>
-      <color rgb="FFC79AFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2429,10 +2456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46560FC0-A59C-DF45-9D49-769E5A1C0609}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" activeCellId="5" sqref="A6 A8 A10 A12 A11 A14"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2440,7 +2467,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2448,16 +2475,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2465,82 +2498,91 @@
         <v>28.6</v>
       </c>
       <c r="C2" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="D2" s="2">
         <v>26</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>38.200000000000003</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>35.4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="I2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" t="s">
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2548,34 +2590,40 @@
         <v>28.6</v>
       </c>
       <c r="C6" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="D6" s="2">
         <v>29.8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>39</v>
       </c>
-      <c r="E6" s="94">
+      <c r="F6" s="94">
         <v>38.200000000000003</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="94">
+        <v>46.2</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>40.700000000000003</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>36.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2583,33 +2631,39 @@
         <v>30.7</v>
       </c>
       <c r="C8" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="D8" s="2">
         <v>29.7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>40.200000000000003</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>35.700000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="2">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2617,16 +2671,22 @@
         <v>28.8</v>
       </c>
       <c r="C10" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="D10" s="2">
         <v>26.8</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>37.6</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>34.299999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="2">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2634,16 +2694,22 @@
         <v>29.4</v>
       </c>
       <c r="C11" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="D11" s="2">
         <v>28.2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>38.1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2651,33 +2717,39 @@
         <v>27</v>
       </c>
       <c r="C12" s="2">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2">
         <v>25</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>37.299999999999997</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="2">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2685,49 +2757,71 @@
         <v>28.2</v>
       </c>
       <c r="C14" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="D14" s="2">
         <v>26</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>37.4</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>33.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="2">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16">
         <f>AVERAGE(B2:B14)</f>
         <v>28.757142857142856</v>
       </c>
       <c r="C16">
         <f>AVERAGE(C2:C14)</f>
-        <v>27.357142857142858</v>
+        <v>28.257142857142856</v>
       </c>
       <c r="D16">
         <f>AVERAGE(D2:D14)</f>
-        <v>38.5625</v>
+        <v>27.357142857142858</v>
       </c>
       <c r="E16">
         <f>AVERAGE(E2:E14)</f>
+        <v>38.5625</v>
+      </c>
+      <c r="F16">
+        <f>AVERAGE(F2:F14)</f>
         <v>35.225000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f>AVERAGE(G2:G14)</f>
+        <v>43.357142857142854</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17">
         <f>STDEV(B2:B14)</f>
         <v>1.1282097069504153</v>
       </c>
       <c r="C17">
         <f>STDEV(C2:C14)</f>
-        <v>1.9025046148495433</v>
+        <v>1.2607631853460066</v>
       </c>
       <c r="D17">
         <f>STDEV(D2:D14)</f>
-        <v>1.2905563584306259</v>
+        <v>1.9025046148495433</v>
       </c>
       <c r="E17">
         <f>STDEV(E2:E14)</f>
+        <v>1.2905563584306259</v>
+      </c>
+      <c r="F17">
+        <f>STDEV(F2:F14)</f>
         <v>1.6095695964183363</v>
+      </c>
+      <c r="G17">
+        <f>STDEV(G2:G14)</f>
+        <v>2.3803761207402663</v>
       </c>
     </row>
   </sheetData>
@@ -2738,10 +2832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C780D16-7681-8D48-B4B0-5F55C4C01983}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2786,18 +2880,18 @@
       <c r="N1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="95" t="s">
+      <c r="O1" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95" t="s">
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95" t="s">
+      <c r="R1" s="126"/>
+      <c r="S1" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="95"/>
+      <c r="T1" s="126"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
@@ -4697,6 +4791,272 @@
       <c r="T35">
         <f t="shared" si="11"/>
         <v>-0.65625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="171" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>560</v>
+      </c>
+      <c r="C39">
+        <v>410</v>
+      </c>
+      <c r="D39">
+        <v>-291</v>
+      </c>
+      <c r="F39">
+        <f>B39/C39</f>
+        <v>1.3658536585365855</v>
+      </c>
+      <c r="G39">
+        <f>D39/C39</f>
+        <v>-0.70975609756097557</v>
+      </c>
+      <c r="H39">
+        <f>D39/B39</f>
+        <v>-0.51964285714285718</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>560</v>
+      </c>
+      <c r="C40">
+        <v>430</v>
+      </c>
+      <c r="D40">
+        <v>-273</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40:F45" si="12">B40/C40</f>
+        <v>1.3023255813953489</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40:G45" si="13">D40/C40</f>
+        <v>-0.6348837209302326</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40:H45" si="14">D40/B40</f>
+        <v>-0.48749999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>560</v>
+      </c>
+      <c r="C41">
+        <v>402</v>
+      </c>
+      <c r="D41">
+        <v>-282</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="12"/>
+        <v>1.3930348258706469</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="13"/>
+        <v>-0.70149253731343286</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="14"/>
+        <v>-0.50357142857142856</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>560</v>
+      </c>
+      <c r="C42">
+        <v>330</v>
+      </c>
+      <c r="D42">
+        <v>-245</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="12"/>
+        <v>1.696969696969697</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="13"/>
+        <v>-0.74242424242424243</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="14"/>
+        <v>-0.4375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>560</v>
+      </c>
+      <c r="C43">
+        <v>421</v>
+      </c>
+      <c r="D43">
+        <v>-290</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="12"/>
+        <v>1.330166270783848</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="13"/>
+        <v>-0.6888361045130641</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="14"/>
+        <v>-0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>560</v>
+      </c>
+      <c r="C44">
+        <v>413</v>
+      </c>
+      <c r="D44">
+        <v>-290</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="12"/>
+        <v>1.3559322033898304</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="13"/>
+        <v>-0.70217917675544794</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="14"/>
+        <v>-0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>560</v>
+      </c>
+      <c r="C45">
+        <v>413</v>
+      </c>
+      <c r="D45">
+        <v>-288</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="12"/>
+        <v>1.3559322033898304</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="13"/>
+        <v>-0.69733656174334135</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="14"/>
+        <v>-0.51428571428571423</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="172" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4715,7 +5075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0308DFE-50DB-2749-87B1-CD1522606ED8}">
   <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="88" zoomScaleNormal="149" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="88" zoomScaleNormal="149" workbookViewId="0">
       <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
@@ -4725,30 +5085,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="96" t="s">
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="97" t="s">
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="97" t="s">
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="163"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="128"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
@@ -4877,13 +5237,13 @@
       <c r="L5" s="11">
         <v>0</v>
       </c>
-      <c r="M5" s="162">
+      <c r="M5" s="118">
         <v>-0.37</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="162"/>
+      <c r="Q5" s="118"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
@@ -4911,30 +5271,30 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="99" t="s">
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="100" t="s">
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="100" t="s">
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="161"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="134"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
@@ -5002,7 +5362,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="152"/>
+      <c r="M10" s="117"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -5138,22 +5498,22 @@
     </row>
     <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="147"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="146"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="147"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="112"/>
     </row>
     <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
@@ -5172,30 +5532,30 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="102" t="s">
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="103" t="s">
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="160"/>
-      <c r="N17" s="103" t="s">
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="160"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="136"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
@@ -5430,22 +5790,22 @@
     </row>
     <row r="25" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="149"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="148"/>
-      <c r="Q25" s="149"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="113"/>
+      <c r="Q25" s="114"/>
     </row>
     <row r="26" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
@@ -5455,30 +5815,30 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="105" t="s">
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="106" t="s">
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="106" t="s">
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="159"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="138"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="25"/>
@@ -5546,7 +5906,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="152"/>
+      <c r="M29" s="117"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -5736,26 +6096,26 @@
       <c r="A36" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="130">
+      <c r="B36" s="95">
         <v>50</v>
       </c>
-      <c r="C36" s="130">
+      <c r="C36" s="95">
         <v>45</v>
       </c>
-      <c r="D36" s="130">
+      <c r="D36" s="95">
         <v>0</v>
       </c>
-      <c r="E36" s="131">
+      <c r="E36" s="96">
         <v>-0.72</v>
       </c>
-      <c r="F36" s="130"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="131"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="96"/>
       <c r="N36" s="68">
         <v>90</v>
       </c>
@@ -5783,30 +6143,30 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
-      <c r="B39" s="108" t="s">
+      <c r="B39" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="108" t="s">
+      <c r="C39" s="139"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="109" t="s">
+      <c r="G39" s="139"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="158"/>
-      <c r="N39" s="109" t="s">
+      <c r="K39" s="139"/>
+      <c r="L39" s="139"/>
+      <c r="M39" s="140"/>
+      <c r="N39" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="158"/>
+      <c r="O39" s="139"/>
+      <c r="P39" s="139"/>
+      <c r="Q39" s="140"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="29"/>
@@ -5874,7 +6234,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="152"/>
+      <c r="M41" s="117"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
@@ -6125,7 +6485,7 @@
       <c r="L48" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M48" s="152">
+      <c r="M48" s="117">
         <v>0.4</v>
       </c>
       <c r="N48" s="7">
@@ -6176,7 +6536,7 @@
       <c r="L49" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M49" s="152">
+      <c r="M49" s="117">
         <v>0.4</v>
       </c>
       <c r="N49" s="41"/>
@@ -6211,7 +6571,7 @@
       <c r="L50" s="7">
         <v>0</v>
       </c>
-      <c r="M50" s="152">
+      <c r="M50" s="117">
         <v>0.4</v>
       </c>
       <c r="N50" s="41"/>
@@ -6332,30 +6692,30 @@
       <c r="A54" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="132">
+      <c r="B54" s="97">
         <v>50</v>
       </c>
-      <c r="C54" s="132">
+      <c r="C54" s="97">
         <v>45</v>
       </c>
-      <c r="D54" s="132">
+      <c r="D54" s="97">
         <v>0</v>
       </c>
-      <c r="E54" s="133">
+      <c r="E54" s="98">
         <v>-0.72</v>
       </c>
-      <c r="F54" s="132"/>
-      <c r="G54" s="132"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="133"/>
-      <c r="J54" s="132"/>
-      <c r="K54" s="132"/>
-      <c r="L54" s="132"/>
-      <c r="M54" s="133"/>
-      <c r="N54" s="132"/>
-      <c r="O54" s="132"/>
-      <c r="P54" s="132"/>
-      <c r="Q54" s="133"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="97"/>
+      <c r="K54" s="97"/>
+      <c r="L54" s="97"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="97"/>
+      <c r="O54" s="97"/>
+      <c r="P54" s="97"/>
+      <c r="Q54" s="98"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="13"/>
@@ -6371,30 +6731,30 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="32"/>
-      <c r="B57" s="114" t="s">
+      <c r="B57" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="116"/>
-      <c r="F57" s="114" t="s">
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="115"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="115" t="s">
+      <c r="G57" s="141"/>
+      <c r="H57" s="141"/>
+      <c r="I57" s="156"/>
+      <c r="J57" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="K57" s="115"/>
-      <c r="L57" s="115"/>
-      <c r="M57" s="157"/>
-      <c r="N57" s="115" t="s">
+      <c r="K57" s="141"/>
+      <c r="L57" s="141"/>
+      <c r="M57" s="142"/>
+      <c r="N57" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="O57" s="115"/>
-      <c r="P57" s="115"/>
-      <c r="Q57" s="157"/>
+      <c r="O57" s="141"/>
+      <c r="P57" s="141"/>
+      <c r="Q57" s="142"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
@@ -6465,7 +6825,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
-      <c r="M59" s="152"/>
+      <c r="M59" s="117"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
@@ -6719,7 +7079,7 @@
       <c r="M66" s="7">
         <v>0.38</v>
       </c>
-      <c r="N66" s="165">
+      <c r="N66" s="120">
         <v>90</v>
       </c>
       <c r="O66" s="7">
@@ -6958,26 +7318,26 @@
       <c r="A73" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B73" s="134">
+      <c r="B73" s="99">
         <v>50</v>
       </c>
-      <c r="C73" s="134">
+      <c r="C73" s="99">
         <v>45</v>
       </c>
-      <c r="D73" s="134">
+      <c r="D73" s="99">
         <v>0</v>
       </c>
-      <c r="E73" s="135">
+      <c r="E73" s="100">
         <v>-0.72</v>
       </c>
-      <c r="F73" s="134"/>
-      <c r="G73" s="134"/>
-      <c r="H73" s="134"/>
-      <c r="I73" s="135"/>
-      <c r="J73" s="134"/>
-      <c r="K73" s="134"/>
-      <c r="L73" s="134"/>
-      <c r="M73" s="168"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99"/>
+      <c r="H73" s="99"/>
+      <c r="I73" s="100"/>
+      <c r="J73" s="99"/>
+      <c r="K73" s="99"/>
+      <c r="L73" s="99"/>
+      <c r="M73" s="123"/>
       <c r="N73" s="66">
         <v>90</v>
       </c>
@@ -7005,30 +7365,30 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="37"/>
-      <c r="B76" s="117" t="s">
+      <c r="B76" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="C76" s="118"/>
-      <c r="D76" s="118"/>
-      <c r="E76" s="119"/>
-      <c r="F76" s="117" t="s">
+      <c r="C76" s="143"/>
+      <c r="D76" s="143"/>
+      <c r="E76" s="158"/>
+      <c r="F76" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="G76" s="118"/>
-      <c r="H76" s="118"/>
-      <c r="I76" s="119"/>
-      <c r="J76" s="118" t="s">
+      <c r="G76" s="143"/>
+      <c r="H76" s="143"/>
+      <c r="I76" s="158"/>
+      <c r="J76" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="K76" s="118"/>
-      <c r="L76" s="118"/>
-      <c r="M76" s="153"/>
-      <c r="N76" s="118" t="s">
+      <c r="K76" s="143"/>
+      <c r="L76" s="143"/>
+      <c r="M76" s="144"/>
+      <c r="N76" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="O76" s="118"/>
-      <c r="P76" s="118"/>
-      <c r="Q76" s="153"/>
+      <c r="O76" s="143"/>
+      <c r="P76" s="143"/>
+      <c r="Q76" s="144"/>
       <c r="R76" s="87" t="s">
         <v>91</v>
       </c>
@@ -7099,7 +7459,7 @@
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="152"/>
+      <c r="M78" s="117"/>
       <c r="N78" s="7"/>
       <c r="O78" s="7"/>
       <c r="P78" s="7"/>
@@ -7557,26 +7917,26 @@
       <c r="A91" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B91" s="136">
+      <c r="B91" s="101">
         <v>50</v>
       </c>
-      <c r="C91" s="136">
+      <c r="C91" s="101">
         <v>45</v>
       </c>
-      <c r="D91" s="136">
+      <c r="D91" s="101">
         <v>0</v>
       </c>
-      <c r="E91" s="137">
+      <c r="E91" s="102">
         <v>-0.72</v>
       </c>
-      <c r="F91" s="136"/>
-      <c r="G91" s="136"/>
-      <c r="H91" s="136"/>
-      <c r="I91" s="137"/>
-      <c r="J91" s="136"/>
-      <c r="K91" s="136"/>
-      <c r="L91" s="136"/>
-      <c r="M91" s="137"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="101"/>
+      <c r="H91" s="101"/>
+      <c r="I91" s="102"/>
+      <c r="J91" s="101"/>
+      <c r="K91" s="101"/>
+      <c r="L91" s="101"/>
+      <c r="M91" s="102"/>
       <c r="N91" s="64">
         <v>90</v>
       </c>
@@ -7631,30 +7991,30 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="51"/>
-      <c r="B95" s="124" t="s">
+      <c r="B95" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="123"/>
-      <c r="D95" s="123"/>
-      <c r="E95" s="125"/>
-      <c r="F95" s="124" t="s">
+      <c r="C95" s="145"/>
+      <c r="D95" s="145"/>
+      <c r="E95" s="150"/>
+      <c r="F95" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="G95" s="123"/>
-      <c r="H95" s="123"/>
-      <c r="I95" s="125"/>
-      <c r="J95" s="123" t="s">
+      <c r="G95" s="145"/>
+      <c r="H95" s="145"/>
+      <c r="I95" s="150"/>
+      <c r="J95" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="K95" s="123"/>
-      <c r="L95" s="123"/>
-      <c r="M95" s="154"/>
-      <c r="N95" s="123" t="s">
+      <c r="K95" s="145"/>
+      <c r="L95" s="145"/>
+      <c r="M95" s="146"/>
+      <c r="N95" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="O95" s="123"/>
-      <c r="P95" s="123"/>
-      <c r="Q95" s="154"/>
+      <c r="O95" s="145"/>
+      <c r="P95" s="145"/>
+      <c r="Q95" s="146"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="52"/>
@@ -7725,7 +8085,7 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
-      <c r="M97" s="152"/>
+      <c r="M97" s="117"/>
       <c r="N97" s="7"/>
       <c r="O97" s="7"/>
       <c r="P97" s="7"/>
@@ -8073,22 +8433,22 @@
       <c r="A108" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B108" s="138">
+      <c r="B108" s="103">
         <v>50</v>
       </c>
-      <c r="C108" s="138">
+      <c r="C108" s="103">
         <v>45</v>
       </c>
-      <c r="D108" s="138">
+      <c r="D108" s="103">
         <v>0</v>
       </c>
-      <c r="E108" s="139">
+      <c r="E108" s="104">
         <v>-0.72</v>
       </c>
-      <c r="F108" s="138"/>
-      <c r="G108" s="138"/>
-      <c r="H108" s="138"/>
-      <c r="I108" s="139"/>
+      <c r="F108" s="103"/>
+      <c r="G108" s="103"/>
+      <c r="H108" s="103"/>
+      <c r="I108" s="104"/>
       <c r="J108" s="62">
         <v>50</v>
       </c>
@@ -8101,10 +8461,10 @@
       <c r="M108" s="63">
         <v>-0.43</v>
       </c>
-      <c r="N108" s="138"/>
-      <c r="O108" s="138"/>
-      <c r="P108" s="138"/>
-      <c r="Q108" s="139"/>
+      <c r="N108" s="103"/>
+      <c r="O108" s="103"/>
+      <c r="P108" s="103"/>
+      <c r="Q108" s="104"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="13"/>
@@ -8120,30 +8480,30 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="73"/>
-      <c r="B111" s="111" t="s">
+      <c r="B111" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="C111" s="112"/>
-      <c r="D111" s="112"/>
-      <c r="E111" s="113"/>
-      <c r="F111" s="111" t="s">
+      <c r="C111" s="147"/>
+      <c r="D111" s="147"/>
+      <c r="E111" s="154"/>
+      <c r="F111" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G111" s="112"/>
-      <c r="H111" s="112"/>
-      <c r="I111" s="113"/>
-      <c r="J111" s="112" t="s">
+      <c r="G111" s="147"/>
+      <c r="H111" s="147"/>
+      <c r="I111" s="154"/>
+      <c r="J111" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="K111" s="112"/>
-      <c r="L111" s="112"/>
-      <c r="M111" s="155"/>
-      <c r="N111" s="112" t="s">
+      <c r="K111" s="147"/>
+      <c r="L111" s="147"/>
+      <c r="M111" s="148"/>
+      <c r="N111" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="O111" s="112"/>
-      <c r="P111" s="112"/>
-      <c r="Q111" s="155"/>
+      <c r="O111" s="147"/>
+      <c r="P111" s="147"/>
+      <c r="Q111" s="148"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="74"/>
@@ -8501,16 +8861,16 @@
       <c r="A123" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B123" s="169">
+      <c r="B123" s="124">
         <v>125</v>
       </c>
-      <c r="C123" s="169">
+      <c r="C123" s="124">
         <v>0</v>
       </c>
-      <c r="D123" s="169">
+      <c r="D123" s="124">
         <v>45</v>
       </c>
-      <c r="E123" s="170">
+      <c r="E123" s="125">
         <v>-0.73</v>
       </c>
       <c r="F123" s="7" t="s">
@@ -8546,16 +8906,16 @@
       <c r="A124" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B124" s="140">
+      <c r="B124" s="105">
         <v>160</v>
       </c>
-      <c r="C124" s="140">
+      <c r="C124" s="105">
         <v>90</v>
       </c>
-      <c r="D124" s="140">
+      <c r="D124" s="105">
         <v>-100</v>
       </c>
-      <c r="E124" s="141">
+      <c r="E124" s="106">
         <v>-0.69</v>
       </c>
       <c r="F124" s="60" t="s">
@@ -8570,14 +8930,14 @@
       <c r="I124" s="61">
         <v>0.99</v>
       </c>
-      <c r="J124" s="140"/>
-      <c r="K124" s="140"/>
-      <c r="L124" s="140"/>
-      <c r="M124" s="141"/>
-      <c r="N124" s="140"/>
-      <c r="O124" s="140"/>
-      <c r="P124" s="140"/>
-      <c r="Q124" s="141"/>
+      <c r="J124" s="105"/>
+      <c r="K124" s="105"/>
+      <c r="L124" s="105"/>
+      <c r="M124" s="106"/>
+      <c r="N124" s="105"/>
+      <c r="O124" s="105"/>
+      <c r="P124" s="105"/>
+      <c r="Q124" s="106"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="13"/>
@@ -8593,30 +8953,30 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="55"/>
-      <c r="B127" s="120" t="s">
+      <c r="B127" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="C127" s="121"/>
-      <c r="D127" s="121"/>
-      <c r="E127" s="122"/>
-      <c r="F127" s="120" t="s">
+      <c r="C127" s="130"/>
+      <c r="D127" s="130"/>
+      <c r="E127" s="131"/>
+      <c r="F127" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="G127" s="121"/>
-      <c r="H127" s="121"/>
-      <c r="I127" s="122"/>
-      <c r="J127" s="121" t="s">
+      <c r="G127" s="130"/>
+      <c r="H127" s="130"/>
+      <c r="I127" s="131"/>
+      <c r="J127" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="K127" s="121"/>
-      <c r="L127" s="121"/>
-      <c r="M127" s="156"/>
-      <c r="N127" s="121" t="s">
+      <c r="K127" s="130"/>
+      <c r="L127" s="130"/>
+      <c r="M127" s="132"/>
+      <c r="N127" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="O127" s="121"/>
-      <c r="P127" s="121"/>
-      <c r="Q127" s="156"/>
+      <c r="O127" s="130"/>
+      <c r="P127" s="130"/>
+      <c r="Q127" s="132"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="56"/>
@@ -8856,7 +9216,7 @@
       <c r="N135" s="41"/>
       <c r="O135" s="41"/>
       <c r="P135" s="41"/>
-      <c r="Q135" s="164"/>
+      <c r="Q135" s="119"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="56" t="s">
@@ -8955,16 +9315,16 @@
       <c r="A139" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B139" s="169">
+      <c r="B139" s="124">
         <v>125</v>
       </c>
-      <c r="C139" s="169">
+      <c r="C139" s="124">
         <v>0</v>
       </c>
-      <c r="D139" s="169">
+      <c r="D139" s="124">
         <v>45</v>
       </c>
-      <c r="E139" s="170">
+      <c r="E139" s="125">
         <v>-0.73</v>
       </c>
       <c r="F139" s="7" t="s">
@@ -9000,16 +9360,16 @@
       <c r="A140" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B140" s="142">
+      <c r="B140" s="107">
         <v>160</v>
       </c>
-      <c r="C140" s="142">
+      <c r="C140" s="107">
         <v>90</v>
       </c>
-      <c r="D140" s="142">
+      <c r="D140" s="107">
         <v>-100</v>
       </c>
-      <c r="E140" s="143">
+      <c r="E140" s="108">
         <v>-0.69</v>
       </c>
       <c r="F140" s="60" t="s">
@@ -9024,17 +9384,41 @@
       <c r="I140" s="61">
         <v>0.99</v>
       </c>
-      <c r="J140" s="142"/>
-      <c r="K140" s="142"/>
-      <c r="L140" s="142"/>
-      <c r="M140" s="143"/>
-      <c r="N140" s="142"/>
-      <c r="O140" s="142"/>
-      <c r="P140" s="142"/>
-      <c r="Q140" s="143"/>
+      <c r="J140" s="107"/>
+      <c r="K140" s="107"/>
+      <c r="L140" s="107"/>
+      <c r="M140" s="108"/>
+      <c r="N140" s="107"/>
+      <c r="O140" s="107"/>
+      <c r="P140" s="107"/>
+      <c r="Q140" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="J111:M111"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="J76:M76"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B127:E127"/>
     <mergeCell ref="F127:I127"/>
@@ -9051,30 +9435,6 @@
     <mergeCell ref="B95:E95"/>
     <mergeCell ref="F95:I95"/>
     <mergeCell ref="J95:M95"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="J111:M111"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9104,30 +9464,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="126" t="s">
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="129" t="s">
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129" t="s">
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="78"/>
@@ -9255,7 +9615,7 @@
       <c r="H5" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="145" t="s">
+      <c r="I5" s="110" t="s">
         <v>98</v>
       </c>
       <c r="J5" s="77">
@@ -9291,7 +9651,7 @@
       <c r="H6" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="145" t="s">
+      <c r="I6" s="110" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9471,19 +9831,19 @@
       <c r="L12" s="78">
         <v>90</v>
       </c>
-      <c r="M12" s="150" t="s">
+      <c r="M12" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="N12" s="166">
+      <c r="N12" s="121">
         <v>50</v>
       </c>
-      <c r="O12" s="166">
+      <c r="O12" s="121">
         <v>80</v>
       </c>
-      <c r="P12" s="166">
+      <c r="P12" s="121">
         <v>90</v>
       </c>
-      <c r="Q12" s="167" t="s">
+      <c r="Q12" s="122" t="s">
         <v>112</v>
       </c>
     </row>
@@ -9492,10 +9852,10 @@
       <c r="E13" s="82"/>
       <c r="I13" s="82"/>
       <c r="M13" s="82"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="167"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="122"/>
     </row>
     <row r="14" spans="1:17" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="78" t="s">
@@ -9519,7 +9879,7 @@
       <c r="H14" s="78">
         <v>90</v>
       </c>
-      <c r="I14" s="144" t="s">
+      <c r="I14" s="109" t="s">
         <v>101</v>
       </c>
       <c r="J14" s="78">
@@ -9531,7 +9891,7 @@
       <c r="L14" s="78">
         <v>90</v>
       </c>
-      <c r="M14" s="150" t="s">
+      <c r="M14" s="115" t="s">
         <v>109</v>
       </c>
       <c r="N14" s="77">
@@ -9543,7 +9903,7 @@
       <c r="P14" s="77">
         <v>90</v>
       </c>
-      <c r="Q14" s="167" t="s">
+      <c r="Q14" s="122" t="s">
         <v>113</v>
       </c>
     </row>
@@ -9572,7 +9932,7 @@
       <c r="H16" s="78">
         <v>90</v>
       </c>
-      <c r="I16" s="144" t="s">
+      <c r="I16" s="109" t="s">
         <v>101</v>
       </c>
       <c r="J16" s="78">
@@ -9584,7 +9944,7 @@
       <c r="L16" s="78">
         <v>90</v>
       </c>
-      <c r="M16" s="151" t="s">
+      <c r="M16" s="116" t="s">
         <v>110</v>
       </c>
       <c r="N16" s="77">
@@ -9596,7 +9956,7 @@
       <c r="P16" s="77">
         <v>90</v>
       </c>
-      <c r="Q16" s="167" t="s">
+      <c r="Q16" s="122" t="s">
         <v>114</v>
       </c>
     </row>

--- a/script_notebooks/taup_models/velocity model diff.xlsx
+++ b/script_notebooks/taup_models/velocity model diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddysita/Desktop/CIERA_REU/script_notebooks/taup_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3737FFC0-28F0-8A48-AE15-B96A125846B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4511C5E-44DC-6B47-A3D5-3E8D927929F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="460" windowWidth="23040" windowHeight="15760" activeTab="1" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
   </bookViews>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="120">
   <si>
     <t>Model</t>
   </si>
@@ -610,6 +610,12 @@
   </si>
   <si>
     <t xml:space="preserve">173ab </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>*L not min</t>
   </si>
 </sst>
 </file>
@@ -2459,7 +2465,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2834,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C780D16-7681-8D48-B4B0-5F55C4C01983}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="U48" sqref="U48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3001,27 +3007,27 @@
       <c r="M3" s="91"/>
       <c r="N3" s="3"/>
       <c r="O3" s="50">
-        <f t="shared" ref="O3:O35" si="6">F3-(0.05*F3)</f>
+        <f t="shared" ref="O3:O54" si="6">F3-(0.05*F3)</f>
         <v>-1.398901098901099</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P35" si="7">F3+(0.05*F3)</f>
+        <f t="shared" ref="P3:P54" si="7">F3+(0.05*F3)</f>
         <v>-1.5461538461538462</v>
       </c>
       <c r="Q3" s="50">
-        <f t="shared" ref="Q3:Q35" si="8">G3-(0.05*G3)</f>
+        <f t="shared" ref="Q3:Q54" si="8">G3-(0.05*G3)</f>
         <v>-1.8478021978021977</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R35" si="9">G3+(0.05*G3)</f>
+        <f t="shared" ref="R3:R54" si="9">G3+(0.05*G3)</f>
         <v>-2.0423076923076922</v>
       </c>
       <c r="S3" s="50">
-        <f t="shared" ref="S3:S35" si="10">H3-(0.05*H3)</f>
+        <f t="shared" ref="S3:S54" si="10">H3-(0.05*H3)</f>
         <v>1.2548507462686567</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T35" si="11">H3+(0.05*H3)</f>
+        <f t="shared" ref="T3:T54" si="11">H3+(0.05*H3)</f>
         <v>1.3869402985074626</v>
       </c>
     </row>
@@ -4793,6 +4799,16 @@
         <v>-0.65625</v>
       </c>
     </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="S36" s="50"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="S37" s="50"/>
+    </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="171" t="s">
         <v>117</v>
@@ -4806,6 +4822,9 @@
       <c r="D38" t="s">
         <v>37</v>
       </c>
+      <c r="O38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="S38" s="50"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="45" t="s">
@@ -4832,6 +4851,30 @@
         <f>D39/B39</f>
         <v>-0.51964285714285718</v>
       </c>
+      <c r="O39" s="50">
+        <f t="shared" si="6"/>
+        <v>1.2975609756097561</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="7"/>
+        <v>1.4341463414634148</v>
+      </c>
+      <c r="Q39" s="50">
+        <f t="shared" si="8"/>
+        <v>-0.67426829268292676</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="9"/>
+        <v>-0.74524390243902439</v>
+      </c>
+      <c r="S39" s="50">
+        <f t="shared" si="10"/>
+        <v>-0.49366071428571434</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="11"/>
+        <v>-0.54562500000000003</v>
+      </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="83" t="s">
@@ -4858,6 +4901,30 @@
         <f t="shared" ref="H40:H45" si="14">D40/B40</f>
         <v>-0.48749999999999999</v>
       </c>
+      <c r="O40" s="50">
+        <f t="shared" si="6"/>
+        <v>1.2372093023255815</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="7"/>
+        <v>1.3674418604651164</v>
+      </c>
+      <c r="Q40" s="50">
+        <f t="shared" si="8"/>
+        <v>-0.60313953488372096</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="9"/>
+        <v>-0.66662790697674423</v>
+      </c>
+      <c r="S40" s="50">
+        <f t="shared" si="10"/>
+        <v>-0.46312500000000001</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="11"/>
+        <v>-0.51187499999999997</v>
+      </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="83" t="s">
@@ -4884,6 +4951,30 @@
         <f t="shared" si="14"/>
         <v>-0.50357142857142856</v>
       </c>
+      <c r="O41" s="50">
+        <f t="shared" si="6"/>
+        <v>1.3233830845771146</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="7"/>
+        <v>1.4626865671641791</v>
+      </c>
+      <c r="Q41" s="50">
+        <f t="shared" si="8"/>
+        <v>-0.66641791044776122</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="9"/>
+        <v>-0.73656716417910451</v>
+      </c>
+      <c r="S41" s="50">
+        <f t="shared" si="10"/>
+        <v>-0.47839285714285712</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="11"/>
+        <v>-0.52874999999999994</v>
+      </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="83" t="s">
@@ -4910,6 +5001,30 @@
         <f t="shared" si="14"/>
         <v>-0.4375</v>
       </c>
+      <c r="O42" s="50">
+        <f t="shared" si="6"/>
+        <v>1.6121212121212121</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="7"/>
+        <v>1.781818181818182</v>
+      </c>
+      <c r="Q42" s="50">
+        <f t="shared" si="8"/>
+        <v>-0.70530303030303032</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="9"/>
+        <v>-0.77954545454545454</v>
+      </c>
+      <c r="S42" s="50">
+        <f t="shared" si="10"/>
+        <v>-0.41562500000000002</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="11"/>
+        <v>-0.45937499999999998</v>
+      </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="83" t="s">
@@ -4936,6 +5051,30 @@
         <f t="shared" si="14"/>
         <v>-0.5178571428571429</v>
       </c>
+      <c r="O43" s="50">
+        <f t="shared" si="6"/>
+        <v>1.2636579572446556</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="7"/>
+        <v>1.3966745843230404</v>
+      </c>
+      <c r="Q43" s="50">
+        <f t="shared" si="8"/>
+        <v>-0.65439429928741089</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="9"/>
+        <v>-0.72327790973871731</v>
+      </c>
+      <c r="S43" s="50">
+        <f t="shared" si="10"/>
+        <v>-0.49196428571428574</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="11"/>
+        <v>-0.54375000000000007</v>
+      </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="45" t="s">
@@ -4962,6 +5101,30 @@
         <f t="shared" si="14"/>
         <v>-0.5178571428571429</v>
       </c>
+      <c r="O44" s="50">
+        <f t="shared" si="6"/>
+        <v>1.2881355932203389</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="7"/>
+        <v>1.423728813559322</v>
+      </c>
+      <c r="Q44" s="50">
+        <f t="shared" si="8"/>
+        <v>-0.66707021791767551</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="9"/>
+        <v>-0.73728813559322037</v>
+      </c>
+      <c r="S44" s="50">
+        <f t="shared" si="10"/>
+        <v>-0.49196428571428574</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="11"/>
+        <v>-0.54375000000000007</v>
+      </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="45" t="s">
@@ -4988,6 +5151,35 @@
         <f t="shared" si="14"/>
         <v>-0.51428571428571423</v>
       </c>
+      <c r="O45" s="50">
+        <f t="shared" si="6"/>
+        <v>1.2881355932203389</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="7"/>
+        <v>1.423728813559322</v>
+      </c>
+      <c r="Q45" s="50">
+        <f t="shared" si="8"/>
+        <v>-0.66246973365617423</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="9"/>
+        <v>-0.73220338983050848</v>
+      </c>
+      <c r="S45" s="50">
+        <f t="shared" si="10"/>
+        <v>-0.48857142857142855</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="11"/>
+        <v>-0.53999999999999992</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="S46" s="50"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="172" t="s">
@@ -5002,61 +5194,328 @@
       <c r="D47" t="s">
         <v>37</v>
       </c>
+      <c r="O47" s="50"/>
+      <c r="Q47" s="50"/>
+      <c r="S47" s="50"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="45" t="s">
         <v>38</v>
       </c>
+      <c r="B48">
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <v>60.5</v>
+      </c>
       <c r="D48">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="F48">
+        <f>B48/C48</f>
+        <v>0.51239669421487599</v>
+      </c>
+      <c r="G48">
+        <f>D48/C48</f>
+        <v>1.1900826446280992</v>
+      </c>
+      <c r="H48">
+        <f>D48/B48</f>
+        <v>2.3225806451612905</v>
+      </c>
+      <c r="O48" s="50">
+        <f t="shared" si="6"/>
+        <v>0.48677685950413219</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="7"/>
+        <v>0.5380165289256198</v>
+      </c>
+      <c r="Q48" s="50">
+        <f t="shared" si="8"/>
+        <v>1.1305785123966943</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="9"/>
+        <v>1.2495867768595041</v>
+      </c>
+      <c r="S48" s="50">
+        <f t="shared" si="10"/>
+        <v>2.2064516129032259</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="11"/>
+        <v>2.4387096774193551</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="83" t="s">
         <v>39</v>
       </c>
+      <c r="B49">
+        <v>30.5</v>
+      </c>
+      <c r="C49">
+        <v>49.5</v>
+      </c>
       <c r="D49">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="E49" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:F54" si="15">B49/C49</f>
+        <v>0.61616161616161613</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ref="G49:G54" si="16">D49/C49</f>
+        <v>1.2121212121212122</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ref="H49:H54" si="17">D49/B49</f>
+        <v>1.9672131147540983</v>
+      </c>
+      <c r="O49" s="50">
+        <f t="shared" si="6"/>
+        <v>0.58535353535353529</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="7"/>
+        <v>0.64696969696969697</v>
+      </c>
+      <c r="Q49" s="50">
+        <f t="shared" si="8"/>
+        <v>1.1515151515151516</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="9"/>
+        <v>1.2727272727272727</v>
+      </c>
+      <c r="S49" s="50">
+        <f t="shared" si="10"/>
+        <v>1.8688524590163933</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="11"/>
+        <v>2.0655737704918034</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="D50">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" t="s">
+        <v>118</v>
+      </c>
+      <c r="O50" s="50"/>
+      <c r="Q50" s="50"/>
+      <c r="S50" s="50"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="83" t="s">
         <v>41</v>
       </c>
+      <c r="B51">
+        <v>30.5</v>
+      </c>
+      <c r="C51">
+        <v>75.7</v>
+      </c>
       <c r="D51">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="15"/>
+        <v>0.40290620871862615</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="16"/>
+        <v>0.91149273447820345</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="17"/>
+        <v>2.262295081967213</v>
+      </c>
+      <c r="O51" s="50">
+        <f t="shared" si="6"/>
+        <v>0.38276089828269483</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="7"/>
+        <v>0.42305151915455746</v>
+      </c>
+      <c r="Q51" s="50">
+        <f t="shared" si="8"/>
+        <v>0.86591809775429329</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="9"/>
+        <v>0.9570673712021136</v>
+      </c>
+      <c r="S51" s="50">
+        <f t="shared" si="10"/>
+        <v>2.1491803278688524</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="11"/>
+        <v>2.3754098360655735</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="83" t="s">
         <v>42</v>
       </c>
+      <c r="B52">
+        <v>30.5</v>
+      </c>
+      <c r="C52">
+        <v>60.6</v>
+      </c>
       <c r="D52">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>71.5</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="15"/>
+        <v>0.50330033003300334</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="16"/>
+        <v>1.1798679867986799</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="17"/>
+        <v>2.3442622950819674</v>
+      </c>
+      <c r="O52" s="50">
+        <f t="shared" si="6"/>
+        <v>0.47813531353135319</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="7"/>
+        <v>0.52846534653465349</v>
+      </c>
+      <c r="Q52" s="50">
+        <f t="shared" si="8"/>
+        <v>1.1208745874587458</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="9"/>
+        <v>1.238861386138614</v>
+      </c>
+      <c r="S52" s="50">
+        <f t="shared" si="10"/>
+        <v>2.2270491803278691</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="11"/>
+        <v>2.4614754098360656</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="45" t="s">
         <v>43</v>
       </c>
+      <c r="B53">
+        <v>30.8</v>
+      </c>
+      <c r="C53">
+        <v>61</v>
+      </c>
       <c r="D53">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="15"/>
+        <v>0.5049180327868853</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="16"/>
+        <v>1.180327868852459</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="17"/>
+        <v>2.3376623376623376</v>
+      </c>
+      <c r="O53" s="50">
+        <f t="shared" si="6"/>
+        <v>0.47967213114754104</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="7"/>
+        <v>0.53016393442622956</v>
+      </c>
+      <c r="Q53" s="50">
+        <f t="shared" si="8"/>
+        <v>1.1213114754098361</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="9"/>
+        <v>1.2393442622950819</v>
+      </c>
+      <c r="S53" s="50">
+        <f t="shared" si="10"/>
+        <v>2.2207792207792205</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="11"/>
+        <v>2.4545454545454546</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="45" t="s">
         <v>44</v>
       </c>
+      <c r="B54">
+        <v>30.5</v>
+      </c>
+      <c r="C54">
+        <v>60.8</v>
+      </c>
       <c r="D54">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="15"/>
+        <v>0.50164473684210531</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="16"/>
+        <v>1.1842105263157896</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="17"/>
+        <v>2.360655737704918</v>
+      </c>
+      <c r="O54" s="50">
+        <f t="shared" si="6"/>
+        <v>0.47656250000000006</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="7"/>
+        <v>0.52672697368421062</v>
+      </c>
+      <c r="Q54" s="50">
+        <f t="shared" si="8"/>
+        <v>1.1250000000000002</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="9"/>
+        <v>1.243421052631579</v>
+      </c>
+      <c r="S54" s="50">
+        <f t="shared" si="10"/>
+        <v>2.2426229508196722</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="11"/>
+        <v>2.4786885245901638</v>
       </c>
     </row>
   </sheetData>

--- a/script_notebooks/taup_models/velocity model diff.xlsx
+++ b/script_notebooks/taup_models/velocity model diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddysita/Desktop/CIERA_REU/script_notebooks/taup_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4511C5E-44DC-6B47-A3D5-3E8D927929F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82662843-1F6D-104C-9A8F-E323EDC542DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="460" windowWidth="23040" windowHeight="15760" activeTab="1" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
+    <workbookView xWindow="2940" yWindow="460" windowWidth="23040" windowHeight="15760" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
   </bookViews>
   <sheets>
     <sheet name="Distances" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="121">
   <si>
     <t>Model</t>
   </si>
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t>*L not min</t>
+  </si>
+  <si>
+    <t>DWThotCrust1b</t>
   </si>
 </sst>
 </file>
@@ -2462,10 +2465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46560FC0-A59C-DF45-9D49-769E5A1C0609}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2804,7 +2807,7 @@
         <v>43.357142857142854</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17">
         <f>STDEV(B2:B14)</f>
         <v>1.1282097069504153</v>
@@ -2828,6 +2831,217 @@
       <c r="G17">
         <f>STDEV(G2:G14)</f>
         <v>2.3803761207402663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="D21" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="E21" s="2">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="E25" s="94">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>32.6</v>
+      </c>
+      <c r="E26">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="E27" s="2">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>30.45</v>
+      </c>
+      <c r="D29" s="2">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2">
+        <v>27.05</v>
+      </c>
+      <c r="C31" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="E31" s="2">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2">
+        <v>26.9</v>
+      </c>
+      <c r="C33" s="2">
+        <v>29.06</v>
+      </c>
+      <c r="D33" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <f>AVERAGE(B21:B33)</f>
+        <v>25.4375</v>
+      </c>
+      <c r="C35">
+        <f>AVERAGE(C21:C33)</f>
+        <v>27.792000000000002</v>
+      </c>
+      <c r="D35">
+        <f>AVERAGE(D21:D33)</f>
+        <v>34.212500000000006</v>
+      </c>
+      <c r="E35">
+        <f>AVERAGE(E21:E33)</f>
+        <v>40.131250000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <f>STDEV(B21:B33)</f>
+        <v>4.0077788944334829</v>
+      </c>
+      <c r="C36">
+        <f>STDEV(C21:C33)</f>
+        <v>4.4869889681165764</v>
+      </c>
+      <c r="D36">
+        <f>STDEV(D21:D33)</f>
+        <v>3.7406788917826117</v>
+      </c>
+      <c r="E36">
+        <f>STDEV(E21:E33)</f>
+        <v>3.7308499127448935</v>
       </c>
     </row>
   </sheetData>
@@ -2840,8 +3054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C780D16-7681-8D48-B4B0-5F55C4C01983}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="U48" sqref="U48"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H54" sqref="F54:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/script_notebooks/taup_models/velocity model diff.xlsx
+++ b/script_notebooks/taup_models/velocity model diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddysita/Desktop/CIERA_REU/script_notebooks/taup_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82662843-1F6D-104C-9A8F-E323EDC542DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984FE4F7-7194-2643-9AEB-C710A8D55F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="460" windowWidth="23040" windowHeight="15760" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
+    <workbookView xWindow="2820" yWindow="460" windowWidth="20360" windowHeight="16180" activeTab="3" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
   </bookViews>
   <sheets>
     <sheet name="Distances" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="130">
   <si>
     <t>Model</t>
   </si>
@@ -619,13 +619,40 @@
   </si>
   <si>
     <t>DWThotCrust1b</t>
+  </si>
+  <si>
+    <t>P (BHL)</t>
+  </si>
+  <si>
+    <t>Sv (BHQ)</t>
+  </si>
+  <si>
+    <t>Sh (BHT</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>S0173ab</t>
+  </si>
+  <si>
+    <t>Matched all 3 ratios :)</t>
+  </si>
+  <si>
+    <t>matched 2/3 and was relatiely close on the 3rd</t>
+  </si>
+  <si>
+    <t>0/20</t>
+  </si>
+  <si>
+    <t>matched the relative relationship between the ratios, very shallow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2465,18 +2492,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46560FC0-A59C-DF45-9D49-769E5A1C0609}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2499,7 +2526,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2525,7 +2552,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16" customHeight="1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2547,7 +2574,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2569,7 +2596,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2591,7 +2618,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2615,7 +2642,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2632,7 +2659,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2655,7 +2682,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2672,7 +2699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2695,7 +2722,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2718,7 +2745,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2741,7 +2768,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2758,7 +2785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2781,7 +2808,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="B16">
         <f>AVERAGE(B2:B14)</f>
         <v>28.757142857142856</v>
@@ -2807,7 +2834,7 @@
         <v>43.357142857142854</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="B17">
         <f>STDEV(B2:B14)</f>
         <v>1.1282097069504153</v>
@@ -2833,7 +2860,7 @@
         <v>2.3803761207402663</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2850,7 +2877,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2867,25 +2894,28 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>120</v>
       </c>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>28.2287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2901,8 +2931,11 @@
       <c r="E25" s="94">
         <v>44.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>28.232600000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2912,8 +2945,11 @@
       <c r="E26">
         <v>38.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>28.240300000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2929,18 +2965,24 @@
       <c r="E27" s="2">
         <v>38.799999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>28.230599999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>28.236499999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="2">
-        <v>28.3</v>
+        <v>28.23</v>
       </c>
       <c r="C29" s="2">
         <v>30.45</v>
@@ -2951,8 +2993,12 @@
       <c r="E29" s="2">
         <v>44.15</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <f>STDEV(J24:J28)</f>
+        <v>4.6693682656227123E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2968,8 +3014,12 @@
       <c r="E30" s="2">
         <v>34.799999999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <f>AVERAGE(J24:J28)</f>
+        <v>28.233740000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2986,12 +3036,12 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -3008,10 +3058,10 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="B35">
         <f>AVERAGE(B21:B33)</f>
-        <v>25.4375</v>
+        <v>25.42</v>
       </c>
       <c r="C35">
         <f>AVERAGE(C21:C33)</f>
@@ -3026,10 +3076,10 @@
         <v>40.131250000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="B36">
         <f>STDEV(B21:B33)</f>
-        <v>4.0077788944334829</v>
+        <v>3.9912320570637316</v>
       </c>
       <c r="C36">
         <f>STDEV(C21:C33)</f>
@@ -3052,18 +3102,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C780D16-7681-8D48-B4B0-5F55C4C01983}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H54" sqref="F54:H54"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
@@ -3113,7 +3163,7 @@
       </c>
       <c r="T1" s="126"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="83" t="s">
         <v>38</v>
       </c>
@@ -3179,7 +3229,7 @@
         <v>1.551492537313433</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="45" t="s">
         <v>39</v>
       </c>
@@ -3245,7 +3295,7 @@
         <v>1.3869402985074626</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="83" t="s">
         <v>40</v>
       </c>
@@ -3311,7 +3361,7 @@
         <v>1.5201492537313432</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="92" t="s">
         <v>41</v>
       </c>
@@ -3377,7 +3427,7 @@
         <v>1.3947761194029851</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="83" t="s">
         <v>42</v>
       </c>
@@ -3443,7 +3493,7 @@
         <v>1.5593283582089552</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="83" t="s">
         <v>43</v>
       </c>
@@ -3509,7 +3559,7 @@
         <v>1.551492537313433</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="45" t="s">
         <v>44</v>
       </c>
@@ -3571,7 +3621,7 @@
         <v>1.5593283582089552</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="J9" s="70"/>
       <c r="K9" s="70"/>
       <c r="L9" s="70"/>
@@ -3579,7 +3629,7 @@
       <c r="Q9" s="50"/>
       <c r="S9" s="50"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="47" t="s">
         <v>3</v>
       </c>
@@ -3599,7 +3649,7 @@
       <c r="Q10" s="50"/>
       <c r="S10" s="50"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="83" t="s">
         <v>38</v>
       </c>
@@ -3665,7 +3715,7 @@
         <v>0.39063324538258576</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="45" t="s">
         <v>39</v>
       </c>
@@ -3727,7 +3777,7 @@
         <v>0.23825857519788918</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="83" t="s">
         <v>40</v>
       </c>
@@ -3793,7 +3843,7 @@
         <v>0.42110817941952505</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="92" t="s">
         <v>41</v>
       </c>
@@ -3859,7 +3909,7 @@
         <v>0.44327176781002642</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="83" t="s">
         <v>42</v>
       </c>
@@ -3925,7 +3975,7 @@
         <v>0.38509234828496042</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="83" t="s">
         <v>43</v>
       </c>
@@ -3991,7 +4041,7 @@
         <v>0.3961741424802111</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="83" t="s">
         <v>44</v>
       </c>
@@ -4057,7 +4107,7 @@
         <v>0.3961741424802111</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="J18" s="70"/>
       <c r="K18" s="70"/>
       <c r="L18" s="70"/>
@@ -4065,7 +4115,7 @@
       <c r="Q18" s="50"/>
       <c r="S18" s="50"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="48" t="s">
         <v>89</v>
       </c>
@@ -4085,7 +4135,7 @@
       <c r="Q19" s="50"/>
       <c r="S19" s="50"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" s="45" t="s">
         <v>38</v>
       </c>
@@ -4147,7 +4197,7 @@
         <v>-1.3528846153846155</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" s="83" t="s">
         <v>39</v>
       </c>
@@ -4213,7 +4263,7 @@
         <v>-0.85817307692307687</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" s="83" t="s">
         <v>40</v>
       </c>
@@ -4279,7 +4329,7 @@
         <v>-1.4336538461538462</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" s="92" t="s">
         <v>41</v>
       </c>
@@ -4345,7 +4395,7 @@
         <v>-1.5346153846153845</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" s="83" t="s">
         <v>42</v>
       </c>
@@ -4411,7 +4461,7 @@
         <v>-1.3225961538461539</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" s="45" t="s">
         <v>43</v>
       </c>
@@ -4473,7 +4523,7 @@
         <v>-1.3730769230769231</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" s="45" t="s">
         <v>44</v>
       </c>
@@ -4535,7 +4585,7 @@
         <v>-1.3730769230769231</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="J27" s="70"/>
       <c r="K27" s="70"/>
       <c r="L27" s="70"/>
@@ -4543,7 +4593,7 @@
       <c r="Q27" s="50"/>
       <c r="S27" s="50"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" s="49" t="s">
         <v>90</v>
       </c>
@@ -4563,7 +4613,7 @@
       <c r="Q28" s="50"/>
       <c r="S28" s="50"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" s="45" t="s">
         <v>38</v>
       </c>
@@ -4625,7 +4675,7 @@
         <v>-0.65625</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" s="83" t="s">
         <v>39</v>
       </c>
@@ -4691,7 +4741,7 @@
         <v>-0.49583333333333335</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" s="83" t="s">
         <v>40</v>
       </c>
@@ -4757,7 +4807,7 @@
         <v>-0.67958333333333332</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" s="92" t="s">
         <v>41</v>
       </c>
@@ -4823,7 +4873,7 @@
         <v>-0.68541666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" s="83" t="s">
         <v>42</v>
       </c>
@@ -4889,7 +4939,7 @@
         <v>-0.65041666666666664</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" s="45" t="s">
         <v>43</v>
       </c>
@@ -4951,7 +5001,7 @@
         <v>-0.65625</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" s="45" t="s">
         <v>44</v>
       </c>
@@ -5013,17 +5063,17 @@
         <v>-0.65625</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="O36" s="50"/>
       <c r="Q36" s="50"/>
       <c r="S36" s="50"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="O37" s="50"/>
       <c r="Q37" s="50"/>
       <c r="S37" s="50"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" s="171" t="s">
         <v>117</v>
       </c>
@@ -5040,7 +5090,7 @@
       <c r="Q38" s="50"/>
       <c r="S38" s="50"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" s="45" t="s">
         <v>38</v>
       </c>
@@ -5090,7 +5140,7 @@
         <v>-0.54562500000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" s="83" t="s">
         <v>39</v>
       </c>
@@ -5140,7 +5190,7 @@
         <v>-0.51187499999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" s="83" t="s">
         <v>40</v>
       </c>
@@ -5190,7 +5240,7 @@
         <v>-0.52874999999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" s="83" t="s">
         <v>41</v>
       </c>
@@ -5240,7 +5290,7 @@
         <v>-0.45937499999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" s="83" t="s">
         <v>42</v>
       </c>
@@ -5290,7 +5340,7 @@
         <v>-0.54375000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" s="45" t="s">
         <v>43</v>
       </c>
@@ -5340,7 +5390,7 @@
         <v>-0.54375000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" s="45" t="s">
         <v>44</v>
       </c>
@@ -5390,12 +5440,12 @@
         <v>-0.53999999999999992</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="O46" s="50"/>
       <c r="Q46" s="50"/>
       <c r="S46" s="50"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" s="172" t="s">
         <v>116</v>
       </c>
@@ -5412,7 +5462,7 @@
       <c r="Q47" s="50"/>
       <c r="S47" s="50"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="A48" s="45" t="s">
         <v>38</v>
       </c>
@@ -5462,7 +5512,7 @@
         <v>2.4387096774193551</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" s="83" t="s">
         <v>39</v>
       </c>
@@ -5515,7 +5565,7 @@
         <v>2.0655737704918034</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" s="83" t="s">
         <v>40</v>
       </c>
@@ -5532,7 +5582,7 @@
       <c r="Q50" s="50"/>
       <c r="S50" s="50"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" s="83" t="s">
         <v>41</v>
       </c>
@@ -5582,7 +5632,7 @@
         <v>2.3754098360655735</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" s="83" t="s">
         <v>42</v>
       </c>
@@ -5632,7 +5682,7 @@
         <v>2.4614754098360656</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" s="45" t="s">
         <v>43</v>
       </c>
@@ -5682,7 +5732,7 @@
         <v>2.4545454545454546</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" s="45" t="s">
         <v>44</v>
       </c>
@@ -5730,6 +5780,83 @@
       <c r="T54">
         <f t="shared" si="11"/>
         <v>2.4786885245901638</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>175.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="D60">
+        <v>177.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="D61">
+        <v>179.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="D62">
+        <v>177.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="D63">
+        <v>175.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="D64">
+        <v>177.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="D65">
+        <f>AVERAGE(D59:D64)</f>
+        <v>177.54999999999998</v>
+      </c>
+      <c r="E65">
+        <f>STDEV(D59:D64)</f>
+        <v>1.4747881203752644</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5752,12 +5879,12 @@
       <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="B1" s="163" t="s">
         <v>23</v>
       </c>
@@ -5783,7 +5910,7 @@
       <c r="P1" s="127"/>
       <c r="Q1" s="128"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
@@ -5833,7 +5960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="12" t="s">
         <v>54</v>
       </c>
@@ -5854,7 +5981,7 @@
       <c r="P3" s="70"/>
       <c r="Q3" s="36"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="9" t="s">
         <v>60</v>
       </c>
@@ -5891,7 +6018,7 @@
       <c r="P4" s="41"/>
       <c r="Q4" s="42"/>
     </row>
-    <row r="5" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="17" thickBot="1">
       <c r="A5" s="10"/>
       <c r="B5" s="71"/>
       <c r="C5" s="11"/>
@@ -5918,7 +6045,7 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="118"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5930,7 +6057,7 @@
       <c r="M6" s="15"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="17" thickBot="1">
       <c r="A7" s="13"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -5942,7 +6069,7 @@
       <c r="I7" s="6"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="16"/>
       <c r="B8" s="165" t="s">
         <v>23</v>
@@ -5969,7 +6096,7 @@
       <c r="P8" s="133"/>
       <c r="Q8" s="134"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -6020,7 +6147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="18" t="s">
         <v>53</v>
       </c>
@@ -6041,7 +6168,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="36"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="17" t="s">
         <v>28</v>
       </c>
@@ -6078,7 +6205,7 @@
       <c r="P11" s="41"/>
       <c r="Q11" s="42"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="17"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -6105,7 +6232,7 @@
       <c r="P12" s="41"/>
       <c r="Q12" s="42"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="17"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -6132,7 +6259,7 @@
       <c r="P13" s="41"/>
       <c r="Q13" s="42"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="17" t="s">
         <v>26</v>
       </c>
@@ -6169,7 +6296,7 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="17" thickBot="1">
       <c r="A15" s="19"/>
       <c r="B15" s="111"/>
       <c r="C15" s="111"/>
@@ -6188,7 +6315,7 @@
       <c r="P15" s="111"/>
       <c r="Q15" s="112"/>
     </row>
-    <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="17" thickBot="1">
       <c r="A16" s="14"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6203,7 +6330,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="20"/>
       <c r="B17" s="159" t="s">
         <v>23</v>
@@ -6230,7 +6357,7 @@
       <c r="P17" s="135"/>
       <c r="Q17" s="136"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="21"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
@@ -6281,7 +6408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="22" t="s">
         <v>52</v>
       </c>
@@ -6302,7 +6429,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="36"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="21" t="s">
         <v>18</v>
       </c>
@@ -6339,7 +6466,7 @@
       <c r="P20" s="41"/>
       <c r="Q20" s="42"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="21" t="s">
         <v>28</v>
       </c>
@@ -6368,7 +6495,7 @@
       <c r="P21" s="41"/>
       <c r="Q21" s="42"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="21" t="s">
         <v>31</v>
       </c>
@@ -6405,7 +6532,7 @@
       <c r="P22" s="41"/>
       <c r="Q22" s="42"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="21"/>
       <c r="B23" s="41">
         <v>160</v>
@@ -6432,7 +6559,7 @@
       <c r="P23" s="41"/>
       <c r="Q23" s="42"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="21" t="s">
         <v>26</v>
       </c>
@@ -6461,7 +6588,7 @@
       <c r="P24" s="41"/>
       <c r="Q24" s="42"/>
     </row>
-    <row r="25" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="17" thickBot="1">
       <c r="A25" s="23"/>
       <c r="B25" s="113"/>
       <c r="C25" s="113"/>
@@ -6480,13 +6607,13 @@
       <c r="P25" s="113"/>
       <c r="Q25" s="114"/>
     </row>
-    <row r="26" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="17" thickBot="1">
       <c r="A26" s="13"/>
       <c r="E26" s="5"/>
       <c r="I26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="24"/>
       <c r="B27" s="161" t="s">
         <v>23</v>
@@ -6513,7 +6640,7 @@
       <c r="P27" s="137"/>
       <c r="Q27" s="138"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="25"/>
       <c r="B28" s="4" t="s">
         <v>19</v>
@@ -6564,7 +6691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="26" t="s">
         <v>29</v>
       </c>
@@ -6585,7 +6712,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="36"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="25" t="s">
         <v>18</v>
       </c>
@@ -6606,7 +6733,7 @@
       <c r="P30" s="41"/>
       <c r="Q30" s="42"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="25" t="s">
         <v>28</v>
       </c>
@@ -6635,7 +6762,7 @@
       <c r="P31" s="41"/>
       <c r="Q31" s="42"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="25" t="s">
         <v>13</v>
       </c>
@@ -6656,7 +6783,7 @@
       <c r="P32" s="41"/>
       <c r="Q32" s="42"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="25" t="s">
         <v>27</v>
       </c>
@@ -6701,7 +6828,7 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="25" t="s">
         <v>31</v>
       </c>
@@ -6738,7 +6865,7 @@
       <c r="P34" s="41"/>
       <c r="Q34" s="42"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="25"/>
       <c r="B35" s="41">
         <v>160</v>
@@ -6765,7 +6892,7 @@
       <c r="P35" s="41"/>
       <c r="Q35" s="42"/>
     </row>
-    <row r="36" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="17" thickBot="1">
       <c r="A36" s="27" t="s">
         <v>26</v>
       </c>
@@ -6802,19 +6929,19 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37" s="13"/>
       <c r="E37" s="14"/>
       <c r="I37" s="14"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="17" thickBot="1">
       <c r="A38" s="13"/>
       <c r="E38" s="14"/>
       <c r="I38" s="14"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="28"/>
       <c r="B39" s="151" t="s">
         <v>23</v>
@@ -6841,7 +6968,7 @@
       <c r="P39" s="139"/>
       <c r="Q39" s="140"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40" s="29"/>
       <c r="B40" s="4" t="s">
         <v>19</v>
@@ -6892,7 +7019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41" s="30" t="s">
         <v>30</v>
       </c>
@@ -6913,7 +7040,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="36"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42" s="29" t="s">
         <v>18</v>
       </c>
@@ -6958,7 +7085,7 @@
       <c r="P42" s="41"/>
       <c r="Q42" s="42"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43" s="29" t="s">
         <v>9</v>
       </c>
@@ -7003,7 +7130,7 @@
       <c r="P43" s="41"/>
       <c r="Q43" s="42"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="A44" s="29"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -7038,7 +7165,7 @@
       <c r="P44" s="41"/>
       <c r="Q44" s="42"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="A45" s="29"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
@@ -7065,7 +7192,7 @@
       <c r="P45" s="41"/>
       <c r="Q45" s="42"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17">
       <c r="A46" s="29"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -7092,7 +7219,7 @@
       <c r="P46" s="41"/>
       <c r="Q46" s="42"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17">
       <c r="A47" s="29" t="s">
         <v>28</v>
       </c>
@@ -7121,7 +7248,7 @@
       <c r="P47" s="41"/>
       <c r="Q47" s="42"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17">
       <c r="A48" s="29" t="s">
         <v>13</v>
       </c>
@@ -7174,7 +7301,7 @@
         <v>-1.02</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" s="29"/>
       <c r="B49" s="89" t="s">
         <v>73</v>
@@ -7217,7 +7344,7 @@
       <c r="P49" s="41"/>
       <c r="Q49" s="42"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" s="29"/>
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
@@ -7252,7 +7379,7 @@
       <c r="P50" s="41"/>
       <c r="Q50" s="42"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" s="29" t="s">
         <v>27</v>
       </c>
@@ -7297,7 +7424,7 @@
         <v>-0.94</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" s="29" t="s">
         <v>31</v>
       </c>
@@ -7334,7 +7461,7 @@
       <c r="P52" s="41"/>
       <c r="Q52" s="42"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" s="29"/>
       <c r="B53" s="41">
         <v>160</v>
@@ -7361,7 +7488,7 @@
       <c r="P53" s="41"/>
       <c r="Q53" s="42"/>
     </row>
-    <row r="54" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="17" thickBot="1">
       <c r="A54" s="31" t="s">
         <v>26</v>
       </c>
@@ -7390,19 +7517,19 @@
       <c r="P54" s="97"/>
       <c r="Q54" s="98"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" s="13"/>
       <c r="E55" s="14"/>
       <c r="I55" s="14"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="17" thickBot="1">
       <c r="A56" s="13"/>
       <c r="E56" s="14"/>
       <c r="I56" s="14"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" s="32"/>
       <c r="B57" s="155" t="s">
         <v>23</v>
@@ -7429,7 +7556,7 @@
       <c r="P57" s="141"/>
       <c r="Q57" s="142"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58" s="33"/>
       <c r="B58" s="4" t="s">
         <v>19</v>
@@ -7483,7 +7610,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59" s="35" t="s">
         <v>32</v>
       </c>
@@ -7504,7 +7631,7 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="36"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60" s="33" t="s">
         <v>18</v>
       </c>
@@ -7549,7 +7676,7 @@
       <c r="P60" s="41"/>
       <c r="Q60" s="42"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61" s="33" t="s">
         <v>9</v>
       </c>
@@ -7594,7 +7721,7 @@
       <c r="P61" s="41"/>
       <c r="Q61" s="42"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62" s="33"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -7629,7 +7756,7 @@
       <c r="P62" s="41"/>
       <c r="Q62" s="42"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="A63" s="33"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
@@ -7656,7 +7783,7 @@
       <c r="P63" s="41"/>
       <c r="Q63" s="42"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="A64" s="33"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -7683,7 +7810,7 @@
       <c r="P64" s="41"/>
       <c r="Q64" s="42"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65" s="33" t="s">
         <v>28</v>
       </c>
@@ -7712,7 +7839,7 @@
       <c r="P65" s="41"/>
       <c r="Q65" s="42"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="A66" s="33" t="s">
         <v>13</v>
       </c>
@@ -7765,7 +7892,7 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18">
       <c r="A67" s="33"/>
       <c r="B67" s="86" t="s">
         <v>73</v>
@@ -7816,7 +7943,7 @@
         <v>-1.03</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18">
       <c r="A68" s="33"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -7851,7 +7978,7 @@
       <c r="P68" s="41"/>
       <c r="Q68" s="42"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18">
       <c r="A69" s="33"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -7878,7 +8005,7 @@
       <c r="P69" s="41"/>
       <c r="Q69" s="42"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="A70" s="33" t="s">
         <v>27</v>
       </c>
@@ -7923,7 +8050,7 @@
         <v>-0.94</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18">
       <c r="A71" s="33" t="s">
         <v>31</v>
       </c>
@@ -7960,7 +8087,7 @@
       <c r="P71" s="41"/>
       <c r="Q71" s="42"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18">
       <c r="A72" s="33"/>
       <c r="B72" s="41">
         <v>160</v>
@@ -7987,7 +8114,7 @@
       <c r="P72" s="41"/>
       <c r="Q72" s="42"/>
     </row>
-    <row r="73" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="17" thickBot="1">
       <c r="A73" s="34" t="s">
         <v>26</v>
       </c>
@@ -8024,19 +8151,19 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74" s="13"/>
       <c r="E74" s="14"/>
       <c r="I74" s="14"/>
       <c r="M74" s="14"/>
     </row>
-    <row r="75" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="17" thickBot="1">
       <c r="A75" s="13"/>
       <c r="E75" s="14"/>
       <c r="I75" s="14"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76" s="37"/>
       <c r="B76" s="157" t="s">
         <v>23</v>
@@ -8066,7 +8193,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77" s="38"/>
       <c r="B77" s="4" t="s">
         <v>19</v>
@@ -8117,7 +8244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18">
       <c r="A78" s="39" t="s">
         <v>33</v>
       </c>
@@ -8138,7 +8265,7 @@
       <c r="P78" s="7"/>
       <c r="Q78" s="36"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79" s="38" t="s">
         <v>18</v>
       </c>
@@ -8175,7 +8302,7 @@
       <c r="P79" s="41"/>
       <c r="Q79" s="42"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80" s="38" t="s">
         <v>9</v>
       </c>
@@ -8220,7 +8347,7 @@
       <c r="P80" s="41"/>
       <c r="Q80" s="42"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81" s="38"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41"/>
@@ -8255,7 +8382,7 @@
       <c r="P81" s="41"/>
       <c r="Q81" s="42"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="A82" s="38"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -8282,7 +8409,7 @@
       <c r="P82" s="41"/>
       <c r="Q82" s="42"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83" s="38"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -8309,7 +8436,7 @@
       <c r="P83" s="41"/>
       <c r="Q83" s="42"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84" s="38" t="s">
         <v>28</v>
       </c>
@@ -8338,7 +8465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" s="38" t="s">
         <v>13</v>
       </c>
@@ -8391,7 +8518,7 @@
         <v>-1.03</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86" s="38"/>
       <c r="B86" s="86" t="s">
         <v>73</v>
@@ -8442,7 +8569,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87" s="38"/>
       <c r="B87" s="41">
         <v>160</v>
@@ -8477,7 +8604,7 @@
       <c r="P87" s="41"/>
       <c r="Q87" s="42"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18">
       <c r="A88" s="38" t="s">
         <v>27</v>
       </c>
@@ -8522,7 +8649,7 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18">
       <c r="A89" s="38" t="s">
         <v>31</v>
       </c>
@@ -8559,7 +8686,7 @@
       <c r="P89" s="41"/>
       <c r="Q89" s="42"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90" s="38"/>
       <c r="B90" s="41">
         <v>160</v>
@@ -8586,7 +8713,7 @@
       <c r="P90" s="41"/>
       <c r="Q90" s="42"/>
     </row>
-    <row r="91" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="17" thickBot="1">
       <c r="A91" s="40" t="s">
         <v>26</v>
       </c>
@@ -8623,7 +8750,7 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18">
       <c r="A92" s="14"/>
       <c r="B92" s="41">
         <v>160</v>
@@ -8650,19 +8777,19 @@
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18">
       <c r="A93" s="13"/>
       <c r="E93" s="14"/>
       <c r="I93" s="14"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="17" thickBot="1">
       <c r="A94" s="13"/>
       <c r="E94" s="14"/>
       <c r="I94" s="14"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="A95" s="51"/>
       <c r="B95" s="149" t="s">
         <v>23</v>
@@ -8689,7 +8816,7 @@
       <c r="P95" s="145"/>
       <c r="Q95" s="146"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18">
       <c r="A96" s="52"/>
       <c r="B96" s="4" t="s">
         <v>19</v>
@@ -8743,7 +8870,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17">
       <c r="A97" s="54" t="s">
         <v>34</v>
       </c>
@@ -8764,7 +8891,7 @@
       <c r="P97" s="7"/>
       <c r="Q97" s="36"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17">
       <c r="A98" s="52" t="s">
         <v>18</v>
       </c>
@@ -8801,7 +8928,7 @@
       <c r="P98" s="41"/>
       <c r="Q98" s="42"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17">
       <c r="A99" s="52" t="s">
         <v>9</v>
       </c>
@@ -8846,7 +8973,7 @@
       <c r="P99" s="41"/>
       <c r="Q99" s="42"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17">
       <c r="A100" s="52"/>
       <c r="B100" s="41"/>
       <c r="C100" s="41"/>
@@ -8881,7 +9008,7 @@
       <c r="P100" s="41"/>
       <c r="Q100" s="42"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17">
       <c r="A101" s="52"/>
       <c r="B101" s="41"/>
       <c r="C101" s="41"/>
@@ -8908,7 +9035,7 @@
       <c r="P101" s="41"/>
       <c r="Q101" s="42"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17">
       <c r="A102" s="52"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
@@ -8935,7 +9062,7 @@
       <c r="P102" s="41"/>
       <c r="Q102" s="42"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17">
       <c r="A103" s="52" t="s">
         <v>28</v>
       </c>
@@ -8964,7 +9091,7 @@
         <v>-1.02</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17">
       <c r="A104" s="52" t="s">
         <v>13</v>
       </c>
@@ -8993,7 +9120,7 @@
         <v>-1.03</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17">
       <c r="A105" s="52" t="s">
         <v>27</v>
       </c>
@@ -9038,7 +9165,7 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17">
       <c r="A106" s="52" t="s">
         <v>31</v>
       </c>
@@ -9075,7 +9202,7 @@
       <c r="P106" s="41"/>
       <c r="Q106" s="42"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17">
       <c r="A107" s="52"/>
       <c r="B107" s="41">
         <v>160</v>
@@ -9102,7 +9229,7 @@
       <c r="P107" s="41"/>
       <c r="Q107" s="42"/>
     </row>
-    <row r="108" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" ht="17" thickBot="1">
       <c r="A108" s="53" t="s">
         <v>26</v>
       </c>
@@ -9139,19 +9266,19 @@
       <c r="P108" s="103"/>
       <c r="Q108" s="104"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17">
       <c r="A109" s="13"/>
       <c r="E109" s="14"/>
       <c r="I109" s="14"/>
       <c r="M109" s="14"/>
     </row>
-    <row r="110" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" ht="17" thickBot="1">
       <c r="A110" s="13"/>
       <c r="E110" s="14"/>
       <c r="I110" s="14"/>
       <c r="M110" s="14"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17">
       <c r="A111" s="73"/>
       <c r="B111" s="153" t="s">
         <v>23</v>
@@ -9178,7 +9305,7 @@
       <c r="P111" s="147"/>
       <c r="Q111" s="148"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17">
       <c r="A112" s="74"/>
       <c r="B112" s="4" t="s">
         <v>19</v>
@@ -9229,7 +9356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18">
       <c r="A113" s="76" t="s">
         <v>35</v>
       </c>
@@ -9250,7 +9377,7 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="36"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18">
       <c r="A114" s="74" t="s">
         <v>18</v>
       </c>
@@ -9282,7 +9409,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18">
       <c r="A115" s="74" t="s">
         <v>9</v>
       </c>
@@ -9327,7 +9454,7 @@
       <c r="P115" s="41"/>
       <c r="Q115" s="42"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18">
       <c r="A116" s="74"/>
       <c r="B116" s="41"/>
       <c r="C116" s="41"/>
@@ -9362,7 +9489,7 @@
       <c r="P116" s="41"/>
       <c r="Q116" s="42"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18">
       <c r="A117" s="74"/>
       <c r="B117" s="41"/>
       <c r="C117" s="41"/>
@@ -9389,7 +9516,7 @@
       <c r="P117" s="41"/>
       <c r="Q117" s="42"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18">
       <c r="A118" s="74"/>
       <c r="B118" s="41"/>
       <c r="C118" s="41"/>
@@ -9416,7 +9543,7 @@
       <c r="P118" s="41"/>
       <c r="Q118" s="42"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18">
       <c r="A119" s="74" t="s">
         <v>28</v>
       </c>
@@ -9445,7 +9572,7 @@
         <v>-1.04</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18">
       <c r="A120" s="74" t="s">
         <v>13</v>
       </c>
@@ -9474,7 +9601,7 @@
       <c r="P120" s="41"/>
       <c r="Q120" s="42"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18">
       <c r="A121" s="74" t="s">
         <v>27</v>
       </c>
@@ -9503,7 +9630,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18">
       <c r="A122" s="74"/>
       <c r="B122" s="41"/>
       <c r="C122" s="41"/>
@@ -9530,7 +9657,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18">
       <c r="A123" s="74" t="s">
         <v>31</v>
       </c>
@@ -9575,7 +9702,7 @@
         <v>-0.97</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" ht="17" thickBot="1">
       <c r="A124" s="75" t="s">
         <v>26</v>
       </c>
@@ -9612,19 +9739,19 @@
       <c r="P124" s="105"/>
       <c r="Q124" s="106"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18">
       <c r="A125" s="13"/>
       <c r="E125" s="14"/>
       <c r="I125" s="14"/>
       <c r="M125" s="14"/>
     </row>
-    <row r="126" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" ht="17" thickBot="1">
       <c r="A126" s="13"/>
       <c r="E126" s="14"/>
       <c r="I126" s="14"/>
       <c r="M126" s="14"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18">
       <c r="A127" s="55"/>
       <c r="B127" s="129" t="s">
         <v>23</v>
@@ -9651,7 +9778,7 @@
       <c r="P127" s="130"/>
       <c r="Q127" s="132"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18">
       <c r="A128" s="56"/>
       <c r="B128" s="4" t="s">
         <v>19</v>
@@ -9702,7 +9829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17">
       <c r="A129" s="58" t="s">
         <v>36</v>
       </c>
@@ -9723,7 +9850,7 @@
       <c r="P129" s="7"/>
       <c r="Q129" s="36"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17">
       <c r="A130" s="56" t="s">
         <v>18</v>
       </c>
@@ -9752,7 +9879,7 @@
       <c r="P130" s="41"/>
       <c r="Q130" s="42"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17">
       <c r="A131" s="56" t="s">
         <v>9</v>
       </c>
@@ -9789,7 +9916,7 @@
       <c r="P131" s="41"/>
       <c r="Q131" s="42"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17">
       <c r="A132" s="56"/>
       <c r="B132" s="41"/>
       <c r="C132" s="41"/>
@@ -9816,7 +9943,7 @@
       <c r="P132" s="41"/>
       <c r="Q132" s="42"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17">
       <c r="A133" s="56"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
@@ -9843,7 +9970,7 @@
       <c r="P133" s="41"/>
       <c r="Q133" s="42"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17">
       <c r="A134" s="56"/>
       <c r="B134" s="41"/>
       <c r="C134" s="41"/>
@@ -9870,7 +9997,7 @@
       <c r="P134" s="41"/>
       <c r="Q134" s="42"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17">
       <c r="A135" s="56" t="s">
         <v>28</v>
       </c>
@@ -9891,7 +10018,7 @@
       <c r="P135" s="41"/>
       <c r="Q135" s="119"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17">
       <c r="A136" s="56" t="s">
         <v>13</v>
       </c>
@@ -9928,7 +10055,7 @@
       <c r="P136" s="41"/>
       <c r="Q136" s="42"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17">
       <c r="A137" s="56" t="s">
         <v>27</v>
       </c>
@@ -9957,7 +10084,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17">
       <c r="A138" s="56"/>
       <c r="B138" s="41"/>
       <c r="C138" s="41"/>
@@ -9984,7 +10111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17">
       <c r="A139" s="56" t="s">
         <v>31</v>
       </c>
@@ -10029,7 +10156,7 @@
         <v>-0.97</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" ht="17" thickBot="1">
       <c r="A140" s="57" t="s">
         <v>26</v>
       </c>
@@ -10116,13 +10243,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC525D0-44A5-BB44-890E-BE4921F28280}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="50" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="77" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="77"/>
@@ -10133,10 +10260,12 @@
     <col min="13" max="13" width="32" style="77" customWidth="1"/>
     <col min="14" max="16" width="10.83203125" style="77"/>
     <col min="17" max="17" width="29.5" style="77" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="77"/>
+    <col min="18" max="20" width="10.83203125" style="77"/>
+    <col min="21" max="21" width="32.6640625" style="77" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="B1" s="167" t="s">
         <v>23</v>
       </c>
@@ -10161,8 +10290,14 @@
       <c r="O1" s="170"/>
       <c r="P1" s="170"/>
       <c r="Q1" s="170"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="170" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="78"/>
       <c r="B2" s="79" t="s">
         <v>19</v>
@@ -10212,8 +10347,20 @@
       <c r="Q2" s="77" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+      <c r="R2" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="85">
       <c r="A3" s="78" t="s">
         <v>18</v>
       </c>
@@ -10262,11 +10409,32 @@
       <c r="P3" s="77" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="77">
+        <v>150</v>
+      </c>
+      <c r="S3" s="77">
+        <v>90</v>
+      </c>
+      <c r="T3" s="77">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="78"/>
-    </row>
-    <row r="5" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="R4" s="77">
+        <v>155</v>
+      </c>
+      <c r="S4" s="77">
+        <v>80</v>
+      </c>
+      <c r="T4" s="77">
+        <v>-90</v>
+      </c>
+      <c r="U4" s="77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="68">
       <c r="A5" s="78" t="s">
         <v>9</v>
       </c>
@@ -10313,7 +10481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="68">
       <c r="A6" s="78"/>
       <c r="F6" s="78" t="s">
         <v>99</v>
@@ -10327,11 +10495,12 @@
       <c r="I6" s="110" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U6" s="82"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="78"/>
     </row>
-    <row r="8" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="102">
       <c r="A8" s="78" t="s">
         <v>28</v>
       </c>
@@ -10380,14 +10549,35 @@
       <c r="P8" s="77">
         <v>90</v>
       </c>
-      <c r="Q8" s="77" t="s">
+      <c r="Q8" s="82" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="77">
+        <v>150</v>
+      </c>
+      <c r="S8" s="77">
+        <v>70</v>
+      </c>
+      <c r="T8" s="77">
+        <v>-100</v>
+      </c>
+      <c r="U8" s="82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="78"/>
-    </row>
-    <row r="10" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+      <c r="R9" s="77">
+        <v>115</v>
+      </c>
+      <c r="S9" s="77">
+        <v>45</v>
+      </c>
+      <c r="T9" s="77">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="85">
       <c r="A10" s="78" t="s">
         <v>13</v>
       </c>
@@ -10439,8 +10629,20 @@
       <c r="Q10" s="82" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="R10" s="77">
+        <v>40</v>
+      </c>
+      <c r="S10" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="T10" s="77">
+        <v>100</v>
+      </c>
+      <c r="U10" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="17">
       <c r="A11" s="78"/>
       <c r="B11" s="77" t="s">
         <v>75</v>
@@ -10466,8 +10668,17 @@
       <c r="Q11" s="82" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="R11" s="77">
+        <v>155</v>
+      </c>
+      <c r="S11" s="77">
+        <v>60</v>
+      </c>
+      <c r="T11" s="77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="68">
       <c r="A12" s="78" t="s">
         <v>27</v>
       </c>
@@ -10520,7 +10731,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="78"/>
       <c r="E13" s="82"/>
       <c r="I13" s="82"/>
@@ -10530,7 +10741,7 @@
       <c r="P13" s="121"/>
       <c r="Q13" s="122"/>
     </row>
-    <row r="14" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="85">
       <c r="A14" s="78" t="s">
         <v>15</v>
       </c>
@@ -10580,10 +10791,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="78"/>
     </row>
-    <row r="16" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="85">
       <c r="A16" s="78" t="s">
         <v>26</v>
       </c>
@@ -10633,18 +10844,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="78"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/script_notebooks/taup_models/velocity model diff.xlsx
+++ b/script_notebooks/taup_models/velocity model diff.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddysita/Desktop/CIERA_REU/script_notebooks/taup_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984FE4F7-7194-2643-9AEB-C710A8D55F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130C8D81-6C85-284C-B321-DFA31FE43A95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="460" windowWidth="20360" windowHeight="16180" activeTab="3" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
+    <workbookView xWindow="2820" yWindow="460" windowWidth="24180" windowHeight="16180" activeTab="2" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
   </bookViews>
   <sheets>
     <sheet name="Distances" sheetId="1" r:id="rId1"/>
     <sheet name="Amplitudes" sheetId="3" r:id="rId2"/>
-    <sheet name="Fault Types" sheetId="2" r:id="rId3"/>
-    <sheet name="Common Fault Type" sheetId="4" r:id="rId4"/>
+    <sheet name="Amplitudes2" sheetId="7" r:id="rId3"/>
+    <sheet name="Fault Types" sheetId="2" r:id="rId4"/>
+    <sheet name="Common Fault Type" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -66,39 +67,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{754A4ABB-928E-6D4F-9B4D-8982C3345A1B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>L comp never seemed to be quite minimalized - the actual arrival time reported seemed to fall between peaks?</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D12" authorId="0" shapeId="0" xr:uid="{5C786242-F59F-2F47-885A-0E75291E30F9}">
       <text>
         <r>
@@ -142,6 +110,82 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{6D05E70B-D5F0-1941-9C33-B64E8DB01A2A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>*Sv is very much within the noise at S-wave arrival / more character exists in L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{D11D39F9-3D03-3546-963F-EF519D889FEE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">major energy in the BHQ - more than BHL in the P-wave interval </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
     <comment ref="F31" authorId="0" shapeId="0" xr:uid="{BC76E91C-8037-7B43-96C3-B2506F2A11FA}">
       <text>
         <r>
@@ -179,7 +223,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -256,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="127">
   <si>
     <t>Model</t>
   </si>
@@ -369,9 +413,6 @@
     <t>5km</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>DWAK:</t>
   </si>
   <si>
@@ -393,12 +434,6 @@
     <t>TAYAK:</t>
   </si>
   <si>
-    <t>Sh</t>
-  </si>
-  <si>
-    <t>Sv</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -627,9 +662,6 @@
     <t>Sv (BHQ)</t>
   </si>
   <si>
-    <t>Sh (BHT</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -646,13 +678,16 @@
   </si>
   <si>
     <t>matched the relative relationship between the ratios, very shallow</t>
+  </si>
+  <si>
+    <t>Sh (BHT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1846,7 +1881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1979,6 +2014,9 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2162,6 +2200,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2494,16 +2535,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46560FC0-A59C-DF45-9D49-769E5A1C0609}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2511,7 +2552,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2520,13 +2561,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2549,10 +2590,10 @@
         <v>41.7</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2571,10 +2612,10 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2593,10 +2634,10 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2615,10 +2656,10 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2642,7 +2683,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2659,7 +2700,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2682,7 +2723,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2699,7 +2740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2722,7 +2763,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2745,7 +2786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2768,7 +2809,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2785,7 +2826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2808,7 +2849,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16">
         <f>AVERAGE(B2:B14)</f>
         <v>28.757142857142856</v>
@@ -2834,7 +2875,7 @@
         <v>43.357142857142854</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17">
         <f>STDEV(B2:B14)</f>
         <v>1.1282097069504153</v>
@@ -2860,7 +2901,7 @@
         <v>2.3803761207402663</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2874,10 +2915,10 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2894,28 +2935,28 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E24" s="1"/>
       <c r="J24">
         <v>28.2287</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2935,7 +2976,7 @@
         <v>28.232600000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2949,7 +2990,7 @@
         <v>28.240300000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2969,7 +3010,7 @@
         <v>28.230599999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2977,7 +3018,7 @@
         <v>28.236499999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2998,7 +3039,7 @@
         <v>4.6693682656227123E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -3019,7 +3060,7 @@
         <v>28.233740000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -3036,12 +3077,12 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -3058,7 +3099,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35">
         <f>AVERAGE(B21:B33)</f>
         <v>25.42</v>
@@ -3076,7 +3117,7 @@
         <v>40.131250000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36">
         <f>STDEV(B21:B33)</f>
         <v>3.9912320570637316</v>
@@ -3102,70 +3143,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C780D16-7681-8D48-B4B0-5F55C4C01983}">
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42:H42"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="91" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K1" s="91" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L1" s="91" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M1" s="91"/>
       <c r="N1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="126"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="O1" s="127" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="127"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="70">
         <v>134</v>
@@ -3229,9 +3270,9 @@
         <v>1.551492537313433</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>134</v>
@@ -3295,9 +3336,9 @@
         <v>1.3869402985074626</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="70">
         <v>134</v>
@@ -3361,9 +3402,9 @@
         <v>1.5201492537313432</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="93">
         <v>134</v>
@@ -3427,9 +3468,9 @@
         <v>1.3947761194029851</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="70">
         <v>134</v>
@@ -3493,9 +3534,9 @@
         <v>1.5593283582089552</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="70">
         <v>134</v>
@@ -3559,9 +3600,9 @@
         <v>1.551492537313433</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>134</v>
@@ -3621,7 +3662,7 @@
         <v>1.5593283582089552</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J9" s="70"/>
       <c r="K9" s="70"/>
       <c r="L9" s="70"/>
@@ -3629,18 +3670,18 @@
       <c r="Q9" s="50"/>
       <c r="S9" s="50"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="J10" s="70"/>
       <c r="K10" s="70"/>
@@ -3649,9 +3690,9 @@
       <c r="Q10" s="50"/>
       <c r="S10" s="50"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="70">
         <v>379</v>
@@ -3715,9 +3756,9 @@
         <v>0.39063324538258576</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>379</v>
@@ -3777,9 +3818,9 @@
         <v>0.23825857519788918</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="70">
         <v>379</v>
@@ -3843,9 +3884,9 @@
         <v>0.42110817941952505</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="93">
         <v>379</v>
@@ -3909,9 +3950,9 @@
         <v>0.44327176781002642</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="70">
         <v>379</v>
@@ -3975,9 +4016,9 @@
         <v>0.38509234828496042</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="70">
         <v>379</v>
@@ -4041,9 +4082,9 @@
         <v>0.3961741424802111</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="70">
         <v>379</v>
@@ -4107,7 +4148,7 @@
         <v>0.3961741424802111</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J18" s="70"/>
       <c r="K18" s="70"/>
       <c r="L18" s="70"/>
@@ -4115,18 +4156,18 @@
       <c r="Q18" s="50"/>
       <c r="S18" s="50"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="J19" s="70"/>
       <c r="K19" s="70"/>
@@ -4135,9 +4176,9 @@
       <c r="Q19" s="50"/>
       <c r="S19" s="50"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>-104</v>
@@ -4197,9 +4238,9 @@
         <v>-1.3528846153846155</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="70">
         <v>-104</v>
@@ -4263,9 +4304,9 @@
         <v>-0.85817307692307687</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="70">
         <v>-104</v>
@@ -4329,9 +4370,9 @@
         <v>-1.4336538461538462</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="93">
         <v>-104</v>
@@ -4395,9 +4436,9 @@
         <v>-1.5346153846153845</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="70">
         <v>-104</v>
@@ -4461,9 +4502,9 @@
         <v>-1.3225961538461539</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>-104</v>
@@ -4523,9 +4564,9 @@
         <v>-1.3730769230769231</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>-104</v>
@@ -4585,7 +4626,7 @@
         <v>-1.3730769230769231</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J27" s="70"/>
       <c r="K27" s="70"/>
       <c r="L27" s="70"/>
@@ -4593,18 +4634,18 @@
       <c r="Q27" s="50"/>
       <c r="S27" s="50"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="J28" s="70"/>
       <c r="K28" s="70"/>
@@ -4613,9 +4654,9 @@
       <c r="Q28" s="50"/>
       <c r="S28" s="50"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>-360</v>
@@ -4675,9 +4716,9 @@
         <v>-0.65625</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="70">
         <v>-360</v>
@@ -4741,9 +4782,9 @@
         <v>-0.49583333333333335</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="70">
         <v>-360</v>
@@ -4807,9 +4848,9 @@
         <v>-0.67958333333333332</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="93">
         <v>-360</v>
@@ -4873,9 +4914,9 @@
         <v>-0.68541666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="70">
         <v>-360</v>
@@ -4939,9 +4980,9 @@
         <v>-0.65041666666666664</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>-360</v>
@@ -5001,9 +5042,9 @@
         <v>-0.65625</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>-360</v>
@@ -5063,36 +5104,36 @@
         <v>-0.65625</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O36" s="50"/>
       <c r="Q36" s="50"/>
       <c r="S36" s="50"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O37" s="50"/>
       <c r="Q37" s="50"/>
       <c r="S37" s="50"/>
     </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="171" t="s">
-        <v>117</v>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="172" t="s">
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="O38" s="50"/>
       <c r="Q38" s="50"/>
       <c r="S38" s="50"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>560</v>
@@ -5140,9 +5181,9 @@
         <v>-0.54562500000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>560</v>
@@ -5190,9 +5231,9 @@
         <v>-0.51187499999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>560</v>
@@ -5240,9 +5281,9 @@
         <v>-0.52874999999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>560</v>
@@ -5290,9 +5331,9 @@
         <v>-0.45937499999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>560</v>
@@ -5340,9 +5381,9 @@
         <v>-0.54375000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>560</v>
@@ -5390,9 +5431,9 @@
         <v>-0.54375000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>560</v>
@@ -5440,31 +5481,31 @@
         <v>-0.53999999999999992</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O46" s="50"/>
       <c r="Q46" s="50"/>
       <c r="S46" s="50"/>
     </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="172" t="s">
-        <v>116</v>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="173" t="s">
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="O47" s="50"/>
       <c r="Q47" s="50"/>
       <c r="S47" s="50"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>31</v>
@@ -5512,9 +5553,9 @@
         <v>2.4387096774193551</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49">
         <v>30.5</v>
@@ -5526,7 +5567,7 @@
         <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F49">
         <f t="shared" ref="F49:F54" si="15">B49/C49</f>
@@ -5565,26 +5606,26 @@
         <v>2.0655737704918034</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O50" s="50"/>
       <c r="Q50" s="50"/>
       <c r="S50" s="50"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B51">
         <v>30.5</v>
@@ -5632,9 +5673,9 @@
         <v>2.3754098360655735</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52">
         <v>30.5</v>
@@ -5682,9 +5723,9 @@
         <v>2.4614754098360656</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53">
         <v>30.8</v>
@@ -5732,9 +5773,9 @@
         <v>2.4545454545454546</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54">
         <v>30.5</v>
@@ -5780,83 +5821,6 @@
       <c r="T54">
         <f t="shared" si="11"/>
         <v>2.4786885245901638</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="A58" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
-      <c r="A59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>175.9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
-      <c r="D60">
-        <v>177.9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
-      <c r="D61">
-        <v>179.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
-      <c r="D62">
-        <v>177.9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
-      <c r="D63">
-        <v>175.9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
-      <c r="D64">
-        <v>177.9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="D65">
-        <f>AVERAGE(D59:D64)</f>
-        <v>177.54999999999998</v>
-      </c>
-      <c r="E65">
-        <f>STDEV(D59:D64)</f>
-        <v>1.4747881203752644</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5872,6 +5836,1261 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB169D3-968B-AD40-8FDF-5E8672111CC3}">
+  <dimension ref="A1:V55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="95"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="70">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="C2" s="70">
+        <v>-181.5</v>
+      </c>
+      <c r="D2" s="70">
+        <v>198.6</v>
+      </c>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70">
+        <f>B2/C2</f>
+        <v>-0.79724517906336079</v>
+      </c>
+      <c r="G2" s="70">
+        <f>D2/C2</f>
+        <v>-1.0942148760330579</v>
+      </c>
+      <c r="H2" s="70">
+        <f>D2/B2</f>
+        <v>1.3724948168624742</v>
+      </c>
+      <c r="I2" s="70"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="C3">
+        <v>-95</v>
+      </c>
+      <c r="D3">
+        <v>176.6</v>
+      </c>
+      <c r="E3" s="95"/>
+      <c r="F3">
+        <f t="shared" ref="F3:F35" si="0">B3/C3</f>
+        <v>-1.523157894736842</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G35" si="1">D3/C3</f>
+        <v>-1.8589473684210527</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H35" si="2">D3/B3</f>
+        <v>1.2204561161022807</v>
+      </c>
+      <c r="I3" s="95"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="70">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="C4" s="70">
+        <v>-188.2</v>
+      </c>
+      <c r="D4" s="70">
+        <v>199.9</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70">
+        <f t="shared" si="0"/>
+        <v>-0.76886291179596178</v>
+      </c>
+      <c r="G4" s="70">
+        <f t="shared" si="1"/>
+        <v>-1.0621679064824656</v>
+      </c>
+      <c r="H4" s="70">
+        <f t="shared" si="2"/>
+        <v>1.3814789219073949</v>
+      </c>
+      <c r="I4" s="70"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="93">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="C5" s="93">
+        <v>-179.4</v>
+      </c>
+      <c r="D5" s="93">
+        <v>199.2</v>
+      </c>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.80657748049052391</v>
+      </c>
+      <c r="G5" s="93">
+        <f t="shared" si="1"/>
+        <v>-1.1103678929765886</v>
+      </c>
+      <c r="H5" s="93">
+        <f t="shared" si="2"/>
+        <v>1.3766413268832067</v>
+      </c>
+      <c r="I5" s="70"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="70">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="C6" s="70">
+        <v>-167.7</v>
+      </c>
+      <c r="D6" s="70">
+        <v>197.9</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70">
+        <f t="shared" si="0"/>
+        <v>-0.86285032796660699</v>
+      </c>
+      <c r="G6" s="70">
+        <f t="shared" si="1"/>
+        <v>-1.180083482409064</v>
+      </c>
+      <c r="H6" s="70">
+        <f t="shared" si="2"/>
+        <v>1.3676572218382863</v>
+      </c>
+      <c r="I6" s="70"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="70">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="C7" s="70">
+        <v>-178.8</v>
+      </c>
+      <c r="D7" s="70">
+        <v>198.7</v>
+      </c>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70">
+        <f t="shared" si="0"/>
+        <v>-0.80928411633109609</v>
+      </c>
+      <c r="G7" s="70">
+        <f t="shared" si="1"/>
+        <v>-1.111297539149888</v>
+      </c>
+      <c r="H7" s="70">
+        <f t="shared" si="2"/>
+        <v>1.3731859018659296</v>
+      </c>
+      <c r="I7" s="70"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="70">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="C8" s="70">
+        <v>-179.9</v>
+      </c>
+      <c r="D8" s="70">
+        <v>200.8</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-0.80433574207893266</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-1.1161756531406337</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1.3876986869384935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="70">
+        <v>379.4</v>
+      </c>
+      <c r="C11" s="70">
+        <v>328.8</v>
+      </c>
+      <c r="D11" s="70">
+        <v>-81.400000000000006</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70">
+        <f t="shared" si="0"/>
+        <v>1.1538929440389294</v>
+      </c>
+      <c r="G11" s="70">
+        <f t="shared" si="1"/>
+        <v>-0.2475669099756691</v>
+      </c>
+      <c r="H11" s="70">
+        <f t="shared" si="2"/>
+        <v>-0.21454928835002637</v>
+      </c>
+      <c r="I11" s="70"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>384.9</v>
+      </c>
+      <c r="C12">
+        <v>194</v>
+      </c>
+      <c r="D12" s="70">
+        <v>-52.4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1.9840206185567009</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-0.27010309278350514</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>-0.13613925694985712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="70">
+        <v>380.9</v>
+      </c>
+      <c r="C13" s="70">
+        <v>341</v>
+      </c>
+      <c r="D13" s="70">
+        <v>-84.7</v>
+      </c>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70">
+        <f t="shared" si="0"/>
+        <v>1.1170087976539589</v>
+      </c>
+      <c r="G13" s="70">
+        <f t="shared" si="1"/>
+        <v>-0.24838709677419354</v>
+      </c>
+      <c r="H13" s="70">
+        <f t="shared" si="2"/>
+        <v>-0.22236807561039645</v>
+      </c>
+      <c r="I13" s="70"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="93">
+        <v>383.2</v>
+      </c>
+      <c r="C14" s="93">
+        <v>326.89999999999998</v>
+      </c>
+      <c r="D14" s="93">
+        <v>-81.5</v>
+      </c>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93">
+        <f t="shared" si="0"/>
+        <v>1.1722239216885899</v>
+      </c>
+      <c r="G14" s="93">
+        <f t="shared" si="1"/>
+        <v>-0.24931171612113798</v>
+      </c>
+      <c r="H14" s="93">
+        <f t="shared" si="2"/>
+        <v>-0.21268267223382045</v>
+      </c>
+      <c r="I14" s="70"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="70">
+        <v>382</v>
+      </c>
+      <c r="C15" s="70">
+        <v>319.10000000000002</v>
+      </c>
+      <c r="D15" s="70">
+        <v>-78.400000000000006</v>
+      </c>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70">
+        <f t="shared" si="0"/>
+        <v>1.1971168912566592</v>
+      </c>
+      <c r="G15" s="70">
+        <f t="shared" si="1"/>
+        <v>-0.24569100595424631</v>
+      </c>
+      <c r="H15" s="70">
+        <f t="shared" si="2"/>
+        <v>-0.20523560209424085</v>
+      </c>
+      <c r="I15" s="70"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="70">
+        <v>376.1</v>
+      </c>
+      <c r="C16" s="70">
+        <v>325.5</v>
+      </c>
+      <c r="D16" s="70">
+        <v>-80.400000000000006</v>
+      </c>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70">
+        <f t="shared" si="0"/>
+        <v>1.1554531490015361</v>
+      </c>
+      <c r="G16" s="70">
+        <f t="shared" si="1"/>
+        <v>-0.2470046082949309</v>
+      </c>
+      <c r="H16" s="70">
+        <f t="shared" si="2"/>
+        <v>-0.21377293273065676</v>
+      </c>
+      <c r="I16" s="70"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="70">
+        <v>377.1</v>
+      </c>
+      <c r="C17" s="70">
+        <v>326.3</v>
+      </c>
+      <c r="D17" s="70">
+        <v>-81</v>
+      </c>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70">
+        <f t="shared" si="0"/>
+        <v>1.1556849524977015</v>
+      </c>
+      <c r="G17" s="70">
+        <f t="shared" si="1"/>
+        <v>-0.24823781795893349</v>
+      </c>
+      <c r="H17" s="70">
+        <f t="shared" si="2"/>
+        <v>-0.21479713603818615</v>
+      </c>
+      <c r="I17" s="70"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>-104</v>
+      </c>
+      <c r="C20">
+        <v>261</v>
+      </c>
+      <c r="D20">
+        <v>132.6</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>-0.39846743295019155</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.50804597701149423</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>-1.2749999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="70">
+        <v>-104.3</v>
+      </c>
+      <c r="C21" s="70">
+        <v>193.2</v>
+      </c>
+      <c r="D21" s="70">
+        <v>84.2</v>
+      </c>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70">
+        <f t="shared" si="0"/>
+        <v>-0.53985507246376818</v>
+      </c>
+      <c r="G21" s="70">
+        <f t="shared" si="1"/>
+        <v>0.43581780538302284</v>
+      </c>
+      <c r="H21" s="70">
+        <f t="shared" si="2"/>
+        <v>-0.80728667305848523</v>
+      </c>
+      <c r="I21" s="70"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="70">
+        <v>-104.3</v>
+      </c>
+      <c r="C22" s="70">
+        <v>261.89999999999998</v>
+      </c>
+      <c r="D22" s="70">
+        <v>140.5</v>
+      </c>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70">
+        <f t="shared" si="0"/>
+        <v>-0.39824360442917145</v>
+      </c>
+      <c r="G22" s="70">
+        <f t="shared" si="1"/>
+        <v>0.53646429935089734</v>
+      </c>
+      <c r="H22" s="70">
+        <f t="shared" si="2"/>
+        <v>-1.3470757430488975</v>
+      </c>
+      <c r="I22" s="70"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="93">
+        <v>-104.3</v>
+      </c>
+      <c r="C23" s="93">
+        <v>261.2</v>
+      </c>
+      <c r="D23" s="93">
+        <v>135.5</v>
+      </c>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.39931087289433387</v>
+      </c>
+      <c r="G23" s="93">
+        <f t="shared" si="1"/>
+        <v>0.51875957120980098</v>
+      </c>
+      <c r="H23" s="93">
+        <f t="shared" si="2"/>
+        <v>-1.2991371045062321</v>
+      </c>
+      <c r="I23" s="70"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="70">
+        <v>-104.3</v>
+      </c>
+      <c r="C24" s="70">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="D24" s="70">
+        <v>130.1</v>
+      </c>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70">
+        <f t="shared" si="0"/>
+        <v>-0.40363777089783281</v>
+      </c>
+      <c r="G24" s="70">
+        <f t="shared" si="1"/>
+        <v>0.50348297213622295</v>
+      </c>
+      <c r="H24" s="70">
+        <f t="shared" si="2"/>
+        <v>-1.2473633748801534</v>
+      </c>
+      <c r="I24" s="70"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="70">
+        <v>-104.3</v>
+      </c>
+      <c r="C25" s="70">
+        <v>257.5</v>
+      </c>
+      <c r="D25" s="70">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>-0.40504854368932036</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.51572815533980587</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>-1.2732502396931928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="70">
+        <v>-104.3</v>
+      </c>
+      <c r="C26" s="70">
+        <v>259.5</v>
+      </c>
+      <c r="D26" s="70">
+        <v>135.1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>-0.40192678227360307</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0.52061657032755293</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>-1.2953020134228188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-364.1</v>
+      </c>
+      <c r="C29">
+        <v>363.9</v>
+      </c>
+      <c r="D29">
+        <v>225.8</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>-1.0005496015388844</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0.62050013740038479</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>-0.62015929689645699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="70">
+        <v>-362.4</v>
+      </c>
+      <c r="C30" s="70">
+        <v>284.39999999999998</v>
+      </c>
+      <c r="D30" s="70">
+        <v>171.5</v>
+      </c>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70">
+        <f t="shared" si="0"/>
+        <v>-1.2742616033755274</v>
+      </c>
+      <c r="G30" s="70">
+        <f t="shared" si="1"/>
+        <v>0.60302390998593536</v>
+      </c>
+      <c r="H30" s="70">
+        <f t="shared" si="2"/>
+        <v>-0.47323399558498896</v>
+      </c>
+      <c r="I30" s="70"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="70">
+        <v>-364.1</v>
+      </c>
+      <c r="C31" s="70">
+        <v>366.5</v>
+      </c>
+      <c r="D31" s="70">
+        <v>232.3</v>
+      </c>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70">
+        <f t="shared" si="0"/>
+        <v>-0.99345156889495234</v>
+      </c>
+      <c r="G31" s="70">
+        <f t="shared" si="1"/>
+        <v>0.63383356070941343</v>
+      </c>
+      <c r="H31" s="70">
+        <f t="shared" si="2"/>
+        <v>-0.6380115352925021</v>
+      </c>
+      <c r="I31" s="70"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="93">
+        <v>-365.8</v>
+      </c>
+      <c r="C32" s="93">
+        <v>362.5</v>
+      </c>
+      <c r="D32" s="93">
+        <v>228.9</v>
+      </c>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93">
+        <f t="shared" si="0"/>
+        <v>-1.0091034482758621</v>
+      </c>
+      <c r="G32" s="93">
+        <f t="shared" si="1"/>
+        <v>0.63144827586206898</v>
+      </c>
+      <c r="H32" s="93">
+        <f t="shared" si="2"/>
+        <v>-0.62575177692728268</v>
+      </c>
+      <c r="I32" s="70"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="70">
+        <v>-364.4</v>
+      </c>
+      <c r="C33" s="70">
+        <v>359.6</v>
+      </c>
+      <c r="D33" s="70">
+        <v>221.7</v>
+      </c>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70">
+        <f t="shared" si="0"/>
+        <v>-1.0133481646273637</v>
+      </c>
+      <c r="G33" s="70">
+        <f t="shared" si="1"/>
+        <v>0.61651835372636254</v>
+      </c>
+      <c r="H33" s="70">
+        <f t="shared" si="2"/>
+        <v>-0.608397365532382</v>
+      </c>
+      <c r="I33" s="70"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="70">
+        <v>-362.4</v>
+      </c>
+      <c r="C34" s="70">
+        <v>362.1</v>
+      </c>
+      <c r="D34" s="70">
+        <v>225.4</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>-1.0008285004142501</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.62247997790665555</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>-0.62196467991169979</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="70">
+        <v>-362.4</v>
+      </c>
+      <c r="C35" s="70">
+        <v>364.1</v>
+      </c>
+      <c r="D35" s="70">
+        <v>227.1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>-0.99533095303488039</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.62372974457566599</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>-0.62665562913907291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="172" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>558.9</v>
+      </c>
+      <c r="C39">
+        <v>410.6</v>
+      </c>
+      <c r="D39">
+        <v>335</v>
+      </c>
+      <c r="F39">
+        <f>B39/C39</f>
+        <v>1.3611787627861665</v>
+      </c>
+      <c r="G39">
+        <f>D39/C39</f>
+        <v>0.81587920116902091</v>
+      </c>
+      <c r="H39">
+        <f>D39/B39</f>
+        <v>0.59939166219359463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40">
+        <v>298.5</v>
+      </c>
+      <c r="F40" t="e">
+        <f t="shared" ref="F40:F45" si="3">B40/C40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" t="e">
+        <f t="shared" ref="G40:G45" si="4">D40/C40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" t="e">
+        <f t="shared" ref="H40:H45" si="5">D40/B40</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41">
+        <v>330.5</v>
+      </c>
+      <c r="F41" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>558.9</v>
+      </c>
+      <c r="C42">
+        <v>412.6</v>
+      </c>
+      <c r="D42">
+        <v>335.6</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>1.3545807077072223</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>0.81337857489093557</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>0.600465199499016</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>558.9</v>
+      </c>
+      <c r="C43">
+        <v>416</v>
+      </c>
+      <c r="D43">
+        <v>337.9</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>1.3435096153846153</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>0.81225961538461533</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>0.60458042583646443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>558.9</v>
+      </c>
+      <c r="C44">
+        <v>410.6</v>
+      </c>
+      <c r="D44">
+        <v>337</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>1.3611787627861665</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>0.8207501217730151</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>0.60297011987833249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A45" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>558.9</v>
+      </c>
+      <c r="C45">
+        <v>406.6</v>
+      </c>
+      <c r="D45">
+        <v>335.4</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>1.3745696015740283</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>0.82488932611903576</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>0.60010735373054214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" s="174"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A48" s="86"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A49" s="86"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" s="86"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A51" s="86"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" s="86"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A53" s="86"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A54" s="86"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0308DFE-50DB-2749-87B1-CD1522606ED8}">
   <dimension ref="A1:R140"/>
   <sheetViews>
@@ -5879,38 +7098,38 @@
       <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="B1" s="163" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B1" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="163" t="s">
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="127" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="128"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="128" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="129"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
@@ -5960,9 +7179,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="7"/>
@@ -5981,16 +7200,16 @@
       <c r="P3" s="70"/>
       <c r="Q3" s="36"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
       <c r="E4" s="43"/>
       <c r="F4" s="59" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -5999,16 +7218,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J4" s="7">
         <v>50</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M4" s="36">
         <v>-0.37</v>
@@ -6018,7 +7237,7 @@
       <c r="P4" s="41"/>
       <c r="Q4" s="42"/>
     </row>
-    <row r="5" spans="1:17" ht="17" thickBot="1">
+    <row r="5" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="71"/>
       <c r="C5" s="11"/>
@@ -6037,15 +7256,15 @@
       <c r="L5" s="11">
         <v>0</v>
       </c>
-      <c r="M5" s="118">
+      <c r="M5" s="119">
         <v>-0.37</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="118"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5" s="119"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -6057,7 +7276,7 @@
       <c r="M6" s="15"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:17" ht="17" thickBot="1">
+    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -6069,34 +7288,34 @@
       <c r="I7" s="6"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="165" t="s">
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="133" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="133" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="133"/>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="134"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="134" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="135"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -6147,9 +7366,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="59"/>
       <c r="C10" s="7"/>
@@ -6162,13 +7381,13 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="117"/>
+      <c r="M10" s="118"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="36"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>28</v>
       </c>
@@ -6177,7 +7396,7 @@
       <c r="D11" s="41"/>
       <c r="E11" s="43"/>
       <c r="F11" s="59" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -6186,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J11" s="7">
         <v>50</v>
@@ -6195,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M11" s="36">
         <v>0.39</v>
@@ -6205,7 +7424,7 @@
       <c r="P11" s="41"/>
       <c r="Q11" s="42"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -6222,7 +7441,7 @@
         <v>90</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M12" s="36">
         <v>0.39</v>
@@ -6232,7 +7451,7 @@
       <c r="P12" s="41"/>
       <c r="Q12" s="42"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -6259,7 +7478,7 @@
       <c r="P13" s="41"/>
       <c r="Q13" s="42"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>26</v>
       </c>
@@ -6296,26 +7515,26 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="17" thickBot="1">
+    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="112"/>
-    </row>
-    <row r="16" spans="1:17" ht="17" thickBot="1">
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="113"/>
+    </row>
+    <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6330,34 +7549,34 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
-      <c r="B17" s="159" t="s">
+      <c r="B17" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="159" t="s">
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="135" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="135"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="136"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="136" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="136" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="137"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
@@ -6408,9 +7627,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B19" s="59"/>
       <c r="C19" s="7"/>
@@ -6429,7 +7648,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="36"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>18</v>
       </c>
@@ -6466,7 +7685,7 @@
       <c r="P20" s="41"/>
       <c r="Q20" s="42"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>28</v>
       </c>
@@ -6475,7 +7694,7 @@
       <c r="D21" s="41"/>
       <c r="E21" s="42"/>
       <c r="F21" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -6484,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
@@ -6495,7 +7714,7 @@
       <c r="P21" s="41"/>
       <c r="Q21" s="42"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>31</v>
       </c>
@@ -6532,7 +7751,7 @@
       <c r="P22" s="41"/>
       <c r="Q22" s="42"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="41">
         <v>160</v>
@@ -6559,7 +7778,7 @@
       <c r="P23" s="41"/>
       <c r="Q23" s="42"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>26</v>
       </c>
@@ -6588,59 +7807,59 @@
       <c r="P24" s="41"/>
       <c r="Q24" s="42"/>
     </row>
-    <row r="25" spans="1:17" ht="17" thickBot="1">
+    <row r="25" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="114"/>
-    </row>
-    <row r="26" spans="1:17" ht="17" thickBot="1">
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="114"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="115"/>
+    </row>
+    <row r="26" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="E26" s="5"/>
       <c r="I26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
-      <c r="B27" s="161" t="s">
+      <c r="B27" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="161" t="s">
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="137" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="137"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="137" t="s">
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="O27" s="137"/>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="138"/>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="138" t="s">
+        <v>53</v>
+      </c>
+      <c r="O27" s="138"/>
+      <c r="P27" s="138"/>
+      <c r="Q27" s="139"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="25"/>
       <c r="B28" s="4" t="s">
         <v>19</v>
@@ -6691,7 +7910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
         <v>29</v>
       </c>
@@ -6706,13 +7925,13 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="117"/>
+      <c r="M29" s="118"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="36"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
         <v>18</v>
       </c>
@@ -6733,7 +7952,7 @@
       <c r="P30" s="41"/>
       <c r="Q30" s="42"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
         <v>28</v>
       </c>
@@ -6742,7 +7961,7 @@
       <c r="D31" s="41"/>
       <c r="E31" s="42"/>
       <c r="F31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -6751,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J31" s="41"/>
       <c r="K31" s="41"/>
@@ -6762,7 +7981,7 @@
       <c r="P31" s="41"/>
       <c r="Q31" s="42"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>13</v>
       </c>
@@ -6783,7 +8002,7 @@
       <c r="P32" s="41"/>
       <c r="Q32" s="42"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
         <v>27</v>
       </c>
@@ -6813,7 +8032,7 @@
         <v>90</v>
       </c>
       <c r="M33" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N33" s="7">
         <v>2</v>
@@ -6822,13 +8041,13 @@
         <v>20</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="36">
         <v>-0.98</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>31</v>
       </c>
@@ -6865,7 +8084,7 @@
       <c r="P34" s="41"/>
       <c r="Q34" s="42"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="25"/>
       <c r="B35" s="41">
         <v>160</v>
@@ -6892,30 +8111,30 @@
       <c r="P35" s="41"/>
       <c r="Q35" s="42"/>
     </row>
-    <row r="36" spans="1:17" ht="17" thickBot="1">
+    <row r="36" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="95">
+      <c r="B36" s="96">
         <v>50</v>
       </c>
-      <c r="C36" s="95">
+      <c r="C36" s="96">
         <v>45</v>
       </c>
-      <c r="D36" s="95">
+      <c r="D36" s="96">
         <v>0</v>
       </c>
-      <c r="E36" s="96">
+      <c r="E36" s="97">
         <v>-0.72</v>
       </c>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="97"/>
       <c r="N36" s="68">
         <v>90</v>
       </c>
@@ -6929,46 +8148,46 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="E37" s="14"/>
       <c r="I37" s="14"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:17" ht="17" thickBot="1">
+    <row r="38" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="E38" s="14"/>
       <c r="I38" s="14"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
-      <c r="B39" s="151" t="s">
+      <c r="B39" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="139"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="151" t="s">
+      <c r="C39" s="140"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="139" t="s">
+      <c r="G39" s="140"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="139"/>
-      <c r="L39" s="139"/>
-      <c r="M39" s="140"/>
-      <c r="N39" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="O39" s="139"/>
-      <c r="P39" s="139"/>
-      <c r="Q39" s="140"/>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="K39" s="140"/>
+      <c r="L39" s="140"/>
+      <c r="M39" s="141"/>
+      <c r="N39" s="140" t="s">
+        <v>53</v>
+      </c>
+      <c r="O39" s="140"/>
+      <c r="P39" s="140"/>
+      <c r="Q39" s="141"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="29"/>
       <c r="B40" s="4" t="s">
         <v>19</v>
@@ -7019,7 +8238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
         <v>30</v>
       </c>
@@ -7034,13 +8253,13 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="117"/>
+      <c r="M41" s="118"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="36"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="29" t="s">
         <v>18</v>
       </c>
@@ -7057,7 +8276,7 @@
         <v>-0.75</v>
       </c>
       <c r="F42" s="41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G42" s="41">
         <v>20</v>
@@ -7066,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J42" s="7">
         <v>50</v>
@@ -7085,12 +8304,12 @@
       <c r="P42" s="41"/>
       <c r="Q42" s="42"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C43" s="7">
         <v>60</v>
@@ -7105,10 +8324,10 @@
         <v>110</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I43" s="36">
         <v>1.92</v>
@@ -7123,30 +8342,30 @@
         <v>-90</v>
       </c>
       <c r="M43" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N43" s="41"/>
       <c r="O43" s="41"/>
       <c r="P43" s="41"/>
       <c r="Q43" s="42"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="29"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
       <c r="D44" s="41"/>
       <c r="E44" s="42"/>
       <c r="F44" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J44" s="7">
         <v>50</v>
@@ -7158,14 +8377,14 @@
         <v>90</v>
       </c>
       <c r="M44" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N44" s="41"/>
       <c r="O44" s="41"/>
       <c r="P44" s="41"/>
       <c r="Q44" s="42"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="29"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
@@ -7185,14 +8404,14 @@
         <v>0</v>
       </c>
       <c r="M45" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N45" s="41"/>
       <c r="O45" s="41"/>
       <c r="P45" s="41"/>
       <c r="Q45" s="42"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="29"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -7219,7 +8438,7 @@
       <c r="P46" s="41"/>
       <c r="Q46" s="42"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="29" t="s">
         <v>28</v>
       </c>
@@ -7232,7 +8451,7 @@
       <c r="H47" s="41"/>
       <c r="I47" s="42"/>
       <c r="J47" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K47" s="7">
         <v>60</v>
@@ -7241,25 +8460,25 @@
         <v>90</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N47" s="41"/>
       <c r="O47" s="41"/>
       <c r="P47" s="41"/>
       <c r="Q47" s="42"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C48" s="87">
         <v>45</v>
       </c>
       <c r="D48" s="87" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E48" s="88">
         <v>-0.65</v>
@@ -7268,10 +8487,10 @@
         <v>114</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I48" s="36">
         <v>0.99</v>
@@ -7283,9 +8502,9 @@
         <v>0</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M48" s="117">
+        <v>55</v>
+      </c>
+      <c r="M48" s="118">
         <v>0.4</v>
       </c>
       <c r="N48" s="7">
@@ -7295,16 +8514,16 @@
         <v>80</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q48" s="36">
         <v>-1.02</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="29"/>
       <c r="B49" s="89" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C49" s="87">
         <v>20</v>
@@ -7319,10 +8538,10 @@
         <v>113</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I49" s="36">
         <v>1.02</v>
@@ -7334,9 +8553,9 @@
         <v>90</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M49" s="117">
+        <v>55</v>
+      </c>
+      <c r="M49" s="118">
         <v>0.4</v>
       </c>
       <c r="N49" s="41"/>
@@ -7344,7 +8563,7 @@
       <c r="P49" s="41"/>
       <c r="Q49" s="42"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="29"/>
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
@@ -7354,10 +8573,10 @@
         <v>112</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I50" s="36">
         <v>1.06</v>
@@ -7371,7 +8590,7 @@
       <c r="L50" s="7">
         <v>0</v>
       </c>
-      <c r="M50" s="117">
+      <c r="M50" s="118">
         <v>0.4</v>
       </c>
       <c r="N50" s="41"/>
@@ -7379,7 +8598,7 @@
       <c r="P50" s="41"/>
       <c r="Q50" s="42"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="29" t="s">
         <v>27</v>
       </c>
@@ -7409,7 +8628,7 @@
         <v>90</v>
       </c>
       <c r="M51" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N51" s="7">
         <v>3</v>
@@ -7418,13 +8637,13 @@
         <v>20</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q51" s="36">
         <v>-0.94</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="29" t="s">
         <v>31</v>
       </c>
@@ -7461,7 +8680,7 @@
       <c r="P52" s="41"/>
       <c r="Q52" s="42"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="29"/>
       <c r="B53" s="41">
         <v>160</v>
@@ -7488,75 +8707,75 @@
       <c r="P53" s="41"/>
       <c r="Q53" s="42"/>
     </row>
-    <row r="54" spans="1:18" ht="17" thickBot="1">
+    <row r="54" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="97">
+      <c r="B54" s="98">
         <v>50</v>
       </c>
-      <c r="C54" s="97">
+      <c r="C54" s="98">
         <v>45</v>
       </c>
-      <c r="D54" s="97">
+      <c r="D54" s="98">
         <v>0</v>
       </c>
-      <c r="E54" s="98">
+      <c r="E54" s="99">
         <v>-0.72</v>
       </c>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="98"/>
-      <c r="J54" s="97"/>
-      <c r="K54" s="97"/>
-      <c r="L54" s="97"/>
-      <c r="M54" s="98"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="97"/>
-      <c r="P54" s="97"/>
-      <c r="Q54" s="98"/>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="F54" s="98"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="98"/>
+      <c r="M54" s="99"/>
+      <c r="N54" s="98"/>
+      <c r="O54" s="98"/>
+      <c r="P54" s="98"/>
+      <c r="Q54" s="99"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="13"/>
       <c r="E55" s="14"/>
       <c r="I55" s="14"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:18" ht="17" thickBot="1">
+    <row r="56" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="E56" s="14"/>
       <c r="I56" s="14"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="32"/>
-      <c r="B57" s="155" t="s">
+      <c r="B57" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="156"/>
-      <c r="F57" s="155" t="s">
+      <c r="C57" s="142"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="157"/>
+      <c r="F57" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="141"/>
-      <c r="H57" s="141"/>
-      <c r="I57" s="156"/>
-      <c r="J57" s="141" t="s">
+      <c r="G57" s="142"/>
+      <c r="H57" s="142"/>
+      <c r="I57" s="157"/>
+      <c r="J57" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="K57" s="141"/>
-      <c r="L57" s="141"/>
-      <c r="M57" s="142"/>
-      <c r="N57" s="141" t="s">
-        <v>56</v>
-      </c>
-      <c r="O57" s="141"/>
-      <c r="P57" s="141"/>
-      <c r="Q57" s="142"/>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="K57" s="142"/>
+      <c r="L57" s="142"/>
+      <c r="M57" s="143"/>
+      <c r="N57" s="142" t="s">
+        <v>53</v>
+      </c>
+      <c r="O57" s="142"/>
+      <c r="P57" s="142"/>
+      <c r="Q57" s="143"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="4" t="s">
         <v>19</v>
@@ -7607,10 +8826,10 @@
         <v>22</v>
       </c>
       <c r="R58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="35" t="s">
         <v>32</v>
       </c>
@@ -7625,13 +8844,13 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
-      <c r="M59" s="117"/>
+      <c r="M59" s="118"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="36"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="33" t="s">
         <v>18</v>
       </c>
@@ -7657,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J60" s="7">
         <v>50</v>
@@ -7676,12 +8895,12 @@
       <c r="P60" s="41"/>
       <c r="Q60" s="42"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="7">
         <v>60</v>
@@ -7696,10 +8915,10 @@
         <v>110</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I61" s="36">
         <v>1.92</v>
@@ -7714,30 +8933,30 @@
         <v>-90</v>
       </c>
       <c r="M61" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N61" s="41"/>
       <c r="O61" s="41"/>
       <c r="P61" s="41"/>
       <c r="Q61" s="42"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="33"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
       <c r="D62" s="41"/>
       <c r="E62" s="42"/>
       <c r="F62" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I62" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J62" s="7">
         <v>50</v>
@@ -7749,14 +8968,14 @@
         <v>90</v>
       </c>
       <c r="M62" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N62" s="41"/>
       <c r="O62" s="41"/>
       <c r="P62" s="41"/>
       <c r="Q62" s="42"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
@@ -7776,14 +8995,14 @@
         <v>0</v>
       </c>
       <c r="M63" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N63" s="41"/>
       <c r="O63" s="41"/>
       <c r="P63" s="41"/>
       <c r="Q63" s="42"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="33"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -7810,7 +9029,7 @@
       <c r="P64" s="41"/>
       <c r="Q64" s="42"/>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="33" t="s">
         <v>28</v>
       </c>
@@ -7832,14 +9051,14 @@
         <v>90</v>
       </c>
       <c r="M65" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N65" s="41"/>
       <c r="O65" s="41"/>
       <c r="P65" s="41"/>
       <c r="Q65" s="42"/>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="33" t="s">
         <v>13</v>
       </c>
@@ -7850,7 +9069,7 @@
         <v>45</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E66" s="36">
         <v>-0.65</v>
@@ -7874,28 +9093,28 @@
         <v>0</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M66" s="7">
         <v>0.38</v>
       </c>
-      <c r="N66" s="120">
+      <c r="N66" s="121">
         <v>90</v>
       </c>
       <c r="O66" s="7">
         <v>80</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q66" s="36">
         <v>-0.98</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="86" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C67" s="7">
         <v>20</v>
@@ -7925,7 +9144,7 @@
         <v>90</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M67" s="36">
         <v>0.38</v>
@@ -7943,7 +9162,7 @@
         <v>-1.03</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -7978,7 +9197,7 @@
       <c r="P68" s="41"/>
       <c r="Q68" s="42"/>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -8005,7 +9224,7 @@
       <c r="P69" s="41"/>
       <c r="Q69" s="42"/>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="33" t="s">
         <v>27</v>
       </c>
@@ -8035,7 +9254,7 @@
         <v>90</v>
       </c>
       <c r="M70" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N70" s="7">
         <v>3</v>
@@ -8044,13 +9263,13 @@
         <v>20</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q70" s="36">
         <v>-0.94</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="33" t="s">
         <v>31</v>
       </c>
@@ -8087,7 +9306,7 @@
       <c r="P71" s="41"/>
       <c r="Q71" s="42"/>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="41">
         <v>160</v>
@@ -8114,30 +9333,30 @@
       <c r="P72" s="41"/>
       <c r="Q72" s="42"/>
     </row>
-    <row r="73" spans="1:18" ht="17" thickBot="1">
+    <row r="73" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B73" s="99">
+      <c r="B73" s="100">
         <v>50</v>
       </c>
-      <c r="C73" s="99">
+      <c r="C73" s="100">
         <v>45</v>
       </c>
-      <c r="D73" s="99">
+      <c r="D73" s="100">
         <v>0</v>
       </c>
-      <c r="E73" s="100">
+      <c r="E73" s="101">
         <v>-0.72</v>
       </c>
-      <c r="F73" s="99"/>
-      <c r="G73" s="99"/>
-      <c r="H73" s="99"/>
-      <c r="I73" s="100"/>
-      <c r="J73" s="99"/>
-      <c r="K73" s="99"/>
-      <c r="L73" s="99"/>
-      <c r="M73" s="123"/>
+      <c r="F73" s="100"/>
+      <c r="G73" s="100"/>
+      <c r="H73" s="100"/>
+      <c r="I73" s="101"/>
+      <c r="J73" s="100"/>
+      <c r="K73" s="100"/>
+      <c r="L73" s="100"/>
+      <c r="M73" s="124"/>
       <c r="N73" s="66">
         <v>90</v>
       </c>
@@ -8151,49 +9370,49 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="13"/>
       <c r="E74" s="14"/>
       <c r="I74" s="14"/>
       <c r="M74" s="14"/>
     </row>
-    <row r="75" spans="1:18" ht="17" thickBot="1">
+    <row r="75" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="E75" s="14"/>
       <c r="I75" s="14"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="37"/>
-      <c r="B76" s="157" t="s">
+      <c r="B76" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="C76" s="143"/>
-      <c r="D76" s="143"/>
-      <c r="E76" s="158"/>
-      <c r="F76" s="157" t="s">
+      <c r="C76" s="144"/>
+      <c r="D76" s="144"/>
+      <c r="E76" s="159"/>
+      <c r="F76" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="G76" s="143"/>
-      <c r="H76" s="143"/>
-      <c r="I76" s="158"/>
-      <c r="J76" s="143" t="s">
+      <c r="G76" s="144"/>
+      <c r="H76" s="144"/>
+      <c r="I76" s="159"/>
+      <c r="J76" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="K76" s="143"/>
-      <c r="L76" s="143"/>
-      <c r="M76" s="144"/>
-      <c r="N76" s="143" t="s">
-        <v>56</v>
-      </c>
-      <c r="O76" s="143"/>
-      <c r="P76" s="143"/>
-      <c r="Q76" s="144"/>
+      <c r="K76" s="144"/>
+      <c r="L76" s="144"/>
+      <c r="M76" s="145"/>
+      <c r="N76" s="144" t="s">
+        <v>53</v>
+      </c>
+      <c r="O76" s="144"/>
+      <c r="P76" s="144"/>
+      <c r="Q76" s="145"/>
       <c r="R76" s="87" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="38"/>
       <c r="B77" s="4" t="s">
         <v>19</v>
@@ -8244,7 +9463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="s">
         <v>33</v>
       </c>
@@ -8259,13 +9478,13 @@
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="117"/>
+      <c r="M78" s="118"/>
       <c r="N78" s="7"/>
       <c r="O78" s="7"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="36"/>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="38" t="s">
         <v>18</v>
       </c>
@@ -8302,12 +9521,12 @@
       <c r="P79" s="41"/>
       <c r="Q79" s="42"/>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C80" s="7">
         <v>60</v>
@@ -8322,10 +9541,10 @@
         <v>110</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I80" s="36">
         <v>1.92</v>
@@ -8340,30 +9559,30 @@
         <v>-90</v>
       </c>
       <c r="M80" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N80" s="41"/>
       <c r="O80" s="41"/>
       <c r="P80" s="41"/>
       <c r="Q80" s="42"/>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="38"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41"/>
       <c r="D81" s="41"/>
       <c r="E81" s="42"/>
       <c r="F81" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I81" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J81" s="7">
         <v>50</v>
@@ -8375,14 +9594,14 @@
         <v>90</v>
       </c>
       <c r="M81" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N81" s="41"/>
       <c r="O81" s="41"/>
       <c r="P81" s="41"/>
       <c r="Q81" s="42"/>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="38"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -8402,14 +9621,14 @@
         <v>0</v>
       </c>
       <c r="M82" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N82" s="41"/>
       <c r="O82" s="41"/>
       <c r="P82" s="41"/>
       <c r="Q82" s="42"/>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="38"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -8436,7 +9655,7 @@
       <c r="P83" s="41"/>
       <c r="Q83" s="42"/>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="38" t="s">
         <v>28</v>
       </c>
@@ -8462,10 +9681,10 @@
         <v>90</v>
       </c>
       <c r="Q84" s="36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="38" t="s">
         <v>13</v>
       </c>
@@ -8476,7 +9695,7 @@
         <v>45</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E85" s="36">
         <v>-0.65</v>
@@ -8488,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I85" s="36">
         <v>1.04</v>
@@ -8500,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M85" s="36">
         <v>0.39</v>
@@ -8518,10 +9737,10 @@
         <v>-1.03</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="38"/>
       <c r="B86" s="86" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C86" s="7">
         <v>20</v>
@@ -8539,7 +9758,7 @@
         <v>90</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I86" s="36">
         <v>1.04</v>
@@ -8551,7 +9770,7 @@
         <v>90</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M86" s="36">
         <v>0.39</v>
@@ -8563,13 +9782,13 @@
         <v>80</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q86" s="36">
         <v>0.97</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="38"/>
       <c r="B87" s="41">
         <v>160</v>
@@ -8604,7 +9823,7 @@
       <c r="P87" s="41"/>
       <c r="Q87" s="42"/>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="38" t="s">
         <v>27</v>
       </c>
@@ -8634,7 +9853,7 @@
         <v>90</v>
       </c>
       <c r="M88" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N88" s="90">
         <v>2</v>
@@ -8643,13 +9862,13 @@
         <v>20</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q88" s="36">
         <v>-0.98</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="38" t="s">
         <v>31</v>
       </c>
@@ -8686,7 +9905,7 @@
       <c r="P89" s="41"/>
       <c r="Q89" s="42"/>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="38"/>
       <c r="B90" s="41">
         <v>160</v>
@@ -8713,30 +9932,30 @@
       <c r="P90" s="41"/>
       <c r="Q90" s="42"/>
     </row>
-    <row r="91" spans="1:18" ht="17" thickBot="1">
+    <row r="91" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B91" s="101">
+      <c r="B91" s="102">
         <v>50</v>
       </c>
-      <c r="C91" s="101">
+      <c r="C91" s="102">
         <v>45</v>
       </c>
-      <c r="D91" s="101">
+      <c r="D91" s="102">
         <v>0</v>
       </c>
-      <c r="E91" s="102">
+      <c r="E91" s="103">
         <v>-0.72</v>
       </c>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
-      <c r="H91" s="101"/>
-      <c r="I91" s="102"/>
-      <c r="J91" s="101"/>
-      <c r="K91" s="101"/>
-      <c r="L91" s="101"/>
-      <c r="M91" s="102"/>
+      <c r="F91" s="102"/>
+      <c r="G91" s="102"/>
+      <c r="H91" s="102"/>
+      <c r="I91" s="103"/>
+      <c r="J91" s="102"/>
+      <c r="K91" s="102"/>
+      <c r="L91" s="102"/>
+      <c r="M91" s="103"/>
       <c r="N91" s="64">
         <v>90</v>
       </c>
@@ -8750,7 +9969,7 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="14"/>
       <c r="B92" s="41">
         <v>160</v>
@@ -8777,46 +9996,46 @@
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="13"/>
       <c r="E93" s="14"/>
       <c r="I93" s="14"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="1:18" ht="17" thickBot="1">
+    <row r="94" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="E94" s="14"/>
       <c r="I94" s="14"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="51"/>
-      <c r="B95" s="149" t="s">
+      <c r="B95" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="145"/>
-      <c r="D95" s="145"/>
-      <c r="E95" s="150"/>
-      <c r="F95" s="149" t="s">
+      <c r="C95" s="146"/>
+      <c r="D95" s="146"/>
+      <c r="E95" s="151"/>
+      <c r="F95" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="G95" s="145"/>
-      <c r="H95" s="145"/>
-      <c r="I95" s="150"/>
-      <c r="J95" s="145" t="s">
+      <c r="G95" s="146"/>
+      <c r="H95" s="146"/>
+      <c r="I95" s="151"/>
+      <c r="J95" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="K95" s="145"/>
-      <c r="L95" s="145"/>
-      <c r="M95" s="146"/>
-      <c r="N95" s="145" t="s">
-        <v>56</v>
-      </c>
-      <c r="O95" s="145"/>
-      <c r="P95" s="145"/>
-      <c r="Q95" s="146"/>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="K95" s="146"/>
+      <c r="L95" s="146"/>
+      <c r="M95" s="147"/>
+      <c r="N95" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="O95" s="146"/>
+      <c r="P95" s="146"/>
+      <c r="Q95" s="147"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="52"/>
       <c r="B96" s="4" t="s">
         <v>19</v>
@@ -8867,10 +10086,10 @@
         <v>22</v>
       </c>
       <c r="R96" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="54" t="s">
         <v>34</v>
       </c>
@@ -8885,13 +10104,13 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
-      <c r="M97" s="117"/>
+      <c r="M97" s="118"/>
       <c r="N97" s="7"/>
       <c r="O97" s="7"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="36"/>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="52" t="s">
         <v>18</v>
       </c>
@@ -8928,12 +10147,12 @@
       <c r="P98" s="41"/>
       <c r="Q98" s="42"/>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="52" t="s">
         <v>9</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C99" s="7">
         <v>60</v>
@@ -8948,10 +10167,10 @@
         <v>110</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I99" s="36">
         <v>1.92</v>
@@ -8966,30 +10185,30 @@
         <v>-90</v>
       </c>
       <c r="M99" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N99" s="41"/>
       <c r="O99" s="41"/>
       <c r="P99" s="41"/>
       <c r="Q99" s="42"/>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="52"/>
       <c r="B100" s="41"/>
       <c r="C100" s="41"/>
       <c r="D100" s="41"/>
       <c r="E100" s="42"/>
       <c r="F100" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I100" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J100" s="7">
         <v>50</v>
@@ -9001,14 +10220,14 @@
         <v>90</v>
       </c>
       <c r="M100" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N100" s="41"/>
       <c r="O100" s="41"/>
       <c r="P100" s="41"/>
       <c r="Q100" s="42"/>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="52"/>
       <c r="B101" s="41"/>
       <c r="C101" s="41"/>
@@ -9028,14 +10247,14 @@
         <v>0</v>
       </c>
       <c r="M101" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N101" s="41"/>
       <c r="O101" s="41"/>
       <c r="P101" s="41"/>
       <c r="Q101" s="42"/>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="52"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
@@ -9062,7 +10281,7 @@
       <c r="P102" s="41"/>
       <c r="Q102" s="42"/>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="52" t="s">
         <v>28</v>
       </c>
@@ -9091,7 +10310,7 @@
         <v>-1.02</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="52" t="s">
         <v>13</v>
       </c>
@@ -9120,7 +10339,7 @@
         <v>-1.03</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="52" t="s">
         <v>27</v>
       </c>
@@ -9150,7 +10369,7 @@
         <v>90</v>
       </c>
       <c r="M105" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N105" s="7">
         <v>2</v>
@@ -9159,13 +10378,13 @@
         <v>20</v>
       </c>
       <c r="P105" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q105" s="36">
         <v>-0.98</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="52" t="s">
         <v>31</v>
       </c>
@@ -9202,7 +10421,7 @@
       <c r="P106" s="41"/>
       <c r="Q106" s="42"/>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="52"/>
       <c r="B107" s="41">
         <v>160</v>
@@ -9229,26 +10448,26 @@
       <c r="P107" s="41"/>
       <c r="Q107" s="42"/>
     </row>
-    <row r="108" spans="1:17" ht="17" thickBot="1">
+    <row r="108" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B108" s="103">
+      <c r="B108" s="104">
         <v>50</v>
       </c>
-      <c r="C108" s="103">
+      <c r="C108" s="104">
         <v>45</v>
       </c>
-      <c r="D108" s="103">
+      <c r="D108" s="104">
         <v>0</v>
       </c>
-      <c r="E108" s="104">
+      <c r="E108" s="105">
         <v>-0.72</v>
       </c>
-      <c r="F108" s="103"/>
-      <c r="G108" s="103"/>
-      <c r="H108" s="103"/>
-      <c r="I108" s="104"/>
+      <c r="F108" s="104"/>
+      <c r="G108" s="104"/>
+      <c r="H108" s="104"/>
+      <c r="I108" s="105"/>
       <c r="J108" s="62">
         <v>50</v>
       </c>
@@ -9261,51 +10480,51 @@
       <c r="M108" s="63">
         <v>-0.43</v>
       </c>
-      <c r="N108" s="103"/>
-      <c r="O108" s="103"/>
-      <c r="P108" s="103"/>
-      <c r="Q108" s="104"/>
-    </row>
-    <row r="109" spans="1:17">
+      <c r="N108" s="104"/>
+      <c r="O108" s="104"/>
+      <c r="P108" s="104"/>
+      <c r="Q108" s="105"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="13"/>
       <c r="E109" s="14"/>
       <c r="I109" s="14"/>
       <c r="M109" s="14"/>
     </row>
-    <row r="110" spans="1:17" ht="17" thickBot="1">
+    <row r="110" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="E110" s="14"/>
       <c r="I110" s="14"/>
       <c r="M110" s="14"/>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="73"/>
-      <c r="B111" s="153" t="s">
+      <c r="B111" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="C111" s="147"/>
-      <c r="D111" s="147"/>
-      <c r="E111" s="154"/>
-      <c r="F111" s="153" t="s">
+      <c r="C111" s="148"/>
+      <c r="D111" s="148"/>
+      <c r="E111" s="155"/>
+      <c r="F111" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="G111" s="147"/>
-      <c r="H111" s="147"/>
-      <c r="I111" s="154"/>
-      <c r="J111" s="147" t="s">
+      <c r="G111" s="148"/>
+      <c r="H111" s="148"/>
+      <c r="I111" s="155"/>
+      <c r="J111" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="K111" s="147"/>
-      <c r="L111" s="147"/>
-      <c r="M111" s="148"/>
-      <c r="N111" s="147" t="s">
-        <v>56</v>
-      </c>
-      <c r="O111" s="147"/>
-      <c r="P111" s="147"/>
-      <c r="Q111" s="148"/>
-    </row>
-    <row r="112" spans="1:17">
+      <c r="K111" s="148"/>
+      <c r="L111" s="148"/>
+      <c r="M111" s="149"/>
+      <c r="N111" s="148" t="s">
+        <v>53</v>
+      </c>
+      <c r="O111" s="148"/>
+      <c r="P111" s="148"/>
+      <c r="Q111" s="149"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="74"/>
       <c r="B112" s="4" t="s">
         <v>19</v>
@@ -9356,7 +10575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="76" t="s">
         <v>35</v>
       </c>
@@ -9377,7 +10596,7 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="36"/>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="74" t="s">
         <v>18</v>
       </c>
@@ -9406,15 +10625,15 @@
       <c r="P114" s="41"/>
       <c r="Q114" s="42"/>
       <c r="R114" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="74" t="s">
         <v>9</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C115" s="7">
         <v>60</v>
@@ -9429,10 +10648,10 @@
         <v>110</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I115" s="36">
         <v>1.92</v>
@@ -9447,30 +10666,30 @@
         <v>-90</v>
       </c>
       <c r="M115" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N115" s="41"/>
       <c r="O115" s="41"/>
       <c r="P115" s="41"/>
       <c r="Q115" s="42"/>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="74"/>
       <c r="B116" s="41"/>
       <c r="C116" s="41"/>
       <c r="D116" s="41"/>
       <c r="E116" s="42"/>
       <c r="F116" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I116" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J116" s="7">
         <v>50</v>
@@ -9482,14 +10701,14 @@
         <v>90</v>
       </c>
       <c r="M116" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N116" s="41"/>
       <c r="O116" s="41"/>
       <c r="P116" s="41"/>
       <c r="Q116" s="42"/>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="74"/>
       <c r="B117" s="41"/>
       <c r="C117" s="41"/>
@@ -9509,14 +10728,14 @@
         <v>0</v>
       </c>
       <c r="M117" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N117" s="41"/>
       <c r="O117" s="41"/>
       <c r="P117" s="41"/>
       <c r="Q117" s="42"/>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="74"/>
       <c r="B118" s="41"/>
       <c r="C118" s="41"/>
@@ -9543,7 +10762,7 @@
       <c r="P118" s="41"/>
       <c r="Q118" s="42"/>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="74" t="s">
         <v>28</v>
       </c>
@@ -9572,7 +10791,7 @@
         <v>-1.04</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="74" t="s">
         <v>13</v>
       </c>
@@ -9601,7 +10820,7 @@
       <c r="P120" s="41"/>
       <c r="Q120" s="42"/>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="74" t="s">
         <v>27</v>
       </c>
@@ -9630,7 +10849,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="74"/>
       <c r="B122" s="41"/>
       <c r="C122" s="41"/>
@@ -9654,27 +10873,27 @@
         <v>90</v>
       </c>
       <c r="Q122" s="36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B123" s="124">
+      <c r="B123" s="125">
         <v>125</v>
       </c>
-      <c r="C123" s="124">
+      <c r="C123" s="125">
         <v>0</v>
       </c>
-      <c r="D123" s="124">
+      <c r="D123" s="125">
         <v>45</v>
       </c>
-      <c r="E123" s="125">
+      <c r="E123" s="126">
         <v>-0.73</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G123" s="7">
         <v>20</v>
@@ -9702,24 +10921,24 @@
         <v>-0.97</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="17" thickBot="1">
+    <row r="124" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B124" s="105">
+      <c r="B124" s="106">
         <v>160</v>
       </c>
-      <c r="C124" s="105">
+      <c r="C124" s="106">
         <v>90</v>
       </c>
-      <c r="D124" s="105">
+      <c r="D124" s="106">
         <v>-100</v>
       </c>
-      <c r="E124" s="106">
+      <c r="E124" s="107">
         <v>-0.69</v>
       </c>
       <c r="F124" s="60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G124" s="60">
         <v>20</v>
@@ -9730,55 +10949,55 @@
       <c r="I124" s="61">
         <v>0.99</v>
       </c>
-      <c r="J124" s="105"/>
-      <c r="K124" s="105"/>
-      <c r="L124" s="105"/>
-      <c r="M124" s="106"/>
-      <c r="N124" s="105"/>
-      <c r="O124" s="105"/>
-      <c r="P124" s="105"/>
-      <c r="Q124" s="106"/>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="J124" s="106"/>
+      <c r="K124" s="106"/>
+      <c r="L124" s="106"/>
+      <c r="M124" s="107"/>
+      <c r="N124" s="106"/>
+      <c r="O124" s="106"/>
+      <c r="P124" s="106"/>
+      <c r="Q124" s="107"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="13"/>
       <c r="E125" s="14"/>
       <c r="I125" s="14"/>
       <c r="M125" s="14"/>
     </row>
-    <row r="126" spans="1:18" ht="17" thickBot="1">
+    <row r="126" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="E126" s="14"/>
       <c r="I126" s="14"/>
       <c r="M126" s="14"/>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="55"/>
-      <c r="B127" s="129" t="s">
+      <c r="B127" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="C127" s="130"/>
-      <c r="D127" s="130"/>
-      <c r="E127" s="131"/>
-      <c r="F127" s="129" t="s">
+      <c r="C127" s="131"/>
+      <c r="D127" s="131"/>
+      <c r="E127" s="132"/>
+      <c r="F127" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="G127" s="130"/>
-      <c r="H127" s="130"/>
-      <c r="I127" s="131"/>
-      <c r="J127" s="130" t="s">
+      <c r="G127" s="131"/>
+      <c r="H127" s="131"/>
+      <c r="I127" s="132"/>
+      <c r="J127" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="K127" s="130"/>
-      <c r="L127" s="130"/>
-      <c r="M127" s="132"/>
-      <c r="N127" s="130" t="s">
-        <v>57</v>
-      </c>
-      <c r="O127" s="130"/>
-      <c r="P127" s="130"/>
-      <c r="Q127" s="132"/>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="K127" s="131"/>
+      <c r="L127" s="131"/>
+      <c r="M127" s="133"/>
+      <c r="N127" s="131" t="s">
+        <v>54</v>
+      </c>
+      <c r="O127" s="131"/>
+      <c r="P127" s="131"/>
+      <c r="Q127" s="133"/>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="56"/>
       <c r="B128" s="4" t="s">
         <v>19</v>
@@ -9829,7 +11048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="58" t="s">
         <v>36</v>
       </c>
@@ -9850,7 +11069,7 @@
       <c r="P129" s="7"/>
       <c r="Q129" s="36"/>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="56" t="s">
         <v>18</v>
       </c>
@@ -9879,12 +11098,12 @@
       <c r="P130" s="41"/>
       <c r="Q130" s="42"/>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="56" t="s">
         <v>9</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C131" s="7">
         <v>60</v>
@@ -9909,14 +11128,14 @@
         <v>-90</v>
       </c>
       <c r="M131" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N131" s="41"/>
       <c r="O131" s="41"/>
       <c r="P131" s="41"/>
       <c r="Q131" s="42"/>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="56"/>
       <c r="B132" s="41"/>
       <c r="C132" s="41"/>
@@ -9936,14 +11155,14 @@
         <v>90</v>
       </c>
       <c r="M132" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N132" s="41"/>
       <c r="O132" s="41"/>
       <c r="P132" s="41"/>
       <c r="Q132" s="42"/>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="56"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
@@ -9963,14 +11182,14 @@
         <v>0</v>
       </c>
       <c r="M133" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N133" s="41"/>
       <c r="O133" s="41"/>
       <c r="P133" s="41"/>
       <c r="Q133" s="42"/>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="56"/>
       <c r="B134" s="41"/>
       <c r="C134" s="41"/>
@@ -9997,7 +11216,7 @@
       <c r="P134" s="41"/>
       <c r="Q134" s="42"/>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="56" t="s">
         <v>28</v>
       </c>
@@ -10016,9 +11235,9 @@
       <c r="N135" s="41"/>
       <c r="O135" s="41"/>
       <c r="P135" s="41"/>
-      <c r="Q135" s="119"/>
-    </row>
-    <row r="136" spans="1:17">
+      <c r="Q135" s="120"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="56" t="s">
         <v>13</v>
       </c>
@@ -10055,7 +11274,7 @@
       <c r="P136" s="41"/>
       <c r="Q136" s="42"/>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="56" t="s">
         <v>27</v>
       </c>
@@ -10084,7 +11303,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="56"/>
       <c r="B138" s="41"/>
       <c r="C138" s="41"/>
@@ -10108,27 +11327,27 @@
         <v>90</v>
       </c>
       <c r="Q138" s="36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B139" s="124">
+      <c r="B139" s="125">
         <v>125</v>
       </c>
-      <c r="C139" s="124">
+      <c r="C139" s="125">
         <v>0</v>
       </c>
-      <c r="D139" s="124">
+      <c r="D139" s="125">
         <v>45</v>
       </c>
-      <c r="E139" s="125">
+      <c r="E139" s="126">
         <v>-0.73</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G139" s="7">
         <v>20</v>
@@ -10156,24 +11375,24 @@
         <v>-0.97</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="17" thickBot="1">
+    <row r="140" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B140" s="107">
+      <c r="B140" s="108">
         <v>160</v>
       </c>
-      <c r="C140" s="107">
+      <c r="C140" s="108">
         <v>90</v>
       </c>
-      <c r="D140" s="107">
+      <c r="D140" s="108">
         <v>-100</v>
       </c>
-      <c r="E140" s="108">
+      <c r="E140" s="109">
         <v>-0.69</v>
       </c>
       <c r="F140" s="60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G140" s="60">
         <v>20</v>
@@ -10184,14 +11403,14 @@
       <c r="I140" s="61">
         <v>0.99</v>
       </c>
-      <c r="J140" s="107"/>
-      <c r="K140" s="107"/>
-      <c r="L140" s="107"/>
-      <c r="M140" s="108"/>
-      <c r="N140" s="107"/>
-      <c r="O140" s="107"/>
-      <c r="P140" s="107"/>
-      <c r="Q140" s="108"/>
+      <c r="J140" s="108"/>
+      <c r="K140" s="108"/>
+      <c r="L140" s="108"/>
+      <c r="M140" s="109"/>
+      <c r="N140" s="108"/>
+      <c r="O140" s="108"/>
+      <c r="P140" s="108"/>
+      <c r="Q140" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -10241,15 +11460,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC525D0-44A5-BB44-890E-BE4921F28280}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="50" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="50" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="77" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="77"/>
@@ -10265,39 +11484,39 @@
     <col min="22" max="16384" width="10.83203125" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="167" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B1" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="167" t="s">
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="170" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170" t="s">
-        <v>125</v>
-      </c>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="171" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="78"/>
       <c r="B2" s="79" t="s">
         <v>19</v>
@@ -10309,7 +11528,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="80" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F2" s="81" t="s">
         <v>19</v>
@@ -10321,7 +11540,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="80" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J2" s="77" t="s">
         <v>19</v>
@@ -10333,7 +11552,7 @@
         <v>21</v>
       </c>
       <c r="M2" s="77" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N2" s="77" t="s">
         <v>19</v>
@@ -10345,7 +11564,7 @@
         <v>21</v>
       </c>
       <c r="Q2" s="77" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R2" s="77" t="s">
         <v>19</v>
@@ -10357,10 +11576,10 @@
         <v>21</v>
       </c>
       <c r="U2" s="77" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="85">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="78" t="s">
         <v>18</v>
       </c>
@@ -10374,7 +11593,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F3" s="77" t="s">
         <v>6</v>
@@ -10383,10 +11602,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I3" s="82" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J3" s="77">
         <v>50</v>
@@ -10398,7 +11617,7 @@
         <v>90</v>
       </c>
       <c r="M3" s="82" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N3" s="77" t="s">
         <v>6</v>
@@ -10419,7 +11638,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="78"/>
       <c r="R4" s="77">
         <v>155</v>
@@ -10431,10 +11650,10 @@
         <v>-90</v>
       </c>
       <c r="U4" s="77" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="68">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="78" t="s">
         <v>9</v>
       </c>
@@ -10451,13 +11670,13 @@
         <v>110</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H5" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="110" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="I5" s="111" t="s">
+        <v>95</v>
       </c>
       <c r="J5" s="77">
         <v>140</v>
@@ -10469,7 +11688,7 @@
         <v>90</v>
       </c>
       <c r="M5" s="82" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N5" s="77" t="s">
         <v>6</v>
@@ -10481,26 +11700,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="68">
+    <row r="6" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="78"/>
       <c r="F6" s="78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H6" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="110" t="s">
-        <v>100</v>
+        <v>55</v>
+      </c>
+      <c r="I6" s="111" t="s">
+        <v>97</v>
       </c>
       <c r="U6" s="82"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="78"/>
     </row>
-    <row r="8" spans="1:21" ht="102">
+    <row r="8" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="78" t="s">
         <v>28</v>
       </c>
@@ -10514,10 +11733,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G8" s="77">
         <v>0</v>
@@ -10526,19 +11745,19 @@
         <v>0</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J8" s="77">
         <v>50</v>
       </c>
       <c r="K8" s="77" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L8" s="77" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M8" s="82" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N8" s="77">
         <v>50</v>
@@ -10550,7 +11769,7 @@
         <v>90</v>
       </c>
       <c r="Q8" s="82" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R8" s="77">
         <v>150</v>
@@ -10562,10 +11781,10 @@
         <v>-100</v>
       </c>
       <c r="U8" s="82" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="78"/>
       <c r="R9" s="77">
         <v>115</v>
@@ -10577,12 +11796,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="85">
+    <row r="10" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="78" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" s="77">
         <v>20</v>
@@ -10591,19 +11810,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G10" s="77" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I10" s="82" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J10" s="77">
         <v>50</v>
@@ -10612,10 +11831,10 @@
         <v>90</v>
       </c>
       <c r="L10" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="82" t="s">
         <v>58</v>
-      </c>
-      <c r="M10" s="82" t="s">
-        <v>61</v>
       </c>
       <c r="N10" s="77">
         <v>90</v>
@@ -10624,37 +11843,37 @@
         <v>80</v>
       </c>
       <c r="P10" s="77" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="82" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R10" s="77">
         <v>40</v>
       </c>
       <c r="S10" s="77" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="T10" s="77">
         <v>100</v>
       </c>
       <c r="U10" s="82" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="17">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="77" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11" s="77">
         <v>45</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N11" s="77">
         <v>160</v>
@@ -10666,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="82" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R11" s="77">
         <v>155</v>
@@ -10678,7 +11897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="68">
+    <row r="12" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="78" t="s">
         <v>27</v>
       </c>
@@ -10692,7 +11911,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="77" t="s">
         <v>6</v>
@@ -10704,7 +11923,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="82" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J12" s="78">
         <v>50</v>
@@ -10715,33 +11934,33 @@
       <c r="L12" s="78">
         <v>90</v>
       </c>
-      <c r="M12" s="115" t="s">
-        <v>108</v>
-      </c>
-      <c r="N12" s="121">
+      <c r="M12" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" s="122">
         <v>50</v>
       </c>
-      <c r="O12" s="121">
+      <c r="O12" s="122">
         <v>80</v>
       </c>
-      <c r="P12" s="121">
+      <c r="P12" s="122">
         <v>90</v>
       </c>
-      <c r="Q12" s="122" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="Q12" s="123" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="E13" s="82"/>
       <c r="I13" s="82"/>
       <c r="M13" s="82"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="122"/>
-    </row>
-    <row r="14" spans="1:21" ht="85">
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="123"/>
+    </row>
+    <row r="14" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="78" t="s">
         <v>15</v>
       </c>
@@ -10755,7 +11974,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G14" s="78">
         <v>20</v>
@@ -10763,8 +11982,8 @@
       <c r="H14" s="78">
         <v>90</v>
       </c>
-      <c r="I14" s="109" t="s">
-        <v>101</v>
+      <c r="I14" s="110" t="s">
+        <v>98</v>
       </c>
       <c r="J14" s="78">
         <v>50</v>
@@ -10775,8 +11994,8 @@
       <c r="L14" s="78">
         <v>90</v>
       </c>
-      <c r="M14" s="115" t="s">
-        <v>109</v>
+      <c r="M14" s="116" t="s">
+        <v>106</v>
       </c>
       <c r="N14" s="77">
         <v>140</v>
@@ -10787,14 +12006,14 @@
       <c r="P14" s="77">
         <v>90</v>
       </c>
-      <c r="Q14" s="122" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="Q14" s="123" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
     </row>
-    <row r="16" spans="1:21" ht="85">
+    <row r="16" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="78" t="s">
         <v>26</v>
       </c>
@@ -10808,7 +12027,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G16" s="78">
         <v>20</v>
@@ -10816,8 +12035,8 @@
       <c r="H16" s="78">
         <v>90</v>
       </c>
-      <c r="I16" s="109" t="s">
-        <v>101</v>
+      <c r="I16" s="110" t="s">
+        <v>98</v>
       </c>
       <c r="J16" s="78">
         <v>50</v>
@@ -10828,8 +12047,8 @@
       <c r="L16" s="78">
         <v>90</v>
       </c>
-      <c r="M16" s="116" t="s">
-        <v>110</v>
+      <c r="M16" s="117" t="s">
+        <v>107</v>
       </c>
       <c r="N16" s="77">
         <v>90</v>
@@ -10840,14 +12059,14 @@
       <c r="P16" s="77">
         <v>90</v>
       </c>
-      <c r="Q16" s="122" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="Q16" s="123" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
     </row>
   </sheetData>

--- a/script_notebooks/taup_models/velocity model diff.xlsx
+++ b/script_notebooks/taup_models/velocity model diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddysita/Desktop/CIERA_REU/script_notebooks/taup_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130C8D81-6C85-284C-B321-DFA31FE43A95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEAB7BF-1E9A-D84C-B266-7D8C88DEB1FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="460" windowWidth="24180" windowHeight="16180" activeTab="2" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
   </bookViews>
@@ -5839,8 +5839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB169D3-968B-AD40-8FDF-5E8672111CC3}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/script_notebooks/taup_models/velocity model diff.xlsx
+++ b/script_notebooks/taup_models/velocity model diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddysita/Desktop/CIERA_REU/script_notebooks/taup_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEAB7BF-1E9A-D84C-B266-7D8C88DEB1FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63C4082-1389-504A-869A-B90BEE917DED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="460" windowWidth="24180" windowHeight="16180" activeTab="2" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
   </bookViews>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="129">
   <si>
     <t>Model</t>
   </si>
@@ -681,6 +681,12 @@
   </si>
   <si>
     <t>Sh (BHT)</t>
+  </si>
+  <si>
+    <t>NOISE LEVELS</t>
+  </si>
+  <si>
+    <t>SIGMA</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2205,6 +2211,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2214,11 +2223,11 @@
   <colors>
     <mruColors>
       <color rgb="FF6DFFB6"/>
+      <color rgb="FFFFB9EE"/>
       <color rgb="FFFFEC6D"/>
       <color rgb="FFFF6DC5"/>
       <color rgb="FFFF706D"/>
       <color rgb="FFB0DB5C"/>
-      <color rgb="FFFFB9EE"/>
       <color rgb="FFDBE9EF"/>
       <color rgb="FFC1FF3F"/>
       <color rgb="FF0086FF"/>
@@ -2533,10 +2542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46560FC0-A59C-DF45-9D49-769E5A1C0609}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2875,7 +2884,7 @@
         <v>43.357142857142854</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17">
         <f>STDEV(B2:B14)</f>
         <v>1.1282097069504153</v>
@@ -2901,7 +2910,7 @@
         <v>2.3803761207402663</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2918,15 +2927,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="2">
-        <v>19.850000000000001</v>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D21" s="2">
         <v>29.7</v>
@@ -2935,36 +2944,33 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>117</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="J24">
-        <v>28.2287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2">
-        <v>30.4</v>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D25" s="2">
         <v>38.5</v>
@@ -2972,11 +2978,8 @@
       <c r="E25" s="94">
         <v>44.6</v>
       </c>
-      <c r="J25">
-        <v>28.232600000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2986,11 +2989,8 @@
       <c r="E26">
         <v>38.9</v>
       </c>
-      <c r="J26">
-        <v>28.240300000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -3006,19 +3006,13 @@
       <c r="E27" s="2">
         <v>38.799999999999997</v>
       </c>
-      <c r="J27">
-        <v>28.230599999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="J28">
-        <v>28.236499999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3026,7 +3020,7 @@
         <v>28.23</v>
       </c>
       <c r="C29" s="2">
-        <v>30.45</v>
+        <v>27.04</v>
       </c>
       <c r="D29" s="2">
         <v>38.200000000000003</v>
@@ -3034,20 +3028,16 @@
       <c r="E29" s="2">
         <v>44.15</v>
       </c>
-      <c r="J29">
-        <f>STDEV(J24:J28)</f>
-        <v>4.6693682656227123E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="2">
         <v>19.5</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
+      <c r="C30" s="2">
+        <v>18.8</v>
       </c>
       <c r="D30" s="2">
         <v>29</v>
@@ -3055,12 +3045,8 @@
       <c r="E30" s="2">
         <v>34.799999999999997</v>
       </c>
-      <c r="J30">
-        <f>AVERAGE(J24:J28)</f>
-        <v>28.233740000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -3068,7 +3054,7 @@
         <v>27.05</v>
       </c>
       <c r="C31" s="2">
-        <v>29.2</v>
+        <v>25.9</v>
       </c>
       <c r="D31" s="2">
         <v>36.6</v>
@@ -3077,7 +3063,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -3090,7 +3076,7 @@
         <v>26.9</v>
       </c>
       <c r="C33" s="2">
-        <v>29.06</v>
+        <v>25.7</v>
       </c>
       <c r="D33" s="2">
         <v>36.5</v>
@@ -3106,7 +3092,7 @@
       </c>
       <c r="C35">
         <f>AVERAGE(C21:C33)</f>
-        <v>27.792000000000002</v>
+        <v>24.360000000000003</v>
       </c>
       <c r="D35">
         <f>AVERAGE(D21:D33)</f>
@@ -3124,7 +3110,7 @@
       </c>
       <c r="C36">
         <f>STDEV(C21:C33)</f>
-        <v>4.4869889681165764</v>
+        <v>3.7533629365321359</v>
       </c>
       <c r="D36">
         <f>STDEV(D21:D33)</f>
@@ -3145,7 +3131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C780D16-7681-8D48-B4B0-5F55C4C01983}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
@@ -5837,18 +5823,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB169D3-968B-AD40-8FDF-5E8672111CC3}">
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
@@ -5872,8 +5859,21 @@
         <v>47</v>
       </c>
       <c r="I1" s="95"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
         <v>37</v>
       </c>
@@ -5900,8 +5900,21 @@
         <v>1.3724948168624742</v>
       </c>
       <c r="I2" s="70"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
         <v>38</v>
       </c>
@@ -5928,8 +5941,21 @@
         <v>1.2204561161022807</v>
       </c>
       <c r="I3" s="95"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="83" t="s">
         <v>39</v>
       </c>
@@ -5956,8 +5982,21 @@
         <v>1.3814789219073949</v>
       </c>
       <c r="I4" s="70"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="92" t="s">
         <v>40</v>
       </c>
@@ -5985,7 +6024,7 @@
       </c>
       <c r="I5" s="70"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="83" t="s">
         <v>41</v>
       </c>
@@ -6013,7 +6052,7 @@
       </c>
       <c r="I6" s="70"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="83" t="s">
         <v>42</v>
       </c>
@@ -6041,7 +6080,7 @@
       </c>
       <c r="I7" s="70"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
         <v>43</v>
       </c>
@@ -6066,8 +6105,31 @@
         <f t="shared" si="2"/>
         <v>1.3876986869384935</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>19</v>
+      </c>
+      <c r="L9">
+        <v>12</v>
+      </c>
+      <c r="M9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
         <v>3</v>
       </c>
@@ -6080,8 +6142,17 @@
       <c r="D10" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="83" t="s">
         <v>37</v>
       </c>
@@ -6108,8 +6179,17 @@
         <v>-0.21454928835002637</v>
       </c>
       <c r="I11" s="70"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>19</v>
+      </c>
+      <c r="L11">
+        <v>0.7</v>
+      </c>
+      <c r="M11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
         <v>38</v>
       </c>
@@ -6134,8 +6214,17 @@
         <f t="shared" si="2"/>
         <v>-0.13613925694985712</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>-2</v>
+      </c>
+      <c r="L12">
+        <v>12.5</v>
+      </c>
+      <c r="M12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="83" t="s">
         <v>39</v>
       </c>
@@ -6162,8 +6251,17 @@
         <v>-0.22236807561039645</v>
       </c>
       <c r="I13" s="70"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>29</v>
+      </c>
+      <c r="L13">
+        <v>13.1</v>
+      </c>
+      <c r="M13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
         <v>40</v>
       </c>
@@ -6190,8 +6288,17 @@
         <v>-0.21268267223382045</v>
       </c>
       <c r="I14" s="70"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>-7</v>
+      </c>
+      <c r="L14">
+        <v>12.5</v>
+      </c>
+      <c r="M14">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="83" t="s">
         <v>41</v>
       </c>
@@ -6218,8 +6325,17 @@
         <v>-0.20523560209424085</v>
       </c>
       <c r="I15" s="70"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>32</v>
+      </c>
+      <c r="L15">
+        <v>7.5</v>
+      </c>
+      <c r="M15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="83" t="s">
         <v>42</v>
       </c>
@@ -6246,8 +6362,17 @@
         <v>-0.21377293273065676</v>
       </c>
       <c r="I16" s="70"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>16</v>
+      </c>
+      <c r="L16">
+        <v>6.3</v>
+      </c>
+      <c r="M16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="83" t="s">
         <v>43</v>
       </c>
@@ -6275,7 +6400,24 @@
       </c>
       <c r="I17" s="70"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18">
+        <f>STDEV(K9:K16)</f>
+        <v>13.617215994048541</v>
+      </c>
+      <c r="L18">
+        <f>STDEV(L9:L16)</f>
+        <v>4.3543082114154448</v>
+      </c>
+      <c r="M18">
+        <f>STDEV(M9:M16)</f>
+        <v>21.360845355128486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
         <v>86</v>
       </c>
@@ -6289,7 +6431,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
         <v>37</v>
       </c>
@@ -6315,7 +6457,7 @@
         <v>-1.2749999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="83" t="s">
         <v>38</v>
       </c>
@@ -6343,7 +6485,7 @@
       </c>
       <c r="I21" s="70"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="83" t="s">
         <v>39</v>
       </c>
@@ -6371,7 +6513,7 @@
       </c>
       <c r="I22" s="70"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="92" t="s">
         <v>40</v>
       </c>
@@ -6399,7 +6541,7 @@
       </c>
       <c r="I23" s="70"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="83" t="s">
         <v>41</v>
       </c>
@@ -6427,7 +6569,7 @@
       </c>
       <c r="I24" s="70"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="45" t="s">
         <v>42</v>
       </c>
@@ -6453,7 +6595,7 @@
         <v>-1.2732502396931928</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="45" t="s">
         <v>43</v>
       </c>
@@ -6479,7 +6621,7 @@
         <v>-1.2953020134228188</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="49" t="s">
         <v>87</v>
       </c>
@@ -6493,7 +6635,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
         <v>37</v>
       </c>
@@ -6519,7 +6661,7 @@
         <v>-0.62015929689645699</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="83" t="s">
         <v>38</v>
       </c>
@@ -6547,7 +6689,7 @@
       </c>
       <c r="I30" s="70"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="83" t="s">
         <v>39</v>
       </c>
@@ -6575,7 +6717,7 @@
       </c>
       <c r="I31" s="70"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="92" t="s">
         <v>40</v>
       </c>
@@ -6603,7 +6745,7 @@
       </c>
       <c r="I32" s="70"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="83" t="s">
         <v>41</v>
       </c>
@@ -6631,7 +6773,7 @@
       </c>
       <c r="I33" s="70"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="45" t="s">
         <v>42</v>
       </c>
@@ -6657,7 +6799,7 @@
         <v>-0.62196467991169979</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="45" t="s">
         <v>43</v>
       </c>
@@ -6683,7 +6825,7 @@
         <v>-0.62665562913907291</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="172" t="s">
         <v>114</v>
       </c>
@@ -6697,7 +6839,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="45" t="s">
         <v>37</v>
       </c>
@@ -6723,7 +6865,7 @@
         <v>0.59939166219359463</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="83" t="s">
         <v>38</v>
       </c>
@@ -6743,7 +6885,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="83" t="s">
         <v>39</v>
       </c>
@@ -6763,7 +6905,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="83" t="s">
         <v>40</v>
       </c>
@@ -6789,7 +6931,7 @@
         <v>0.600465199499016</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="83" t="s">
         <v>41</v>
       </c>
@@ -6815,7 +6957,7 @@
         <v>0.60458042583646443</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="45" t="s">
         <v>42</v>
       </c>
@@ -6841,7 +6983,7 @@
         <v>0.60297011987833249</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="45" t="s">
         <v>43</v>
       </c>
@@ -6867,7 +7009,22 @@
         <v>0.60010735373054214</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="174"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -6890,8 +7047,13 @@
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="86"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -6914,8 +7076,13 @@
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="86"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -6938,8 +7105,13 @@
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="86"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -6962,8 +7134,13 @@
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="86"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -6986,8 +7163,13 @@
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="86"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -7010,8 +7192,13 @@
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="86"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -7034,8 +7221,13 @@
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="86"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -7058,8 +7250,13 @@
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -7069,19 +7266,11 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script_notebooks/taup_models/velocity model diff.xlsx
+++ b/script_notebooks/taup_models/velocity model diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddysita/Desktop/CIERA_REU/script_notebooks/taup_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63C4082-1389-504A-869A-B90BEE917DED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4482211-E232-BF48-920B-FB15B914309C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="460" windowWidth="24180" windowHeight="16180" activeTab="2" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
+    <workbookView xWindow="2820" yWindow="460" windowWidth="24180" windowHeight="16000" activeTab="2" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
   </bookViews>
   <sheets>
     <sheet name="Distances" sheetId="1" r:id="rId1"/>
@@ -693,7 +693,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -717,6 +717,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1887,7 +1893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2214,6 +2220,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5825,8 +5835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB169D3-968B-AD40-8FDF-5E8672111CC3}">
   <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6023,6 +6033,10 @@
         <v>1.3766413268832067</v>
       </c>
       <c r="I5" s="70"/>
+      <c r="J5">
+        <f>144/-176</f>
+        <v>-0.81818181818181823</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="83" t="s">
@@ -6906,27 +6920,28 @@
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A42" s="83" t="s">
+      <c r="A42" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="177">
         <v>558.9</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="177">
         <v>412.6</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="177">
         <v>335.6</v>
       </c>
-      <c r="F42">
+      <c r="E42" s="177"/>
+      <c r="F42" s="177">
         <f t="shared" si="3"/>
         <v>1.3545807077072223</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="177">
         <f t="shared" si="4"/>
         <v>0.81337857489093557</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="177">
         <f t="shared" si="5"/>
         <v>0.600465199499016</v>
       </c>

--- a/script_notebooks/taup_models/velocity model diff.xlsx
+++ b/script_notebooks/taup_models/velocity model diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddysita/Desktop/CIERA_REU/script_notebooks/taup_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069DFBAB-4582-EB46-BB92-19A2EDF3E04D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C625DE-1B6B-A343-AD96-0C7DA970A902}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="460" windowWidth="24180" windowHeight="16000" activeTab="2" xr2:uid="{EA37FDBE-3235-0049-8B3E-2FB609B4334E}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="Common Fault Type" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -626,7 +627,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2024,100 +2025,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2132,16 +2054,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2156,17 +2168,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2501,12 +2502,12 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" customHeight="1">
+    <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2645,7 +2646,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2662,7 +2663,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16">
         <f t="shared" ref="B16:G16" si="0">AVERAGE(B2:B14)</f>
         <v>28.757142857142856</v>
@@ -2837,7 +2838,7 @@
         <v>43.357142857142854</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17">
         <f t="shared" ref="B17:G17" si="1">STDEV(B2:B14)</f>
         <v>1.1282097069504153</v>
@@ -2863,7 +2864,7 @@
         <v>2.3803761207402663</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2897,25 +2898,25 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>111</v>
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2960,12 +2961,12 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>44.15</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -3016,12 +3017,12 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35">
         <f>AVERAGE(B21:B33)</f>
         <v>25.42</v>
@@ -3056,7 +3057,7 @@
         <v>40.131250000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36">
         <f>STDEV(B21:B33)</f>
         <v>3.9912320570637316</v>
@@ -3088,13 +3089,13 @@
       <selection activeCell="D42" sqref="B42:D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
         <v>2</v>
       </c>
@@ -3132,7 +3133,7 @@
       <c r="U1" s="125"/>
       <c r="V1" s="125"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="81" t="s">
         <v>37</v>
       </c>
@@ -3173,7 +3174,7 @@
       <c r="U2" s="68"/>
       <c r="V2" s="68"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
         <v>38</v>
       </c>
@@ -3214,7 +3215,7 @@
       <c r="U3" s="68"/>
       <c r="V3" s="68"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="81" t="s">
         <v>39</v>
       </c>
@@ -3255,7 +3256,7 @@
       <c r="U4" s="68"/>
       <c r="V4" s="68"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="88" t="s">
         <v>40</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>-0.81818181818181823</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="81" t="s">
         <v>41</v>
       </c>
@@ -3315,7 +3316,7 @@
       </c>
       <c r="I6" s="68"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="81" t="s">
         <v>42</v>
       </c>
@@ -3343,7 +3344,7 @@
       </c>
       <c r="I7" s="68"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
         <v>43</v>
       </c>
@@ -3381,7 +3382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="K9">
         <v>19</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
         <v>3</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="81" t="s">
         <v>37</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
         <v>38</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="81" t="s">
         <v>39</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="88" t="s">
         <v>40</v>
       </c>
@@ -3561,7 +3562,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="81" t="s">
         <v>41</v>
       </c>
@@ -3598,7 +3599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
         <v>42</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="81" t="s">
         <v>43</v>
       </c>
@@ -3663,7 +3664,7 @@
       </c>
       <c r="I17" s="68"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J18" t="s">
         <v>122</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>21.360845355128486</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
         <v>82</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="44" t="s">
         <v>37</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>-1.2749999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="81" t="s">
         <v>38</v>
       </c>
@@ -3748,7 +3749,7 @@
       </c>
       <c r="I21" s="68"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="81" t="s">
         <v>39</v>
       </c>
@@ -3776,7 +3777,7 @@
       </c>
       <c r="I22" s="68"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="88" t="s">
         <v>40</v>
       </c>
@@ -3804,7 +3805,7 @@
       </c>
       <c r="I23" s="68"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="81" t="s">
         <v>41</v>
       </c>
@@ -3832,7 +3833,7 @@
       </c>
       <c r="I24" s="68"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="44" t="s">
         <v>42</v>
       </c>
@@ -3858,7 +3859,7 @@
         <v>-1.2732502396931928</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="44" t="s">
         <v>43</v>
       </c>
@@ -3884,7 +3885,7 @@
         <v>-1.2953020134228188</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="48" t="s">
         <v>83</v>
       </c>
@@ -3898,7 +3899,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="44" t="s">
         <v>37</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>-0.62015929689645699</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="81" t="s">
         <v>38</v>
       </c>
@@ -3952,7 +3953,7 @@
       </c>
       <c r="I30" s="68"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="81" t="s">
         <v>39</v>
       </c>
@@ -3980,7 +3981,7 @@
       </c>
       <c r="I31" s="68"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="88" t="s">
         <v>40</v>
       </c>
@@ -4008,7 +4009,7 @@
       </c>
       <c r="I32" s="68"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="81" t="s">
         <v>41</v>
       </c>
@@ -4036,7 +4037,7 @@
       </c>
       <c r="I33" s="68"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="44" t="s">
         <v>42</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>-0.62196467991169979</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="44" t="s">
         <v>43</v>
       </c>
@@ -4088,7 +4089,7 @@
         <v>-0.62665562913907291</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="123" t="s">
         <v>110</v>
       </c>
@@ -4102,7 +4103,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
         <v>37</v>
       </c>
@@ -4128,7 +4129,7 @@
         <v>0.59939166219359463</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="81" t="s">
         <v>38</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="81" t="s">
         <v>39</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="126" t="s">
         <v>40</v>
       </c>
@@ -4195,7 +4196,7 @@
         <v>0.600465199499016</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="81" t="s">
         <v>41</v>
       </c>
@@ -4221,7 +4222,7 @@
         <v>0.60458042583646443</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
         <v>42</v>
       </c>
@@ -4247,7 +4248,7 @@
         <v>0.60297011987833249</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
         <v>43</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>0.60010735373054214</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
@@ -4288,7 +4289,7 @@
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="124"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -4317,7 +4318,7 @@
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="83"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -4346,7 +4347,7 @@
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="83"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -4375,7 +4376,7 @@
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="83"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -4404,7 +4405,7 @@
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="83"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -4433,7 +4434,7 @@
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="83"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -4462,7 +4463,7 @@
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="83"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -4491,7 +4492,7 @@
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="83"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -4520,7 +4521,7 @@
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -4551,9 +4552,9 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
         <v>2</v>
       </c>
@@ -4576,14 +4577,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="173">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="129">
         <v>144</v>
       </c>
-      <c r="C2" s="173">
+      <c r="C2" s="129">
         <v>-176</v>
       </c>
-      <c r="D2" s="173">
+      <c r="D2" s="129">
         <v>195</v>
       </c>
       <c r="F2">
@@ -4599,7 +4600,7 @@
         <v>1.3541666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
@@ -4613,30 +4614,30 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="173">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="129">
         <v>-318</v>
       </c>
-      <c r="C5" s="173">
+      <c r="C5" s="129">
         <v>-234</v>
       </c>
-      <c r="D5" s="173">
+      <c r="D5" s="129">
         <v>-80</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F3:F14" si="0">B5/C5</f>
+        <f t="shared" ref="F5:F14" si="0">B5/C5</f>
         <v>1.358974358974359</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G3:G14" si="1">D5/C5</f>
+        <f t="shared" ref="G5:G14" si="1">D5/C5</f>
         <v>0.34188034188034189</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H3:H14" si="2">D5/B5</f>
+        <f t="shared" ref="H5:H14" si="2">D5/B5</f>
         <v>0.25157232704402516</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
         <v>82</v>
       </c>
@@ -4650,14 +4651,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="173">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="129">
         <v>0</v>
       </c>
-      <c r="C8" s="173">
+      <c r="C8" s="129">
         <v>257</v>
       </c>
-      <c r="D8" s="173">
+      <c r="D8" s="129">
         <v>132</v>
       </c>
       <c r="F8">
@@ -4673,7 +4674,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
         <v>83</v>
       </c>
@@ -4687,14 +4688,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="174">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="130">
         <v>-360</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="130">
         <v>364</v>
       </c>
-      <c r="D11" s="174">
+      <c r="D11" s="130">
         <v>228.9</v>
       </c>
       <c r="F11">
@@ -4710,8 +4711,8 @@
         <v>-0.63583333333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="172" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="128" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="84" t="s">
@@ -4724,14 +4725,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="175">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="131">
         <v>561</v>
       </c>
-      <c r="C14" s="175">
+      <c r="C14" s="131">
         <v>407</v>
       </c>
-      <c r="D14" s="175">
+      <c r="D14" s="131">
         <v>-286</v>
       </c>
       <c r="F14">
@@ -4747,7 +4748,7 @@
         <v>-0.50980392156862742</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>123</v>
       </c>
@@ -4758,37 +4759,37 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="177" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="173">
+      <c r="B18" s="129">
         <v>-3721</v>
       </c>
-      <c r="C18" s="173">
+      <c r="C18" s="129">
         <v>-2415</v>
       </c>
-      <c r="D18" s="173">
+      <c r="D18" s="129">
         <v>2108</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="178">
+      <c r="B19" s="134">
         <v>0.71410879629629631</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="178">
+      <c r="B20" s="134">
         <v>0.71447916666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>123</v>
       </c>
@@ -4799,33 +4800,33 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="176" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="173">
+      <c r="B23" s="129">
         <v>1521</v>
       </c>
-      <c r="C23" s="173">
+      <c r="C23" s="129">
         <v>-507</v>
       </c>
-      <c r="D23" s="173">
+      <c r="D23" s="129">
         <v>-439</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="178" t="s">
+      <c r="B24" s="134" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="178" t="s">
+      <c r="B25" s="134" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4842,38 +4843,38 @@
       <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="B1" s="128" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B1" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="128" t="s">
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="129" t="s">
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="129" t="s">
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="131"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="136"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
@@ -4923,7 +4924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>50</v>
       </c>
@@ -4944,7 +4945,7 @@
       <c r="P3" s="68"/>
       <c r="Q3" s="35"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>56</v>
       </c>
@@ -4981,7 +4982,7 @@
       <c r="P4" s="40"/>
       <c r="Q4" s="41"/>
     </row>
-    <row r="5" spans="1:17" ht="17" thickBot="1">
+    <row r="5" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="69"/>
       <c r="C5" s="10"/>
@@ -5008,7 +5009,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="115"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -5020,7 +5021,7 @@
       <c r="M6" s="14"/>
       <c r="Q6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="17" thickBot="1">
+    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5032,34 +5033,34 @@
       <c r="I7" s="5"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="132" t="s">
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="133" t="s">
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="133" t="s">
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="133"/>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="135"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="O8" s="141"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="142"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -5110,7 +5111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>49</v>
       </c>
@@ -5131,7 +5132,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="35"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>28</v>
       </c>
@@ -5168,7 +5169,7 @@
       <c r="P11" s="40"/>
       <c r="Q11" s="41"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -5195,7 +5196,7 @@
       <c r="P12" s="40"/>
       <c r="Q12" s="41"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -5222,7 +5223,7 @@
       <c r="P13" s="40"/>
       <c r="Q13" s="41"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>26</v>
       </c>
@@ -5259,7 +5260,7 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="17" thickBot="1">
+    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="108"/>
       <c r="C15" s="108"/>
@@ -5278,7 +5279,7 @@
       <c r="P15" s="108"/>
       <c r="Q15" s="109"/>
     </row>
-    <row r="16" spans="1:17" ht="17" thickBot="1">
+    <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -5293,34 +5294,34 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="136" t="s">
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="137" t="s">
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="137" t="s">
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="139"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="O17" s="143"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="144"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="3" t="s">
         <v>19</v>
@@ -5371,7 +5372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>48</v>
       </c>
@@ -5392,7 +5393,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="35"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>18</v>
       </c>
@@ -5429,7 +5430,7 @@
       <c r="P20" s="40"/>
       <c r="Q20" s="41"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>28</v>
       </c>
@@ -5458,7 +5459,7 @@
       <c r="P21" s="40"/>
       <c r="Q21" s="41"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>31</v>
       </c>
@@ -5495,7 +5496,7 @@
       <c r="P22" s="40"/>
       <c r="Q22" s="41"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="40">
         <v>160</v>
@@ -5522,7 +5523,7 @@
       <c r="P23" s="40"/>
       <c r="Q23" s="41"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>26</v>
       </c>
@@ -5551,7 +5552,7 @@
       <c r="P24" s="40"/>
       <c r="Q24" s="41"/>
     </row>
-    <row r="25" spans="1:17" ht="17" thickBot="1">
+    <row r="25" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="110"/>
       <c r="C25" s="110"/>
@@ -5570,40 +5571,40 @@
       <c r="P25" s="110"/>
       <c r="Q25" s="111"/>
     </row>
-    <row r="26" spans="1:17" ht="17" thickBot="1">
+    <row r="26" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="E26" s="4"/>
       <c r="I26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="140" t="s">
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="141" t="s">
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="141" t="s">
+      <c r="K27" s="145"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="O27" s="141"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="143"/>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="O27" s="145"/>
+      <c r="P27" s="145"/>
+      <c r="Q27" s="146"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
       <c r="B28" s="3" t="s">
         <v>19</v>
@@ -5654,7 +5655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
         <v>29</v>
       </c>
@@ -5675,7 +5676,7 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="35"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
         <v>18</v>
       </c>
@@ -5696,7 +5697,7 @@
       <c r="P30" s="40"/>
       <c r="Q30" s="41"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>28</v>
       </c>
@@ -5725,7 +5726,7 @@
       <c r="P31" s="40"/>
       <c r="Q31" s="41"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>13</v>
       </c>
@@ -5746,7 +5747,7 @@
       <c r="P32" s="40"/>
       <c r="Q32" s="41"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
         <v>27</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
         <v>31</v>
       </c>
@@ -5828,7 +5829,7 @@
       <c r="P34" s="40"/>
       <c r="Q34" s="41"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
       <c r="B35" s="40">
         <v>160</v>
@@ -5855,7 +5856,7 @@
       <c r="P35" s="40"/>
       <c r="Q35" s="41"/>
     </row>
-    <row r="36" spans="1:17" ht="17" thickBot="1">
+    <row r="36" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>26</v>
       </c>
@@ -5892,46 +5893,46 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="E37" s="13"/>
       <c r="I37" s="13"/>
       <c r="M37" s="13"/>
     </row>
-    <row r="38" spans="1:17" ht="17" thickBot="1">
+    <row r="38" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="E38" s="13"/>
       <c r="I38" s="13"/>
       <c r="M38" s="13"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
-      <c r="B39" s="144" t="s">
+      <c r="B39" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="144" t="s">
+      <c r="C39" s="147"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="145" t="s">
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="145"/>
-      <c r="L39" s="145"/>
-      <c r="M39" s="147"/>
-      <c r="N39" s="145" t="s">
+      <c r="K39" s="147"/>
+      <c r="L39" s="147"/>
+      <c r="M39" s="148"/>
+      <c r="N39" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="O39" s="145"/>
-      <c r="P39" s="145"/>
-      <c r="Q39" s="147"/>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="O39" s="147"/>
+      <c r="P39" s="147"/>
+      <c r="Q39" s="148"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="28"/>
       <c r="B40" s="3" t="s">
         <v>19</v>
@@ -5982,7 +5983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="s">
         <v>30</v>
       </c>
@@ -6003,7 +6004,7 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="35"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
         <v>18</v>
       </c>
@@ -6048,7 +6049,7 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="41"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
         <v>9</v>
       </c>
@@ -6093,7 +6094,7 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="41"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="28"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -6128,7 +6129,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="41"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="28"/>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
@@ -6155,7 +6156,7 @@
       <c r="P45" s="40"/>
       <c r="Q45" s="41"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="28"/>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
@@ -6182,7 +6183,7 @@
       <c r="P46" s="40"/>
       <c r="Q46" s="41"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
         <v>28</v>
       </c>
@@ -6211,7 +6212,7 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="41"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
         <v>13</v>
       </c>
@@ -6264,7 +6265,7 @@
         <v>-1.02</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="28"/>
       <c r="B49" s="86" t="s">
         <v>69</v>
@@ -6307,7 +6308,7 @@
       <c r="P49" s="40"/>
       <c r="Q49" s="41"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="28"/>
       <c r="B50" s="40"/>
       <c r="C50" s="40"/>
@@ -6342,7 +6343,7 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="41"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
         <v>27</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>-0.94</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
         <v>31</v>
       </c>
@@ -6424,7 +6425,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="41"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="28"/>
       <c r="B53" s="40">
         <v>160</v>
@@ -6451,7 +6452,7 @@
       <c r="P53" s="40"/>
       <c r="Q53" s="41"/>
     </row>
-    <row r="54" spans="1:18" ht="17" thickBot="1">
+    <row r="54" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>26</v>
       </c>
@@ -6480,46 +6481,46 @@
       <c r="P54" s="94"/>
       <c r="Q54" s="95"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
       <c r="E55" s="13"/>
       <c r="I55" s="13"/>
       <c r="M55" s="13"/>
     </row>
-    <row r="56" spans="1:18" ht="17" thickBot="1">
+    <row r="56" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="E56" s="13"/>
       <c r="I56" s="13"/>
       <c r="M56" s="13"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="31"/>
-      <c r="B57" s="152" t="s">
+      <c r="B57" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="153"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="154"/>
-      <c r="F57" s="152" t="s">
+      <c r="C57" s="149"/>
+      <c r="D57" s="149"/>
+      <c r="E57" s="164"/>
+      <c r="F57" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="153"/>
-      <c r="H57" s="153"/>
-      <c r="I57" s="154"/>
-      <c r="J57" s="153" t="s">
+      <c r="G57" s="149"/>
+      <c r="H57" s="149"/>
+      <c r="I57" s="164"/>
+      <c r="J57" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="K57" s="153"/>
-      <c r="L57" s="153"/>
-      <c r="M57" s="155"/>
-      <c r="N57" s="153" t="s">
+      <c r="K57" s="149"/>
+      <c r="L57" s="149"/>
+      <c r="M57" s="150"/>
+      <c r="N57" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="O57" s="153"/>
-      <c r="P57" s="153"/>
-      <c r="Q57" s="155"/>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="O57" s="149"/>
+      <c r="P57" s="149"/>
+      <c r="Q57" s="150"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="32"/>
       <c r="B58" s="3" t="s">
         <v>19</v>
@@ -6573,7 +6574,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="34" t="s">
         <v>32</v>
       </c>
@@ -6594,7 +6595,7 @@
       <c r="P59" s="6"/>
       <c r="Q59" s="35"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="32" t="s">
         <v>18</v>
       </c>
@@ -6639,7 +6640,7 @@
       <c r="P60" s="40"/>
       <c r="Q60" s="41"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="32" t="s">
         <v>9</v>
       </c>
@@ -6684,7 +6685,7 @@
       <c r="P61" s="40"/>
       <c r="Q61" s="41"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="32"/>
       <c r="B62" s="40"/>
       <c r="C62" s="40"/>
@@ -6719,7 +6720,7 @@
       <c r="P62" s="40"/>
       <c r="Q62" s="41"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="32"/>
       <c r="B63" s="40"/>
       <c r="C63" s="40"/>
@@ -6746,7 +6747,7 @@
       <c r="P63" s="40"/>
       <c r="Q63" s="41"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="32"/>
       <c r="B64" s="40"/>
       <c r="C64" s="40"/>
@@ -6773,7 +6774,7 @@
       <c r="P64" s="40"/>
       <c r="Q64" s="41"/>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="32" t="s">
         <v>28</v>
       </c>
@@ -6802,7 +6803,7 @@
       <c r="P65" s="40"/>
       <c r="Q65" s="41"/>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="32" t="s">
         <v>13</v>
       </c>
@@ -6855,7 +6856,7 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="32"/>
       <c r="B67" s="83" t="s">
         <v>69</v>
@@ -6906,7 +6907,7 @@
         <v>-1.03</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="32"/>
       <c r="B68" s="40"/>
       <c r="C68" s="40"/>
@@ -6941,7 +6942,7 @@
       <c r="P68" s="40"/>
       <c r="Q68" s="41"/>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="32"/>
       <c r="B69" s="40"/>
       <c r="C69" s="40"/>
@@ -6968,7 +6969,7 @@
       <c r="P69" s="40"/>
       <c r="Q69" s="41"/>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="32" t="s">
         <v>27</v>
       </c>
@@ -7013,7 +7014,7 @@
         <v>-0.94</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="32" t="s">
         <v>31</v>
       </c>
@@ -7050,7 +7051,7 @@
       <c r="P71" s="40"/>
       <c r="Q71" s="41"/>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="32"/>
       <c r="B72" s="40">
         <v>160</v>
@@ -7077,7 +7078,7 @@
       <c r="P72" s="40"/>
       <c r="Q72" s="41"/>
     </row>
-    <row r="73" spans="1:18" ht="17" thickBot="1">
+    <row r="73" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
         <v>26</v>
       </c>
@@ -7114,49 +7115,49 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
       <c r="E74" s="13"/>
       <c r="I74" s="13"/>
       <c r="M74" s="13"/>
     </row>
-    <row r="75" spans="1:18" ht="17" thickBot="1">
+    <row r="75" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="E75" s="13"/>
       <c r="I75" s="13"/>
       <c r="M75" s="13"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="36"/>
-      <c r="B76" s="156" t="s">
+      <c r="B76" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="C76" s="157"/>
-      <c r="D76" s="157"/>
-      <c r="E76" s="158"/>
-      <c r="F76" s="156" t="s">
+      <c r="C76" s="151"/>
+      <c r="D76" s="151"/>
+      <c r="E76" s="166"/>
+      <c r="F76" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="G76" s="157"/>
-      <c r="H76" s="157"/>
-      <c r="I76" s="158"/>
-      <c r="J76" s="157" t="s">
+      <c r="G76" s="151"/>
+      <c r="H76" s="151"/>
+      <c r="I76" s="166"/>
+      <c r="J76" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="K76" s="157"/>
-      <c r="L76" s="157"/>
-      <c r="M76" s="159"/>
-      <c r="N76" s="157" t="s">
+      <c r="K76" s="151"/>
+      <c r="L76" s="151"/>
+      <c r="M76" s="152"/>
+      <c r="N76" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="O76" s="157"/>
-      <c r="P76" s="157"/>
-      <c r="Q76" s="159"/>
+      <c r="O76" s="151"/>
+      <c r="P76" s="151"/>
+      <c r="Q76" s="152"/>
       <c r="R76" s="84" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="37"/>
       <c r="B77" s="3" t="s">
         <v>19</v>
@@ -7207,7 +7208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="38" t="s">
         <v>33</v>
       </c>
@@ -7228,7 +7229,7 @@
       <c r="P78" s="6"/>
       <c r="Q78" s="35"/>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="37" t="s">
         <v>18</v>
       </c>
@@ -7265,7 +7266,7 @@
       <c r="P79" s="40"/>
       <c r="Q79" s="41"/>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="37" t="s">
         <v>9</v>
       </c>
@@ -7310,7 +7311,7 @@
       <c r="P80" s="40"/>
       <c r="Q80" s="41"/>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="37"/>
       <c r="B81" s="40"/>
       <c r="C81" s="40"/>
@@ -7345,7 +7346,7 @@
       <c r="P81" s="40"/>
       <c r="Q81" s="41"/>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="37"/>
       <c r="B82" s="40"/>
       <c r="C82" s="40"/>
@@ -7372,7 +7373,7 @@
       <c r="P82" s="40"/>
       <c r="Q82" s="41"/>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="37"/>
       <c r="B83" s="40"/>
       <c r="C83" s="40"/>
@@ -7399,7 +7400,7 @@
       <c r="P83" s="40"/>
       <c r="Q83" s="41"/>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="37" t="s">
         <v>28</v>
       </c>
@@ -7428,7 +7429,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="37" t="s">
         <v>13</v>
       </c>
@@ -7481,7 +7482,7 @@
         <v>-1.03</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="37"/>
       <c r="B86" s="83" t="s">
         <v>69</v>
@@ -7532,7 +7533,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="37"/>
       <c r="B87" s="40">
         <v>160</v>
@@ -7567,7 +7568,7 @@
       <c r="P87" s="40"/>
       <c r="Q87" s="41"/>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="37" t="s">
         <v>27</v>
       </c>
@@ -7612,7 +7613,7 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="37" t="s">
         <v>31</v>
       </c>
@@ -7649,7 +7650,7 @@
       <c r="P89" s="40"/>
       <c r="Q89" s="41"/>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="37"/>
       <c r="B90" s="40">
         <v>160</v>
@@ -7676,7 +7677,7 @@
       <c r="P90" s="40"/>
       <c r="Q90" s="41"/>
     </row>
-    <row r="91" spans="1:18" ht="17" thickBot="1">
+    <row r="91" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="39" t="s">
         <v>26</v>
       </c>
@@ -7713,7 +7714,7 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="13"/>
       <c r="B92" s="40">
         <v>160</v>
@@ -7740,46 +7741,46 @@
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="12"/>
       <c r="E93" s="13"/>
       <c r="I93" s="13"/>
       <c r="M93" s="13"/>
     </row>
-    <row r="94" spans="1:18" ht="17" thickBot="1">
+    <row r="94" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="E94" s="13"/>
       <c r="I94" s="13"/>
       <c r="M94" s="13"/>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="49"/>
-      <c r="B95" s="166" t="s">
+      <c r="B95" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="164"/>
-      <c r="D95" s="164"/>
-      <c r="E95" s="167"/>
-      <c r="F95" s="166" t="s">
+      <c r="C95" s="153"/>
+      <c r="D95" s="153"/>
+      <c r="E95" s="158"/>
+      <c r="F95" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="G95" s="164"/>
-      <c r="H95" s="164"/>
-      <c r="I95" s="167"/>
-      <c r="J95" s="164" t="s">
+      <c r="G95" s="153"/>
+      <c r="H95" s="153"/>
+      <c r="I95" s="158"/>
+      <c r="J95" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="K95" s="164"/>
-      <c r="L95" s="164"/>
-      <c r="M95" s="165"/>
-      <c r="N95" s="164" t="s">
+      <c r="K95" s="153"/>
+      <c r="L95" s="153"/>
+      <c r="M95" s="154"/>
+      <c r="N95" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="O95" s="164"/>
-      <c r="P95" s="164"/>
-      <c r="Q95" s="165"/>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="O95" s="153"/>
+      <c r="P95" s="153"/>
+      <c r="Q95" s="154"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="50"/>
       <c r="B96" s="3" t="s">
         <v>19</v>
@@ -7833,7 +7834,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="52" t="s">
         <v>34</v>
       </c>
@@ -7854,7 +7855,7 @@
       <c r="P97" s="6"/>
       <c r="Q97" s="35"/>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="50" t="s">
         <v>18</v>
       </c>
@@ -7891,7 +7892,7 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="41"/>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="50" t="s">
         <v>9</v>
       </c>
@@ -7936,7 +7937,7 @@
       <c r="P99" s="40"/>
       <c r="Q99" s="41"/>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="50"/>
       <c r="B100" s="40"/>
       <c r="C100" s="40"/>
@@ -7971,7 +7972,7 @@
       <c r="P100" s="40"/>
       <c r="Q100" s="41"/>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
       <c r="B101" s="40"/>
       <c r="C101" s="40"/>
@@ -7998,7 +7999,7 @@
       <c r="P101" s="40"/>
       <c r="Q101" s="41"/>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="50"/>
       <c r="B102" s="40"/>
       <c r="C102" s="40"/>
@@ -8025,7 +8026,7 @@
       <c r="P102" s="40"/>
       <c r="Q102" s="41"/>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="50" t="s">
         <v>28</v>
       </c>
@@ -8054,7 +8055,7 @@
         <v>-1.02</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="50" t="s">
         <v>13</v>
       </c>
@@ -8083,7 +8084,7 @@
         <v>-1.03</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="50" t="s">
         <v>27</v>
       </c>
@@ -8128,7 +8129,7 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="50" t="s">
         <v>31</v>
       </c>
@@ -8165,7 +8166,7 @@
       <c r="P106" s="40"/>
       <c r="Q106" s="41"/>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
       <c r="B107" s="40">
         <v>160</v>
@@ -8192,7 +8193,7 @@
       <c r="P107" s="40"/>
       <c r="Q107" s="41"/>
     </row>
-    <row r="108" spans="1:17" ht="17" thickBot="1">
+    <row r="108" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="51" t="s">
         <v>26</v>
       </c>
@@ -8229,46 +8230,46 @@
       <c r="P108" s="100"/>
       <c r="Q108" s="101"/>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="12"/>
       <c r="E109" s="13"/>
       <c r="I109" s="13"/>
       <c r="M109" s="13"/>
     </row>
-    <row r="110" spans="1:17" ht="17" thickBot="1">
+    <row r="110" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="E110" s="13"/>
       <c r="I110" s="13"/>
       <c r="M110" s="13"/>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="71"/>
-      <c r="B111" s="148" t="s">
+      <c r="B111" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="C111" s="149"/>
-      <c r="D111" s="149"/>
-      <c r="E111" s="150"/>
-      <c r="F111" s="148" t="s">
+      <c r="C111" s="155"/>
+      <c r="D111" s="155"/>
+      <c r="E111" s="162"/>
+      <c r="F111" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="G111" s="149"/>
-      <c r="H111" s="149"/>
-      <c r="I111" s="150"/>
-      <c r="J111" s="149" t="s">
+      <c r="G111" s="155"/>
+      <c r="H111" s="155"/>
+      <c r="I111" s="162"/>
+      <c r="J111" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="K111" s="149"/>
-      <c r="L111" s="149"/>
-      <c r="M111" s="151"/>
-      <c r="N111" s="149" t="s">
+      <c r="K111" s="155"/>
+      <c r="L111" s="155"/>
+      <c r="M111" s="156"/>
+      <c r="N111" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="O111" s="149"/>
-      <c r="P111" s="149"/>
-      <c r="Q111" s="151"/>
-    </row>
-    <row r="112" spans="1:17">
+      <c r="O111" s="155"/>
+      <c r="P111" s="155"/>
+      <c r="Q111" s="156"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="72"/>
       <c r="B112" s="3" t="s">
         <v>19</v>
@@ -8319,7 +8320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="74" t="s">
         <v>35</v>
       </c>
@@ -8340,7 +8341,7 @@
       <c r="P113" s="6"/>
       <c r="Q113" s="35"/>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="72" t="s">
         <v>18</v>
       </c>
@@ -8372,7 +8373,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="72" t="s">
         <v>9</v>
       </c>
@@ -8417,7 +8418,7 @@
       <c r="P115" s="40"/>
       <c r="Q115" s="41"/>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="72"/>
       <c r="B116" s="40"/>
       <c r="C116" s="40"/>
@@ -8452,7 +8453,7 @@
       <c r="P116" s="40"/>
       <c r="Q116" s="41"/>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="72"/>
       <c r="B117" s="40"/>
       <c r="C117" s="40"/>
@@ -8479,7 +8480,7 @@
       <c r="P117" s="40"/>
       <c r="Q117" s="41"/>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="72"/>
       <c r="B118" s="40"/>
       <c r="C118" s="40"/>
@@ -8506,7 +8507,7 @@
       <c r="P118" s="40"/>
       <c r="Q118" s="41"/>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="72" t="s">
         <v>28</v>
       </c>
@@ -8535,7 +8536,7 @@
         <v>-1.04</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="72" t="s">
         <v>13</v>
       </c>
@@ -8564,7 +8565,7 @@
       <c r="P120" s="40"/>
       <c r="Q120" s="41"/>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="72" t="s">
         <v>27</v>
       </c>
@@ -8593,7 +8594,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="72"/>
       <c r="B122" s="40"/>
       <c r="C122" s="40"/>
@@ -8620,7 +8621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="72" t="s">
         <v>31</v>
       </c>
@@ -8665,7 +8666,7 @@
         <v>-0.97</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="17" thickBot="1">
+    <row r="124" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="73" t="s">
         <v>26</v>
       </c>
@@ -8702,46 +8703,46 @@
       <c r="P124" s="102"/>
       <c r="Q124" s="103"/>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="12"/>
       <c r="E125" s="13"/>
       <c r="I125" s="13"/>
       <c r="M125" s="13"/>
     </row>
-    <row r="126" spans="1:18" ht="17" thickBot="1">
+    <row r="126" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="E126" s="13"/>
       <c r="I126" s="13"/>
       <c r="M126" s="13"/>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="53"/>
-      <c r="B127" s="160" t="s">
+      <c r="B127" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C127" s="161"/>
-      <c r="D127" s="161"/>
-      <c r="E127" s="162"/>
-      <c r="F127" s="160" t="s">
+      <c r="C127" s="138"/>
+      <c r="D127" s="138"/>
+      <c r="E127" s="139"/>
+      <c r="F127" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="G127" s="161"/>
-      <c r="H127" s="161"/>
-      <c r="I127" s="162"/>
-      <c r="J127" s="161" t="s">
+      <c r="G127" s="138"/>
+      <c r="H127" s="138"/>
+      <c r="I127" s="139"/>
+      <c r="J127" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="K127" s="161"/>
-      <c r="L127" s="161"/>
-      <c r="M127" s="163"/>
-      <c r="N127" s="161" t="s">
+      <c r="K127" s="138"/>
+      <c r="L127" s="138"/>
+      <c r="M127" s="140"/>
+      <c r="N127" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="O127" s="161"/>
-      <c r="P127" s="161"/>
-      <c r="Q127" s="163"/>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="O127" s="138"/>
+      <c r="P127" s="138"/>
+      <c r="Q127" s="140"/>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="54"/>
       <c r="B128" s="3" t="s">
         <v>19</v>
@@ -8792,7 +8793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="56" t="s">
         <v>36</v>
       </c>
@@ -8813,7 +8814,7 @@
       <c r="P129" s="6"/>
       <c r="Q129" s="35"/>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="54" t="s">
         <v>18</v>
       </c>
@@ -8842,7 +8843,7 @@
       <c r="P130" s="40"/>
       <c r="Q130" s="41"/>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="54" t="s">
         <v>9</v>
       </c>
@@ -8879,7 +8880,7 @@
       <c r="P131" s="40"/>
       <c r="Q131" s="41"/>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="54"/>
       <c r="B132" s="40"/>
       <c r="C132" s="40"/>
@@ -8906,7 +8907,7 @@
       <c r="P132" s="40"/>
       <c r="Q132" s="41"/>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="54"/>
       <c r="B133" s="40"/>
       <c r="C133" s="40"/>
@@ -8933,7 +8934,7 @@
       <c r="P133" s="40"/>
       <c r="Q133" s="41"/>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="54"/>
       <c r="B134" s="40"/>
       <c r="C134" s="40"/>
@@ -8960,7 +8961,7 @@
       <c r="P134" s="40"/>
       <c r="Q134" s="41"/>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="54" t="s">
         <v>28</v>
       </c>
@@ -8981,7 +8982,7 @@
       <c r="P135" s="40"/>
       <c r="Q135" s="116"/>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="54" t="s">
         <v>13</v>
       </c>
@@ -9018,7 +9019,7 @@
       <c r="P136" s="40"/>
       <c r="Q136" s="41"/>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="54" t="s">
         <v>27</v>
       </c>
@@ -9047,7 +9048,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="54"/>
       <c r="B138" s="40"/>
       <c r="C138" s="40"/>
@@ -9074,7 +9075,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="54" t="s">
         <v>31</v>
       </c>
@@ -9119,7 +9120,7 @@
         <v>-0.97</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="17" thickBot="1">
+    <row r="140" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="55" t="s">
         <v>26</v>
       </c>
@@ -9158,6 +9159,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="J111:M111"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="J76:M76"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B127:E127"/>
     <mergeCell ref="F127:I127"/>
@@ -9174,30 +9199,6 @@
     <mergeCell ref="B95:E95"/>
     <mergeCell ref="F95:I95"/>
     <mergeCell ref="J95:M95"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="J111:M111"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9212,7 +9213,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="75" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="75"/>
@@ -9228,39 +9229,39 @@
     <col min="22" max="16384" width="10.83203125" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="168" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B1" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="168" t="s">
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="171" t="s">
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="178" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171" t="s">
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171" t="s">
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178" t="s">
         <v>115</v>
       </c>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="76"/>
       <c r="B2" s="77" t="s">
         <v>19</v>
@@ -9323,7 +9324,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="85">
+    <row r="3" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="76" t="s">
         <v>18</v>
       </c>
@@ -9382,7 +9383,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="76"/>
       <c r="R4" s="75">
         <v>155</v>
@@ -9397,7 +9398,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="68">
+    <row r="5" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
         <v>9</v>
       </c>
@@ -9444,7 +9445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="68">
+    <row r="6" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="76"/>
       <c r="F6" s="76" t="s">
         <v>92</v>
@@ -9460,10 +9461,10 @@
       </c>
       <c r="U6" s="80"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="76"/>
     </row>
-    <row r="8" spans="1:21" ht="102">
+    <row r="8" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="76" t="s">
         <v>28</v>
       </c>
@@ -9528,7 +9529,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="76"/>
       <c r="R9" s="75">
         <v>115</v>
@@ -9540,7 +9541,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="85">
+    <row r="10" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="76" t="s">
         <v>13</v>
       </c>
@@ -9605,7 +9606,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="17">
+    <row r="11" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="76"/>
       <c r="B11" s="75" t="s">
         <v>71</v>
@@ -9641,7 +9642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="68">
+    <row r="12" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="76" t="s">
         <v>27</v>
       </c>
@@ -9694,7 +9695,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="76"/>
       <c r="E13" s="80"/>
       <c r="I13" s="80"/>
@@ -9704,7 +9705,7 @@
       <c r="P13" s="118"/>
       <c r="Q13" s="119"/>
     </row>
-    <row r="14" spans="1:21" ht="85">
+    <row r="14" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="76" t="s">
         <v>15</v>
       </c>
@@ -9754,10 +9755,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="76"/>
     </row>
-    <row r="16" spans="1:21" ht="85">
+    <row r="16" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="76" t="s">
         <v>26</v>
       </c>
@@ -9807,10 +9808,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="76"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="76"/>
     </row>
   </sheetData>
